--- a/data/SWF_data.xlsx
+++ b/data/SWF_data.xlsx
@@ -206,9 +206,6 @@
     <t>TEVEZ 15</t>
   </si>
   <si>
-    <t>BENEDETTO 17</t>
-  </si>
-  <si>
     <t>PAVON 17</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>DESABATO 09</t>
   </si>
   <si>
-    <t>ORION 10</t>
-  </si>
-  <si>
     <t>TORRICO 13</t>
   </si>
   <si>
@@ -383,9 +377,6 @@
     <t>BUSTOS 17</t>
   </si>
   <si>
-    <t>ROLFI 15</t>
-  </si>
-  <si>
     <t>LERTORA 19</t>
   </si>
   <si>
@@ -746,9 +737,6 @@
     <t>COPA ARG 18</t>
   </si>
   <si>
-    <t>LAUTARO 18/19</t>
-  </si>
-  <si>
     <t>LICHA 18/19</t>
   </si>
   <si>
@@ -824,15 +812,9 @@
     <t>LIBERTADORES 20</t>
   </si>
   <si>
-    <t>P PIATTI 06</t>
-  </si>
-  <si>
     <t>I PIATTI 14</t>
   </si>
   <si>
-    <t>V BARCO 23</t>
-  </si>
-  <si>
     <t>SALVIO 09</t>
   </si>
   <si>
@@ -878,9 +860,6 @@
     <t>MAURO ZARATE 14</t>
   </si>
   <si>
-    <t>MOLINA 19/20</t>
-  </si>
-  <si>
     <t>BRIAN ROMERO 20</t>
   </si>
   <si>
@@ -903,6 +882,27 @@
   </si>
   <si>
     <t>ROLY 05</t>
+  </si>
+  <si>
+    <t>MARCO PEREZ 10</t>
+  </si>
+  <si>
+    <t>FRANCO JARA 09</t>
+  </si>
+  <si>
+    <t>ALEXIS SANCHEZ 08</t>
+  </si>
+  <si>
+    <t>HUSAIN 03</t>
+  </si>
+  <si>
+    <t>BARCO 23</t>
+  </si>
+  <si>
+    <t>LAUTARO 17/18</t>
+  </si>
+  <si>
+    <t>BENEDETTO 16/17</t>
   </si>
 </sst>
 </file>
@@ -1405,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,48 +1417,50 @@
     <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
     <col min="6" max="13" width="20.7109375" style="1" customWidth="1"/>
     <col min="14" max="15" width="17.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="16" max="19" width="11.42578125" style="1"/>
+    <col min="20" max="20" width="17.85546875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
+      <c r="B1" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>154</v>
+        <v>148</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>7</v>
@@ -1483,30 +1485,30 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>286</v>
+      <c r="A2" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H2" s="3" t="str">
-        <f>D5</f>
-        <v>ASTRADA 03</v>
+        <f>F4</f>
+        <v>HUSAIN 03</v>
       </c>
       <c r="I2" s="3" t="str">
-        <f>E7</f>
+        <f>A7</f>
         <v>FARIAS 03</v>
       </c>
       <c r="J2" s="3" t="str">
@@ -1547,41 +1549,35 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f>E6</f>
-        <v>MILITO 03</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>196</v>
+        <f>D5</f>
+        <v>ASTRADA 03</v>
       </c>
       <c r="J3" s="3" t="str">
-        <f>A2</f>
+        <f>D2</f>
         <v>SCHIAVI 03</v>
       </c>
       <c r="K3" s="5" t="str">
         <f>D27</f>
         <v>LUCHO GONZALEZ 04</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>199</v>
-      </c>
       <c r="M3" s="7" t="str">
         <f>A26</f>
         <v>CASTROMAN 05</v>
@@ -1611,27 +1607,23 @@
         <v>54</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>284</v>
+        <v>273</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="H4" s="3" t="str">
-        <f>F9</f>
-        <v>MAURO ZARATE 14</v>
-      </c>
-      <c r="I4" s="4" t="str">
-        <f>D7</f>
-        <v>SOSA 06</v>
+        <f>E6</f>
+        <v>MILITO 03</v>
       </c>
       <c r="J4" s="3" t="str">
         <f>A6</f>
@@ -1641,13 +1633,6 @@
         <f>F31</f>
         <v>GALLARDO 04</v>
       </c>
-      <c r="L4" s="11" t="str">
-        <f>C3</f>
-        <v>MAXI VELAZQUEZ 07</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="N4" s="25" t="str">
         <f>B24</f>
         <v>KRUPOVIESA 05</v>
@@ -1661,55 +1646,36 @@
       <c r="R4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="7"/>
       <c r="T4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>126</v>
-      </c>
       <c r="C5" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H5" s="3" t="str">
         <f>E10</f>
         <v>DALESSANDRO 03</v>
       </c>
-      <c r="I5" s="4" t="str">
-        <f>F22</f>
-        <v>LAVEZZI 06</v>
-      </c>
       <c r="J5" s="3" t="str">
-        <f>A7</f>
+        <f>E7</f>
         <v>GUILLERMO 03</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="L5" s="11" t="str">
-        <f>E8</f>
-        <v>VALERI 07</v>
-      </c>
-      <c r="M5" s="11" t="str">
-        <f>B3</f>
-        <v>MOREL RODRIGUEZ 07</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="P5" s="4">
         <v>2006</v>
@@ -1725,47 +1691,24 @@
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>63</v>
+      <c r="B6" s="23" t="s">
+        <v>170</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f>A14</f>
-        <v>PALACIO 06</v>
+        <v>167</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="J6" s="3" t="str">
-        <f>A16</f>
+        <f>F16</f>
         <v>DELGADO 03</v>
-      </c>
-      <c r="K6" s="11" t="str">
-        <f>F20</f>
-        <v>DI MARIA 07</v>
-      </c>
-      <c r="L6" s="11" t="str">
-        <f>D13</f>
-        <v>BOSSIO 07</v>
-      </c>
-      <c r="M6" s="11" t="str">
-        <f>A4</f>
-        <v>IBARRA 07</v>
-      </c>
-      <c r="N6" s="11" t="str">
-        <f>F14</f>
-        <v>CALDERON 10</v>
       </c>
       <c r="P6" s="11">
         <v>2007</v>
@@ -1785,51 +1728,27 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f>A5</f>
-        <v>GAGO 06</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f>E19</f>
-        <v>HIGUAÍN 06</v>
+        <v>134</v>
       </c>
       <c r="J7" s="3" t="str">
         <f>B8</f>
         <v>CAGNA 03</v>
       </c>
-      <c r="K7" s="11" t="str">
-        <f>A17</f>
-        <v>GALLEGO MENDEZ 07</v>
-      </c>
-      <c r="L7" s="11" t="str">
-        <f>D19</f>
-        <v>DENIS 07</v>
-      </c>
-      <c r="M7" s="11" t="str">
-        <f>D6</f>
-        <v>CATA DIAZ 07</v>
-      </c>
-      <c r="N7" s="11" t="str">
-        <f>C15</f>
-        <v>PAPU 07</v>
-      </c>
       <c r="P7" s="13">
         <v>2008</v>
       </c>
@@ -1840,7 +1759,7 @@
         <v>13</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T7" s="13" t="s">
         <v>29</v>
@@ -1848,47 +1767,43 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="4" t="str">
-        <f>A23</f>
-        <v>BILOS 06</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f>C29</f>
-        <v>P PIATTI 06</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="L8" s="11" t="str">
-        <f>E23</f>
-        <v>BLANCO 07</v>
-      </c>
-      <c r="M8" s="11" t="str">
-        <f>A9</f>
-        <v>PALERMO 07</v>
+      <c r="H8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P8" s="20">
         <v>2009</v>
@@ -1902,366 +1817,302 @@
       <c r="S8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="20"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>60</v>
+      <c r="B9" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>108</v>
+        <v>131</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H9" s="4" t="str">
+        <f>B5</f>
+        <v>GAGO 06</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f>D7</f>
+        <v>SOSA 06</v>
+      </c>
+      <c r="J9" s="11" t="str">
+        <f>F20</f>
+        <v>DI MARIA 07</v>
+      </c>
+      <c r="K9" s="11" t="str">
+        <f>C3</f>
+        <v>MAXI VELAZQUEZ 07</v>
+      </c>
+      <c r="L9" s="11" t="str">
+        <f>B3</f>
+        <v>MOREL RODRIGUEZ 07</v>
+      </c>
+      <c r="M9" s="11" t="str">
+        <f>F14</f>
+        <v>CALDERON 10</v>
+      </c>
+      <c r="N9" s="23" t="str">
+        <f>F30</f>
+        <v>MARCO PEREZ 10</v>
+      </c>
+      <c r="P9" s="10">
+        <v>2010</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f>F23</f>
+        <v>BILOS 06</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f>F22</f>
+        <v>LAVEZZI 06</v>
+      </c>
+      <c r="J10" s="11" t="str">
+        <f>A17</f>
+        <v>GALLEGO MENDEZ 07</v>
+      </c>
+      <c r="K10" s="11" t="str">
+        <f>E8</f>
+        <v>VALERI 07</v>
+      </c>
+      <c r="L10" s="11" t="str">
+        <f>A4</f>
+        <v>IBARRA 07</v>
+      </c>
+      <c r="M10" s="11" t="str">
+        <f>C15</f>
+        <v>PAPU 07</v>
+      </c>
+      <c r="P10" s="16">
+        <v>2011</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="4" t="str">
         <f>D10</f>
         <v>INSUA 05</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="13" t="str">
-        <f>F15</f>
-        <v>BERGESSIO 08</v>
-      </c>
-      <c r="K9" s="20" t="str">
-        <f>D3</f>
-        <v>PAPA 09</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="M9" s="11" t="str">
-        <f>A10</f>
-        <v>JRR 07</v>
-      </c>
-      <c r="N9" s="23" t="str">
-        <f>F30</f>
-        <v>ROLFI 15</v>
-      </c>
-      <c r="P9" s="10">
-        <v>2010</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="H10" s="4" t="str">
+      <c r="I11" s="4" t="str">
+        <f>A14</f>
+        <v>PALACIO 06</v>
+      </c>
+      <c r="K11" s="11" t="str">
+        <f>D13</f>
+        <v>BOSSIO 07</v>
+      </c>
+      <c r="L11" s="11" t="str">
+        <f>D6</f>
+        <v>CATA DIAZ 07</v>
+      </c>
+      <c r="P11" s="9">
+        <v>2012</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="4" t="str">
         <f>F27</f>
         <v>MAXI MORALEZ 06</v>
       </c>
-      <c r="I10" s="13" t="str">
-        <f>C9</f>
-        <v>SAND 08</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="I12" s="4" t="str">
+        <f>E19</f>
+        <v>HIGUAÍN 06</v>
+      </c>
+      <c r="K12" s="11" t="str">
+        <f>A19</f>
+        <v>DENIS 07</v>
+      </c>
+      <c r="L12" s="11" t="str">
+        <f>A9</f>
+        <v>PALERMO 07</v>
+      </c>
+      <c r="P12" s="17">
+        <v>2013</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="K10" s="20" t="str">
-        <f>E5</f>
-        <v>CUBERO 09</v>
-      </c>
-      <c r="L10" s="20" t="str">
-        <f>F8</f>
-        <v>JAMES 09</v>
-      </c>
-      <c r="M10" s="11" t="str">
+      <c r="K13" s="11" t="str">
+        <f>E23</f>
+        <v>BLANCO 07</v>
+      </c>
+      <c r="L13" s="11" t="str">
+        <f>F10</f>
+        <v>JRR 07</v>
+      </c>
+      <c r="P13" s="22">
+        <v>2014</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="11" t="str">
         <f>A24</f>
         <v>EVER BANEGA 07</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="P10" s="16">
-        <v>2011</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="I11" s="13" t="str">
-        <f>A18</f>
-        <v>FIGUEROA 08</v>
-      </c>
-      <c r="J11" s="10" t="str">
-        <f>E17</f>
-        <v>PARRA 10</v>
-      </c>
-      <c r="K11" s="20" t="str">
-        <f>C6</f>
-        <v>SEBA DOMINGUEZ 09</v>
-      </c>
-      <c r="L11" s="20" t="str">
-        <f>B11</f>
-        <v>ROLY 05</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="N11" s="17" t="str">
-        <f>C4</f>
-        <v>NERVO 13</v>
-      </c>
-      <c r="P11" s="9">
-        <v>2012</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="H12" s="13" t="str">
-        <f>A13</f>
-        <v>ABREU 08</v>
-      </c>
-      <c r="I12" s="13" t="str">
-        <f>A27</f>
-        <v>VIATRI 08</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K12" s="20" t="str">
-        <f>E14</f>
-        <v>SALVIO 09</v>
-      </c>
-      <c r="L12" s="20" t="str">
-        <f>A25</f>
-        <v>PAPELITO 09</v>
-      </c>
-      <c r="M12" s="20" t="str">
-        <f>B2</f>
-        <v>DESABATO 09</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="P12" s="17">
-        <v>2013</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="13" t="str">
-        <f>A20</f>
-        <v>CVITANICH 08</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="J13" s="9" t="str">
-        <f>B19</f>
-        <v>RUBEN BOTTA 12</v>
-      </c>
-      <c r="K13" s="20" t="str">
-        <f>F16</f>
-        <v>PASTORE 09</v>
-      </c>
-      <c r="L13" s="20" t="str">
-        <f>A28</f>
-        <v>GAITAN 09</v>
-      </c>
-      <c r="M13" s="20" t="str">
-        <f>A11</f>
-        <v>VERON 09</v>
-      </c>
-      <c r="N13" s="14" t="str">
-        <f>F17</f>
-        <v>HERRERA 18</v>
-      </c>
-      <c r="P13" s="22">
-        <v>2014</v>
-      </c>
-      <c r="Q13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="T13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V13" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="13" t="str">
-        <f>B29</f>
-        <v>JP CARRIZO 08</v>
-      </c>
-      <c r="I14" s="10" t="str">
-        <f>A21</f>
-        <v>ORION 10</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="K14" s="20" t="str">
-        <f>E16</f>
-        <v>V ZAPATA 09</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="M14" s="20" t="str">
-        <f>B17</f>
-        <v>BOSELLI 09</v>
-      </c>
-      <c r="N14" s="14" t="str">
-        <f>B20</f>
-        <v>ZAMPEDRI 18</v>
       </c>
       <c r="P14" s="23">
         <v>2015</v>
@@ -2285,49 +2136,40 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="13" t="str">
-        <f>C30</f>
-        <v>BUONANOTTE 08</v>
-      </c>
-      <c r="I15" s="10" t="str">
-        <f>C22</f>
-        <v>STRACQUALURSI 10</v>
-      </c>
-      <c r="J15" s="22" t="str">
-        <f>B5</f>
-        <v>MERCIER 14</v>
-      </c>
-      <c r="K15" s="20" t="str">
-        <f>E20</f>
-        <v>FUERTES 09</v>
-      </c>
-      <c r="L15" s="16" t="str">
-        <f>D18</f>
-        <v>TITO RAMIREZ 11</v>
-      </c>
-      <c r="M15" s="20" t="str">
-        <f>E21</f>
-        <v>ANDUJAR 09</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>251</v>
+        <v>144</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="P15" s="21">
         <v>2016</v>
@@ -2338,8 +2180,6 @@
       <c r="R15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
       <c r="U15" s="21" t="s">
         <v>12</v>
       </c>
@@ -2348,49 +2188,47 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="I16" s="10" t="str">
-        <f>C23</f>
-        <v>CHINO BENITEZ 10</v>
-      </c>
-      <c r="J16" s="22" t="str">
-        <f>C11</f>
-        <v>ANGEL CORREA 14</v>
+      <c r="H16" s="13" t="str">
+        <f>A13</f>
+        <v>ABREU 08</v>
+      </c>
+      <c r="I16" s="13" t="str">
+        <f>C9</f>
+        <v>SAND 08</v>
+      </c>
+      <c r="J16" s="13" t="str">
+        <f>F15</f>
+        <v>BERGESSIO 08</v>
       </c>
       <c r="K16" s="20" t="str">
-        <f>E25</f>
-        <v>EDU DOMINGUEZ 09</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>220</v>
+        <f>D3</f>
+        <v>PAPA 09</v>
+      </c>
+      <c r="L16" s="20" t="str">
+        <f>F8</f>
+        <v>JAMES 09</v>
       </c>
       <c r="M16" s="20" t="str">
-        <f>A22</f>
-        <v>BRAÑA 09</v>
-      </c>
-      <c r="N16" s="12" t="str">
-        <f>C19</f>
-        <v>QUIGNON 20</v>
+        <f>B2</f>
+        <v>DESABATO 09</v>
       </c>
       <c r="P16" s="8">
         <v>2017</v>
@@ -2416,49 +2254,42 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="10" t="str">
-        <f>E2</f>
-        <v>CARUZZO 10</v>
-      </c>
-      <c r="I17" s="10" t="str">
-        <f>A30</f>
-        <v>CLEMENTE 10</v>
-      </c>
-      <c r="J17" s="22" t="str">
-        <f>B14</f>
-        <v>KANNEMANN 14</v>
+        <v>121</v>
+      </c>
+      <c r="H17" s="13" t="str">
+        <f>A20</f>
+        <v>CVITANICH 08</v>
+      </c>
+      <c r="I17" s="13" t="str">
+        <f>A18</f>
+        <v>FIGUEROA 08</v>
       </c>
       <c r="K17" s="20" t="str">
-        <f>F28</f>
-        <v>BOLATTI 09</v>
-      </c>
-      <c r="L17" s="17" t="str">
-        <f>A12</f>
-        <v>TORRICO 13</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="N17" s="12" t="str">
-        <f>E31</f>
-        <v>BRIAN ROMERO 20</v>
+        <f>E5</f>
+        <v>CUBERO 09</v>
+      </c>
+      <c r="L17" s="20" t="str">
+        <f>B11</f>
+        <v>ROLY 05</v>
+      </c>
+      <c r="M17" s="20" t="str">
+        <f>A11</f>
+        <v>VERON 09</v>
       </c>
       <c r="P17" s="14">
         <v>2018</v>
@@ -2485,45 +2316,39 @@
         <v>49</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="F18" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="H18" s="10" t="str">
-        <f>D12</f>
-        <v>GABBARINI 10</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J18" s="22" t="str">
-        <f>C20</f>
-        <v>ORTIGOZA 14</v>
+        <v>276</v>
+      </c>
+      <c r="H18" s="13" t="str">
+        <f>A21</f>
+        <v>ALEXIS SANCHEZ 08</v>
+      </c>
+      <c r="I18" s="13" t="str">
+        <f>E27</f>
+        <v>VIATRI 08</v>
       </c>
       <c r="K18" s="20" t="str">
-        <f>D30</f>
-        <v>OTAMENDI 09</v>
-      </c>
-      <c r="L18" s="17" t="str">
-        <f>A15</f>
-        <v>TITO VILLALBA 13</v>
-      </c>
-      <c r="M18" s="17" t="str">
-        <f>F2</f>
-        <v>GOLTZ 13</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>252</v>
+        <f>C6</f>
+        <v>SEBA DOMINGUEZ 09</v>
+      </c>
+      <c r="L18" s="20" t="str">
+        <f>A25</f>
+        <v>PAPELITO 09</v>
+      </c>
+      <c r="M18" s="20" t="str">
+        <f>B17</f>
+        <v>BOSELLI 09</v>
       </c>
       <c r="P18" s="15">
         <v>2019</v>
@@ -2548,50 +2373,39 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>268</v>
+      <c r="A19" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>133</v>
+        <v>280</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>290</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="10" t="str">
-        <f>B15</f>
-        <v>NANDEZ 18</v>
-      </c>
-      <c r="I19" s="9" t="str">
-        <f>D14</f>
-        <v>FERREYRA 12</v>
-      </c>
-      <c r="J19" s="22" t="str">
-        <f>B21</f>
-        <v>MAS 14</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="17" t="str">
-        <f>D28</f>
-        <v>RULLI 13</v>
-      </c>
-      <c r="M19" s="17" t="str">
-        <f>D24</f>
-        <v>ENZO PEREZ 18</v>
-      </c>
-      <c r="N19" s="19" t="str">
-        <f>D9</f>
-        <v>JULIAN 21</v>
+        <v>129</v>
+      </c>
+      <c r="H19" s="13" t="str">
+        <f>B29</f>
+        <v>JP CARRIZO 08</v>
+      </c>
+      <c r="K19" s="20" t="str">
+        <f>E14</f>
+        <v>SALVIO 09</v>
+      </c>
+      <c r="L19" s="20" t="str">
+        <f>A28</f>
+        <v>GAITAN 09</v>
+      </c>
+      <c r="M19" s="20" t="str">
+        <f>E21</f>
+        <v>ANDUJAR 09</v>
       </c>
       <c r="P19" s="12">
         <v>2020</v>
@@ -2602,54 +2416,44 @@
       <c r="R19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S19" s="12"/>
       <c r="T19" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H20" s="10" t="str">
-        <f>F29</f>
-        <v>GENTILETTI 10</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="J20" s="22" t="str">
-        <f>B26</f>
-        <v>MATOS 14</v>
-      </c>
-      <c r="K20" s="16" t="str">
-        <f>A8</f>
-        <v>AUGUSTO 11</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="N20" s="19" t="str">
-        <f>F13</f>
-        <v>ENZO 21</v>
+        <v>182</v>
+      </c>
+      <c r="H20" s="13" t="str">
+        <f>C30</f>
+        <v>BUONANOTTE 08</v>
+      </c>
+      <c r="K20" s="20" t="str">
+        <f>A16</f>
+        <v>PASTORE 09</v>
+      </c>
+      <c r="L20" s="20" t="str">
+        <f>C29</f>
+        <v>FRANCO JARA 09</v>
+      </c>
+      <c r="M20" s="20" t="str">
+        <f>A22</f>
+        <v>BRAÑA 09</v>
       </c>
       <c r="P20" s="19">
         <v>2021</v>
@@ -2660,8 +2464,6 @@
       <c r="R20" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
       <c r="U20" s="19" t="s">
         <v>13</v>
       </c>
@@ -2671,49 +2473,26 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I21" s="22" t="str">
-        <f>E1</f>
-        <v>SAJA 14</v>
-      </c>
-      <c r="J21" s="22" t="str">
-        <f>C28</f>
-        <v>I PIATTI 14</v>
-      </c>
-      <c r="K21" s="16" t="str">
-        <f>D11</f>
-        <v>RICKY ALVAREZ 11</v>
-      </c>
-      <c r="L21" s="23" t="str">
-        <f>E9</f>
-        <v>RUBEN 15</v>
-      </c>
-      <c r="M21" s="23" t="str">
-        <f>F1</f>
-        <v>BAROVERO 15</v>
-      </c>
-      <c r="N21" s="19" t="str">
-        <f>A29</f>
-        <v>MONTIEL 20</v>
+        <v>117</v>
+      </c>
+      <c r="K21" s="20" t="str">
+        <f>E16</f>
+        <v>V ZAPATA 09</v>
       </c>
       <c r="P21" s="18">
         <v>2022</v>
@@ -2724,8 +2503,6 @@
       <c r="R21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
       <c r="U21" s="18" t="s">
         <v>38</v>
       </c>
@@ -2735,49 +2512,26 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="9" t="str">
-        <f>F7</f>
-        <v>LUNA 12</v>
-      </c>
-      <c r="I22" s="22" t="str">
-        <f>E12</f>
-        <v>PRATTO 14</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="K22" s="16" t="str">
-        <f>D23</f>
-        <v>TANQUE SILVA 11</v>
-      </c>
-      <c r="L22" s="23" t="str">
-        <f>B10</f>
-        <v>TEVEZ 15</v>
-      </c>
-      <c r="M22" s="23" t="str">
-        <f>C2</f>
-        <v>MAIDANA 15</v>
-      </c>
-      <c r="N22" s="19" t="str">
-        <f>A31</f>
-        <v>SIMON 21</v>
+        <v>168</v>
+      </c>
+      <c r="K22" s="20" t="str">
+        <f>E20</f>
+        <v>FUERTES 09</v>
       </c>
       <c r="P22" s="24">
         <v>2023</v>
@@ -2791,7 +2545,6 @@
       <c r="S22" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="T22" s="24"/>
       <c r="U22" s="24" t="s">
         <v>16</v>
       </c>
@@ -2800,47 +2553,27 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>55</v>
+      <c r="A23" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="9" t="str">
-        <f>F12</f>
-        <v>JAVI GARCIA 12</v>
-      </c>
-      <c r="I23" s="22" t="str">
-        <f>C17</f>
-        <v>ACUÑA 14</v>
-      </c>
-      <c r="J23" s="8" t="str">
-        <f>B4</f>
-        <v>JL GOMEZ 17</v>
-      </c>
-      <c r="K23" s="16" t="str">
-        <f>F25</f>
-        <v>ALMEYDA 11</v>
-      </c>
-      <c r="L23" s="23" t="str">
-        <f>F11</f>
-        <v>MANCUELLO 15</v>
-      </c>
-      <c r="M23" s="23" t="str">
-        <f>C5</f>
-        <v>KRANEVITTER 15</v>
+        <v>138</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="20" t="str">
+        <f>E25</f>
+        <v>EDU DOMINGUEZ 09</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -2848,175 +2581,122 @@
         <v>5</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="9" t="str">
-        <f>E22</f>
-        <v>MIGLIORE 12</v>
-      </c>
-      <c r="I24" s="22" t="str">
-        <f>B22</f>
-        <v>MILITO 14</v>
-      </c>
-      <c r="J24" s="8" t="str">
-        <f>D8</f>
-        <v>MEZA 17</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="L24" s="23" t="str">
-        <f>C21</f>
-        <v>LO CELSO 15</v>
-      </c>
-      <c r="M24" s="23" t="str">
-        <f>F6</f>
-        <v>F MORI 15</v>
+        <v>162</v>
+      </c>
+      <c r="K24" s="20" t="str">
+        <f>F28</f>
+        <v>BOLATTI 09</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="9" t="str">
-        <f>D17</f>
-        <v>CAMPESTRINI 12</v>
-      </c>
-      <c r="I25" s="22" t="str">
-        <f>F23</f>
-        <v>BOU 14</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="K25" s="17" t="str">
-        <f>D4</f>
-        <v>PERUZZI 13</v>
-      </c>
-      <c r="L25" s="23" t="str">
-        <f>D25</f>
-        <v>PINOLA 15</v>
-      </c>
-      <c r="M25" s="23" t="str">
-        <f>C8</f>
-        <v>SANCHEZ 15</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>254</v>
+        <v>161</v>
+      </c>
+      <c r="K25" s="20" t="str">
+        <f>D30</f>
+        <v>OTAMENDI 09</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="J26" s="15" t="str">
-        <f>D26</f>
-        <v>NACHO FERNANDEZ 19</v>
-      </c>
-      <c r="K26" s="17" t="str">
-        <f>E11</f>
-        <v>MAXI 13</v>
-      </c>
-      <c r="L26" s="23" t="str">
-        <f>B27</f>
-        <v>CALLERI 15</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N26" s="19" t="str">
-        <f>F3</f>
-        <v>BENITEZ 21</v>
+        <v>281</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H27" s="22" t="str">
-        <f>E3</f>
-        <v>BALANTA 14</v>
-      </c>
-      <c r="I27" s="8" t="str">
-        <f>B7</f>
-        <v>PAVON 17</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="K27" s="17" t="str">
-        <f>D20</f>
-        <v>HEINZE 13</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="M27" s="14" t="str">
-        <f>D1</f>
-        <v>ARMANI 18</v>
+        <v>268</v>
+      </c>
+      <c r="H27" s="10" t="str">
+        <f>E2</f>
+        <v>CARUZZO 10</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f>C22</f>
+        <v>STRACQUALURSI 10</v>
+      </c>
+      <c r="J27" s="10" t="str">
+        <f>E17</f>
+        <v>PARRA 10</v>
+      </c>
+      <c r="K27" s="16" t="str">
+        <f>A8</f>
+        <v>AUGUSTO 11</v>
+      </c>
+      <c r="L27" s="16" t="str">
+        <f>D18</f>
+        <v>TITO RAMIREZ 11</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -3024,344 +2704,695 @@
         <v>58</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C28" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="10" t="str">
+        <f>D12</f>
+        <v>GABBARINI 10</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f>C23</f>
+        <v>CHINO BENITEZ 10</v>
+      </c>
+      <c r="K28" s="16" t="str">
+        <f>D11</f>
+        <v>RICKY ALVAREZ 11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="10" t="str">
+        <f>B15</f>
+        <v>NANDEZ 18</v>
+      </c>
+      <c r="I29" s="10" t="str">
+        <f>A30</f>
+        <v>CLEMENTE 10</v>
+      </c>
+      <c r="K29" s="16" t="str">
+        <f>D23</f>
+        <v>TANQUE SILVA 11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H30" s="10" t="str">
+        <f>F29</f>
+        <v>GENTILETTI 10</v>
+      </c>
+      <c r="K30" s="16" t="str">
+        <f>F25</f>
+        <v>ALMEYDA 11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="10" t="str">
+        <f>F30</f>
+        <v>MARCO PEREZ 10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="N32" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H28" s="22" t="str">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H33" s="9" t="str">
+        <f>F7</f>
+        <v>LUNA 12</v>
+      </c>
+      <c r="I33" s="9" t="str">
+        <f>D14</f>
+        <v>FERREYRA 12</v>
+      </c>
+      <c r="J33" s="9" t="str">
+        <f>B19</f>
+        <v>RUBEN BOTTA 12</v>
+      </c>
+      <c r="K33" s="17" t="str">
+        <f>D4</f>
+        <v>PERUZZI 13</v>
+      </c>
+      <c r="L33" s="17" t="str">
+        <f>A12</f>
+        <v>TORRICO 13</v>
+      </c>
+      <c r="M33" s="17" t="str">
+        <f>F2</f>
+        <v>GOLTZ 13</v>
+      </c>
+      <c r="N33" s="17" t="str">
+        <f>C4</f>
+        <v>NERVO 13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H34" s="9" t="str">
+        <f>F12</f>
+        <v>JAVI GARCIA 12</v>
+      </c>
+      <c r="K34" s="17" t="str">
+        <f>E11</f>
+        <v>MAXI 13</v>
+      </c>
+      <c r="L34" s="17" t="str">
+        <f>A15</f>
+        <v>TITO VILLALBA 13</v>
+      </c>
+      <c r="M34" s="17" t="str">
+        <f>D24</f>
+        <v>ENZO PEREZ 18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H35" s="9" t="str">
+        <f>E22</f>
+        <v>MIGLIORE 12</v>
+      </c>
+      <c r="K35" s="17" t="str">
+        <f>D20</f>
+        <v>HEINZE 13</v>
+      </c>
+      <c r="L35" s="17" t="str">
+        <f>D28</f>
+        <v>RULLI 13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H36" s="9" t="str">
+        <f>D17</f>
+        <v>CAMPESTRINI 12</v>
+      </c>
+      <c r="K36" s="17" t="str">
+        <f>D21</f>
+        <v>SCOCCO 13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H37" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H38" s="22" t="str">
+        <f>E3</f>
+        <v>BALANTA 14</v>
+      </c>
+      <c r="I38" s="22" t="str">
+        <f>E1</f>
+        <v>SAJA 14</v>
+      </c>
+      <c r="J38" s="22" t="str">
+        <f>A5</f>
+        <v>MERCIER 14</v>
+      </c>
+      <c r="K38" s="22" t="str">
+        <f>F18</f>
+        <v>CAVENAGHI 14</v>
+      </c>
+      <c r="L38" s="23" t="str">
+        <f>E9</f>
+        <v>RUBEN 15</v>
+      </c>
+      <c r="M38" s="23" t="str">
+        <f>B1</f>
+        <v>BAROVERO 15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H39" s="22" t="str">
         <f>F9</f>
         <v>MAURO ZARATE 14</v>
       </c>
-      <c r="I28" s="8" t="str">
+      <c r="I39" s="22" t="str">
+        <f>E12</f>
+        <v>PRATTO 14</v>
+      </c>
+      <c r="J39" s="22" t="str">
+        <f>C11</f>
+        <v>ANGEL CORREA 14</v>
+      </c>
+      <c r="K39" s="22" t="str">
+        <f>C25</f>
+        <v>MERCADO 14</v>
+      </c>
+      <c r="L39" s="23" t="str">
+        <f>B10</f>
+        <v>TEVEZ 15</v>
+      </c>
+      <c r="M39" s="23" t="str">
+        <f>C2</f>
+        <v>MAIDANA 15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="H40" s="22" t="str">
+        <f>C12</f>
+        <v>WALTER BENITEZ 14</v>
+      </c>
+      <c r="I40" s="22" t="str">
+        <f>C17</f>
+        <v>ACUÑA 14</v>
+      </c>
+      <c r="J40" s="22" t="str">
+        <f>B14</f>
+        <v>KANNEMANN 14</v>
+      </c>
+      <c r="L40" s="23" t="str">
+        <f>F11</f>
+        <v>MANCUELLO 15</v>
+      </c>
+      <c r="M40" s="23" t="str">
+        <f>C5</f>
+        <v>KRANEVITTER 15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="H41" s="22" t="str">
+        <f>B28</f>
+        <v>LOBO LEDESMA 14</v>
+      </c>
+      <c r="I41" s="22" t="str">
+        <f>B22</f>
+        <v>MILITO 14</v>
+      </c>
+      <c r="J41" s="22" t="str">
+        <f>C20</f>
+        <v>ORTIGOZA 14</v>
+      </c>
+      <c r="L41" s="23" t="str">
+        <f>C21</f>
+        <v>LO CELSO 15</v>
+      </c>
+      <c r="M41" s="23" t="str">
+        <f>B6</f>
+        <v>F MORI 15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="I42" s="22" t="str">
+        <f>A23</f>
+        <v>BOU 14</v>
+      </c>
+      <c r="J42" s="22" t="str">
+        <f>B21</f>
+        <v>MAS 14</v>
+      </c>
+      <c r="L42" s="23" t="str">
+        <f>D25</f>
+        <v>PINOLA 15</v>
+      </c>
+      <c r="M42" s="23" t="str">
+        <f>C8</f>
+        <v>SANCHEZ 15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="J43" s="22" t="str">
+        <f>B26</f>
+        <v>MATOS 14</v>
+      </c>
+      <c r="L43" s="23" t="str">
+        <f>B27</f>
+        <v>CALLERI 15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="J44" s="22" t="str">
+        <f>C28</f>
+        <v>I PIATTI 14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H45" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H46" s="21" t="str">
+        <f>C26</f>
+        <v>ALMIRON 16</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f>B7</f>
+        <v>PAVON 17</v>
+      </c>
+      <c r="J46" s="8" t="str">
+        <f>B4</f>
+        <v>JL GOMEZ 17</v>
+      </c>
+      <c r="K46" s="8" t="str">
+        <f>A2</f>
+        <v>FRANCO 17</v>
+      </c>
+      <c r="L46" s="14" t="str">
+        <f>A10</f>
+        <v>LAUTARO 17/18</v>
+      </c>
+      <c r="M46" s="14" t="str">
+        <f>D1</f>
+        <v>ARMANI 18</v>
+      </c>
+      <c r="N46" s="14" t="str">
+        <f>F17</f>
+        <v>HERRERA 18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H47" s="21" t="str">
+        <f>C27</f>
+        <v>ROMAN MARTINEZ 16</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>D9</f>
+        <v>BENEDETTO 16/17</v>
+      </c>
+      <c r="J47" s="8" t="str">
+        <f>D8</f>
+        <v>MEZA 17</v>
+      </c>
+      <c r="K47" s="8" t="str">
+        <f>A3</f>
+        <v>TAGLIAFICO 17</v>
+      </c>
+      <c r="L47" s="14" t="str">
+        <f>B16</f>
+        <v>BARRIOS 17/18</v>
+      </c>
+      <c r="M47" s="14" t="str">
+        <f>B15</f>
+        <v>NANDEZ 18</v>
+      </c>
+      <c r="N47" s="14" t="str">
+        <f>B20</f>
+        <v>ZAMPEDRI 18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H48" s="21" t="str">
+        <f>B30</f>
+        <v>MARCONE 16</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>C13</f>
+        <v>ALARIO 16/17</v>
+      </c>
+      <c r="K48" s="8" t="str">
+        <f>D16</f>
+        <v>BUSTOS 17</v>
+      </c>
+      <c r="M48" s="14" t="str">
+        <f>E15</f>
+        <v>PALACIOS 18</v>
+      </c>
+    </row>
+    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I49" s="8" t="str">
+        <f>E18</f>
+        <v>MORRO 17</v>
+      </c>
+      <c r="K49" s="6" t="str">
+        <f>B25</f>
+        <v>CAMPAÑA 17</v>
+      </c>
+      <c r="M49" s="14" t="str">
+        <f>D24</f>
+        <v>ENZO PEREZ 18</v>
+      </c>
+    </row>
+    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I50" s="6" t="str">
+        <f>E26</f>
+        <v>CENTURION 16/17</v>
+      </c>
+      <c r="K50" s="6" t="str">
+        <f>A27</f>
+        <v>BARCO 17</v>
+      </c>
+    </row>
+    <row r="51" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H51" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H52" s="15" t="str">
+        <f>D15</f>
+        <v>LICHA 18/19</v>
+      </c>
+      <c r="I52" s="15" t="str">
+        <f>C14</f>
+        <v>MONTILLO 19</v>
+      </c>
+      <c r="J52" s="15" t="str">
+        <f>D26</f>
+        <v>NACHO FERNANDEZ 19</v>
+      </c>
+      <c r="K52" s="15" t="str">
+        <f>F21</f>
+        <v>LERTORA 19</v>
+      </c>
+      <c r="L52" s="12" t="str">
+        <f>F4</f>
+        <v>HUSAIN 03</v>
+      </c>
+      <c r="M52" s="12" t="str">
+        <f>A29</f>
+        <v>MONTIEL 20</v>
+      </c>
+      <c r="N52" s="12" t="str">
+        <f>C19</f>
+        <v>QUIGNON 20</v>
+      </c>
+    </row>
+    <row r="53" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H53" s="15" t="str">
+        <f>E24</f>
+        <v>LISANDRO MARTINEZ 18/19</v>
+      </c>
+      <c r="L53" s="12" t="str">
+        <f>E4</f>
+        <v>BUFFARINI 19/20</v>
+      </c>
+      <c r="N53" s="12" t="str">
+        <f>E31</f>
+        <v>BRIAN ROMERO 20</v>
+      </c>
+    </row>
+    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H54" s="15" t="str">
+        <f>F26</f>
+        <v>MATIAS ROJAS 19</v>
+      </c>
+    </row>
+    <row r="55" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H55" s="15" t="str">
+        <f>E28</f>
+        <v>ZARACHO 18/19</v>
+      </c>
+    </row>
+    <row r="56" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H56" s="15" t="str">
+        <f>E29</f>
+        <v>UVITA 18/19</v>
+      </c>
+    </row>
+    <row r="57" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H57" s="15" t="str">
+        <f>E30</f>
+        <v>SIGALI 18/9</v>
+      </c>
+    </row>
+    <row r="58" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H58" s="15" t="str">
+        <f>C31</f>
+        <v>ANDRADA 18/19</v>
+      </c>
+    </row>
+    <row r="59" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H59" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="L59" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="M59" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="N59" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H60" s="19" t="str">
+        <f>C10</f>
+        <v>PULGA 21</v>
+      </c>
+      <c r="I60" s="19" t="str">
         <f>B9</f>
-        <v>BENEDETTO 17</v>
-      </c>
-      <c r="J28" s="24" t="str">
+        <v>JULIAN 21</v>
+      </c>
+      <c r="J60" s="18" t="str">
+        <f>F6</f>
+        <v>ROJO 22</v>
+      </c>
+      <c r="K60" s="18" t="str">
+        <f>C1</f>
+        <v>ROSSI 22</v>
+      </c>
+      <c r="L60" s="24" t="str">
         <f>E13</f>
         <v>BATALLA 23</v>
       </c>
-      <c r="K28" s="17" t="str">
-        <f>D21</f>
-        <v>SCOCCO 13</v>
-      </c>
-      <c r="L28" s="14" t="str">
-        <f>B16</f>
-        <v>BARRIOS 17/18</v>
-      </c>
-      <c r="M28" s="14" t="str">
-        <f>B15</f>
-        <v>NANDEZ 18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" s="22" t="str">
-        <f>C12</f>
-        <v>WALTER BENITEZ 14</v>
-      </c>
-      <c r="I29" s="8" t="str">
-        <f>C13</f>
-        <v>ALARIO 16/17</v>
-      </c>
-      <c r="J29" s="24" t="str">
+      <c r="M60" s="24" t="str">
+        <f>B13</f>
+        <v>CAMPAZ 23</v>
+      </c>
+      <c r="N60" s="24" t="str">
+        <f>F1</f>
+        <v>ROMERO 23</v>
+      </c>
+    </row>
+    <row r="61" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I61" s="19" t="str">
+        <f>F13</f>
+        <v>ENZO 21</v>
+      </c>
+      <c r="K61" s="18" t="str">
+        <f>D22</f>
+        <v>ALCARAZ 22</v>
+      </c>
+      <c r="L61" s="24" t="str">
         <f>C18</f>
         <v>BELTRAN 23</v>
       </c>
-      <c r="K29" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="L29" s="12" t="s">
+      <c r="N61" s="24" t="str">
+        <f>D19</f>
+        <v>BARCO 23</v>
+      </c>
+    </row>
+    <row r="62" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H62" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="M29" s="14" t="str">
-        <f>E15</f>
-        <v>PALACIOS 18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="22" t="str">
-        <f>B28</f>
-        <v>LOBO LEDESMA 14</v>
-      </c>
-      <c r="I30" s="8" t="str">
-        <f>E18</f>
-        <v>MORRO 17</v>
-      </c>
-      <c r="K30" s="22" t="str">
-        <f>F18</f>
-        <v>CAVENAGHI 14</v>
-      </c>
-      <c r="L30" s="12" t="str">
-        <f>F4</f>
-        <v>MOLINA 19/20</v>
-      </c>
-      <c r="M30" s="14" t="str">
-        <f>D24</f>
-        <v>ENZO PEREZ 18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="I31" s="6" t="str">
-        <f>E26</f>
-        <v>CENTURION 16/17</v>
-      </c>
-      <c r="K31" s="22" t="str">
-        <f>C25</f>
-        <v>MERCADO 14</v>
-      </c>
-      <c r="L31" s="12" t="str">
-        <f>E4</f>
-        <v>BUFFARINI 19/20</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="21" t="str">
-        <f>C26</f>
-        <v>ALMIRON 16</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="M32" s="12" t="str">
+      <c r="I62" s="19" t="str">
         <f>A29</f>
         <v>MONTIEL 20</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H33" s="21" t="str">
-        <f>C27</f>
-        <v>ROMAN MARTINEZ 16</v>
-      </c>
-      <c r="I33" s="15" t="str">
-        <f>C14</f>
-        <v>MONTILLO 19</v>
-      </c>
-      <c r="K33" s="8" t="str">
-        <f>D2</f>
-        <v>FRANCO 17</v>
-      </c>
-      <c r="L33" s="24" t="str">
-        <f>B1</f>
-        <v>ROMERO 23</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H34" s="21" t="str">
-        <f>B30</f>
-        <v>MARCONE 16</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="K34" s="8" t="str">
-        <f>A3</f>
-        <v>TAGLIAFICO 17</v>
-      </c>
-      <c r="L34" s="24" t="str">
-        <f>A19</f>
-        <v>V BARCO 23</v>
-      </c>
-      <c r="M34" s="19" t="str">
-        <f>C10</f>
-        <v>PULGA 21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H35" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="I35" s="18" t="str">
-        <f>B6</f>
-        <v>ROJO 22</v>
-      </c>
-      <c r="K35" s="8" t="str">
-        <f>D16</f>
-        <v>BUSTOS 17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H36" s="15" t="str">
-        <f>F10</f>
-        <v>LAUTARO 18/19</v>
-      </c>
-      <c r="I36" s="18" t="str">
-        <f>D22</f>
-        <v>ALCARAZ 22</v>
-      </c>
-      <c r="K36" s="6" t="str">
-        <f>B25</f>
-        <v>CAMPAÑA 17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="15" t="str">
-        <f>D15</f>
-        <v>LICHA 18/19</v>
-      </c>
-      <c r="I37" s="18" t="str">
+      <c r="K62" s="18" t="str">
         <f>F24</f>
         <v>VELIZ 22</v>
       </c>
-      <c r="K37" s="6" t="str">
-        <f>E27</f>
-        <v>BARCO 17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H38" s="15" t="str">
-        <f>E24</f>
-        <v>LISANDRO MARTINEZ 18/19</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H39" s="15" t="str">
-        <f>F26</f>
-        <v>MATIAS ROJAS 19</v>
-      </c>
-      <c r="K39" s="15" t="str">
-        <f>F21</f>
-        <v>LERTORA 19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="H40" s="15" t="str">
-        <f>E28</f>
-        <v>ZARACHO 18/19</v>
-      </c>
-      <c r="K40" s="24" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="H41" s="15" t="str">
-        <f>E29</f>
-        <v>UVITA 18/19</v>
-      </c>
-      <c r="K41" s="24" t="str">
-        <f>B13</f>
-        <v>CAMPAZ 23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="H42" s="15" t="str">
-        <f>E30</f>
-        <v>SIGALI 18/9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="H43" s="15" t="str">
-        <f>C31</f>
-        <v>ANDRADA 18/19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H44" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H45" s="18" t="str">
-        <f>C1</f>
-        <v>ROSSI 22</v>
+    </row>
+    <row r="63" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H63" s="19" t="str">
+        <f>F3</f>
+        <v>BENITEZ 21</v>
+      </c>
+      <c r="I63" s="19" t="str">
+        <f>A31</f>
+        <v>SIMON 21</v>
       </c>
     </row>
   </sheetData>
@@ -3370,8 +3401,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="K13" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/data/SWF_data.xlsx
+++ b/data/SWF_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="301">
   <si>
     <t>AGOSTO</t>
   </si>
@@ -233,9 +233,6 @@
     <t>PAVONE 06</t>
   </si>
   <si>
-    <t>CLEMENTE 10</t>
-  </si>
-  <si>
     <t>DESABATO 09</t>
   </si>
   <si>
@@ -326,9 +323,6 @@
     <t>HEINZE 13</t>
   </si>
   <si>
-    <t>SCOCCO 13</t>
-  </si>
-  <si>
     <t>MAXI 13</t>
   </si>
   <si>
@@ -434,9 +428,6 @@
     <t>FERREYRA 12</t>
   </si>
   <si>
-    <t>MORRO 17</t>
-  </si>
-  <si>
     <t>BOSSIO 07</t>
   </si>
   <si>
@@ -446,9 +437,6 @@
     <t>VALERI 07</t>
   </si>
   <si>
-    <t>V ZAPATA 09</t>
-  </si>
-  <si>
     <t>EDU DOMINGUEZ 09</t>
   </si>
   <si>
@@ -485,9 +473,6 @@
     <t>CATA DIAZ 07</t>
   </si>
   <si>
-    <t>MAXI VELAZQUEZ 07</t>
-  </si>
-  <si>
     <t>CAMPAZ 23</t>
   </si>
   <si>
@@ -536,9 +521,6 @@
     <t>PAPA 09</t>
   </si>
   <si>
-    <t>F MORI 15</t>
-  </si>
-  <si>
     <t>BALANTA 14</t>
   </si>
   <si>
@@ -656,9 +638,6 @@
     <t>SUDAMERICANA 10</t>
   </si>
   <si>
-    <t>CLAUSURA 2011</t>
-  </si>
-  <si>
     <t>APERTURA 2011</t>
   </si>
   <si>
@@ -704,205 +683,250 @@
     <t>LIBERTADORES 15</t>
   </si>
   <si>
+    <t>TRANSICION 16</t>
+  </si>
+  <si>
+    <t>PINOLA 15</t>
+  </si>
+  <si>
+    <t>CENTURION 16/17</t>
+  </si>
+  <si>
+    <t>LIGA 16/17</t>
+  </si>
+  <si>
+    <t>LIBERTADORES 17</t>
+  </si>
+  <si>
+    <t>SUDAMERICANA 17</t>
+  </si>
+  <si>
+    <t>BARRIOS 17/18</t>
+  </si>
+  <si>
+    <t>LIGA 17/18</t>
+  </si>
+  <si>
+    <t>LIBERTADORES 18</t>
+  </si>
+  <si>
+    <t>COPA ARG 18</t>
+  </si>
+  <si>
+    <t>LICHA 18/19</t>
+  </si>
+  <si>
+    <t>ZARACHO 18/19</t>
+  </si>
+  <si>
+    <t>UVITA 18/19</t>
+  </si>
+  <si>
+    <t>SIGALI 18/9</t>
+  </si>
+  <si>
+    <t>ANDRADA 18/19</t>
+  </si>
+  <si>
+    <t>LIGA 18/19</t>
+  </si>
+  <si>
+    <t>COPA SUPERLIGA 19</t>
+  </si>
+  <si>
+    <t>LIBERTADORES 19</t>
+  </si>
+  <si>
+    <t>SUDAMERICANA 19</t>
+  </si>
+  <si>
+    <t>LIGA 19/20</t>
+  </si>
+  <si>
+    <t>SUDAMERICANA 20</t>
+  </si>
+  <si>
+    <t>LIGA 21</t>
+  </si>
+  <si>
+    <t>COPA DE LIGA 21</t>
+  </si>
+  <si>
+    <t>RECOPA 21</t>
+  </si>
+  <si>
+    <t>COPA DE LIGA 22</t>
+  </si>
+  <si>
+    <t>LIGA 22</t>
+  </si>
+  <si>
+    <t>COPA DE LIGA 23</t>
+  </si>
+  <si>
+    <t>LIGA 23</t>
+  </si>
+  <si>
+    <t>LIBERTADORES 23</t>
+  </si>
+  <si>
+    <t>GALLARDO 04</t>
+  </si>
+  <si>
+    <t>LUCHO GONZALEZ 04</t>
+  </si>
+  <si>
+    <t>PRATTO 14</t>
+  </si>
+  <si>
+    <t>KRUPOVIESA 05</t>
+  </si>
+  <si>
+    <t>MONTIEL 20</t>
+  </si>
+  <si>
+    <t>LIBERTADORES 20</t>
+  </si>
+  <si>
+    <t>I PIATTI 14</t>
+  </si>
+  <si>
+    <t>SALVIO 09</t>
+  </si>
+  <si>
+    <t>ZAMPEDRI 18</t>
+  </si>
+  <si>
+    <t>INSUA 05</t>
+  </si>
+  <si>
+    <t>NERVO 13</t>
+  </si>
+  <si>
+    <t>COPA ARG 13</t>
+  </si>
+  <si>
+    <t>MAXI MORALEZ 06</t>
+  </si>
+  <si>
+    <t>MIGLIORE 12</t>
+  </si>
+  <si>
+    <t>WALTER BENITEZ 14</t>
+  </si>
+  <si>
+    <t>JAVI GARCIA 12</t>
+  </si>
+  <si>
+    <t>BUFFARINI 19/20</t>
+  </si>
+  <si>
+    <t>HIGUAÍN 06</t>
+  </si>
+  <si>
+    <t>RUBEN BOTTA 12</t>
+  </si>
+  <si>
+    <t>CAVENAGHI 14</t>
+  </si>
+  <si>
+    <t>MAURO ZARATE 14</t>
+  </si>
+  <si>
+    <t>BRIAN ROMERO 20</t>
+  </si>
+  <si>
+    <t>SCHIAVI 03</t>
+  </si>
+  <si>
+    <t>QUIGNON 20</t>
+  </si>
+  <si>
+    <t>MATIAS ROJAS 19</t>
+  </si>
+  <si>
+    <t>LO CELSO 15</t>
+  </si>
+  <si>
+    <t>ALARIO 16/17</t>
+  </si>
+  <si>
+    <t>NANDEZ 18</t>
+  </si>
+  <si>
+    <t>ROLY 05</t>
+  </si>
+  <si>
+    <t>MARCO PEREZ 10</t>
+  </si>
+  <si>
+    <t>FRANCO JARA 09</t>
+  </si>
+  <si>
+    <t>ALEXIS SANCHEZ 08</t>
+  </si>
+  <si>
+    <t>HUSAIN 03</t>
+  </si>
+  <si>
+    <t>BARCO 23</t>
+  </si>
+  <si>
+    <t>LAUTARO 17/18</t>
+  </si>
+  <si>
+    <t>BENEDETTO 16/17</t>
+  </si>
+  <si>
+    <t>ROLFI 15</t>
+  </si>
+  <si>
     <t>SUDAMERICANA 15</t>
   </si>
   <si>
-    <t>TRANSICION 16</t>
-  </si>
-  <si>
-    <t>PINOLA 15</t>
-  </si>
-  <si>
-    <t>CENTURION 16/17</t>
-  </si>
-  <si>
-    <t>LIGA 16/17</t>
-  </si>
-  <si>
-    <t>LIBERTADORES 17</t>
-  </si>
-  <si>
-    <t>SUDAMERICANA 17</t>
-  </si>
-  <si>
-    <t>BARRIOS 17/18</t>
-  </si>
-  <si>
-    <t>LIGA 17/18</t>
-  </si>
-  <si>
-    <t>LIBERTADORES 18</t>
-  </si>
-  <si>
-    <t>COPA ARG 18</t>
-  </si>
-  <si>
-    <t>LICHA 18/19</t>
-  </si>
-  <si>
-    <t>ZARACHO 18/19</t>
-  </si>
-  <si>
-    <t>UVITA 18/19</t>
-  </si>
-  <si>
-    <t>SIGALI 18/9</t>
-  </si>
-  <si>
-    <t>ANDRADA 18/19</t>
-  </si>
-  <si>
-    <t>LIGA 18/19</t>
-  </si>
-  <si>
-    <t>COPA SUPERLIGA 19</t>
-  </si>
-  <si>
-    <t>LIBERTADORES 19</t>
-  </si>
-  <si>
-    <t>SUDAMERICANA 19</t>
-  </si>
-  <si>
-    <t>LIGA 19/20</t>
-  </si>
-  <si>
-    <t>SUDAMERICANA 20</t>
-  </si>
-  <si>
-    <t>LIGA 21</t>
-  </si>
-  <si>
-    <t>COPA DE LIGA 21</t>
-  </si>
-  <si>
-    <t>RECOPA 21</t>
-  </si>
-  <si>
-    <t>COPA DE LIGA 22</t>
-  </si>
-  <si>
-    <t>LIGA 22</t>
-  </si>
-  <si>
-    <t>COPA DE LIGA 23</t>
-  </si>
-  <si>
-    <t>LIGA 23</t>
-  </si>
-  <si>
-    <t>LIBERTADORES 23</t>
-  </si>
-  <si>
-    <t>GALLARDO 04</t>
-  </si>
-  <si>
-    <t>LUCHO GONZALEZ 04</t>
-  </si>
-  <si>
-    <t>PRATTO 14</t>
-  </si>
-  <si>
-    <t>KRUPOVIESA 05</t>
-  </si>
-  <si>
-    <t>MONTIEL 20</t>
-  </si>
-  <si>
-    <t>LIBERTADORES 20</t>
-  </si>
-  <si>
-    <t>I PIATTI 14</t>
-  </si>
-  <si>
-    <t>SALVIO 09</t>
-  </si>
-  <si>
-    <t>ZAMPEDRI 18</t>
-  </si>
-  <si>
-    <t>INSUA 05</t>
-  </si>
-  <si>
-    <t>NERVO 13</t>
-  </si>
-  <si>
-    <t>COPA ARG 13</t>
-  </si>
-  <si>
-    <t>MAXI MORALEZ 06</t>
-  </si>
-  <si>
-    <t>MIGLIORE 12</t>
-  </si>
-  <si>
-    <t>WALTER BENITEZ 14</t>
-  </si>
-  <si>
-    <t>LISANDRO MARTINEZ 18/19</t>
-  </si>
-  <si>
-    <t>JAVI GARCIA 12</t>
-  </si>
-  <si>
-    <t>BUFFARINI 19/20</t>
-  </si>
-  <si>
-    <t>HIGUAÍN 06</t>
-  </si>
-  <si>
-    <t>RUBEN BOTTA 12</t>
-  </si>
-  <si>
-    <t>CAVENAGHI 14</t>
-  </si>
-  <si>
-    <t>MAURO ZARATE 14</t>
-  </si>
-  <si>
-    <t>BRIAN ROMERO 20</t>
-  </si>
-  <si>
-    <t>SCHIAVI 03</t>
-  </si>
-  <si>
-    <t>QUIGNON 20</t>
-  </si>
-  <si>
-    <t>MATIAS ROJAS 19</t>
-  </si>
-  <si>
-    <t>LO CELSO 15</t>
-  </si>
-  <si>
-    <t>ALARIO 16/17</t>
-  </si>
-  <si>
-    <t>NANDEZ 18</t>
-  </si>
-  <si>
-    <t>ROLY 05</t>
-  </si>
-  <si>
-    <t>MARCO PEREZ 10</t>
-  </si>
-  <si>
-    <t>FRANCO JARA 09</t>
-  </si>
-  <si>
-    <t>ALEXIS SANCHEZ 08</t>
-  </si>
-  <si>
-    <t>HUSAIN 03</t>
-  </si>
-  <si>
-    <t>BARCO 23</t>
-  </si>
-  <si>
-    <t>LAUTARO 17/18</t>
-  </si>
-  <si>
-    <t>BENEDETTO 16/17</t>
+    <t>MAXI VELAZQUEZ 17</t>
+  </si>
+  <si>
+    <t>CLEMENTE 07</t>
+  </si>
+  <si>
+    <t>SOLARI 08</t>
+  </si>
+  <si>
+    <t>LISANDRO M 18/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOCA </t>
+  </si>
+  <si>
+    <t>INDEPENDIENTE</t>
+  </si>
+  <si>
+    <t>HURACÁN</t>
+  </si>
+  <si>
+    <t>GELP</t>
+  </si>
+  <si>
+    <t>DEFENSA</t>
+  </si>
+  <si>
+    <t>TIRO FEDERAL</t>
+  </si>
+  <si>
+    <t>GODOY CRUZ</t>
+  </si>
+  <si>
+    <t>QUILMES</t>
+  </si>
+  <si>
+    <t>ATLÉTICO TUCUMÁN</t>
+  </si>
+  <si>
+    <t>MORRO 17/18</t>
+  </si>
+  <si>
+    <t>RÉ 10</t>
   </si>
 </sst>
 </file>
@@ -924,7 +948,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1075,6 +1099,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1088,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1116,10 +1146,12 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1405,10 +1437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V63"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1462,7 @@
         <v>50</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>61</v>
@@ -1436,31 +1471,31 @@
         <v>6</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>7</v>
@@ -1486,22 +1521,22 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H2" s="3" t="str">
         <f>F4</f>
@@ -1549,22 +1584,22 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>153</v>
+        <v>143</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>286</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>175</v>
       </c>
       <c r="H3" s="3" t="str">
         <f>D5</f>
@@ -1607,19 +1642,19 @@
         <v>54</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H4" s="3" t="str">
         <f>E6</f>
@@ -1652,22 +1687,22 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H5" s="3" t="str">
         <f>E10</f>
@@ -1691,17 +1726,17 @@
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>170</v>
+      <c r="B6" s="13" t="s">
+        <v>288</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>62</v>
@@ -1728,7 +1763,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>60</v>
@@ -1743,7 +1778,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7" s="3" t="str">
         <f>B8</f>
@@ -1759,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="T7" s="13" t="s">
         <v>29</v>
@@ -1767,43 +1802,40 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="M8" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>226</v>
       </c>
       <c r="P8" s="20">
         <v>2009</v>
@@ -1823,19 +1855,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H9" s="4" t="str">
         <f>B5</f>
@@ -1850,21 +1882,17 @@
         <v>DI MARIA 07</v>
       </c>
       <c r="K9" s="11" t="str">
-        <f>C3</f>
-        <v>MAXI VELAZQUEZ 07</v>
+        <f>E8</f>
+        <v>VALERI 07</v>
       </c>
       <c r="L9" s="11" t="str">
-        <f>B3</f>
-        <v>MOREL RODRIGUEZ 07</v>
+        <f>D21</f>
+        <v>CLEMENTE 07</v>
       </c>
       <c r="M9" s="11" t="str">
         <f>F14</f>
         <v>CALDERON 10</v>
       </c>
-      <c r="N9" s="23" t="str">
-        <f>F30</f>
-        <v>MARCO PEREZ 10</v>
-      </c>
       <c r="P9" s="10">
         <v>2010</v>
       </c>
@@ -1880,16 +1908,16 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>63</v>
@@ -1910,12 +1938,12 @@
         <v>GALLEGO MENDEZ 07</v>
       </c>
       <c r="K10" s="11" t="str">
-        <f>E8</f>
-        <v>VALERI 07</v>
+        <f>D13</f>
+        <v>BOSSIO 07</v>
       </c>
       <c r="L10" s="11" t="str">
-        <f>A4</f>
-        <v>IBARRA 07</v>
+        <f>B3</f>
+        <v>MOREL RODRIGUEZ 07</v>
       </c>
       <c r="M10" s="11" t="str">
         <f>C15</f>
@@ -1933,22 +1961,22 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H11" s="4" t="str">
         <f>D10</f>
@@ -1959,12 +1987,12 @@
         <v>PALACIO 06</v>
       </c>
       <c r="K11" s="11" t="str">
-        <f>D13</f>
-        <v>BOSSIO 07</v>
+        <f>A19</f>
+        <v>DENIS 07</v>
       </c>
       <c r="L11" s="11" t="str">
-        <f>D6</f>
-        <v>CATA DIAZ 07</v>
+        <f>A4</f>
+        <v>IBARRA 07</v>
       </c>
       <c r="P11" s="9">
         <v>2012</v>
@@ -1990,22 +2018,22 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H12" s="4" t="str">
         <f>F27</f>
@@ -2016,161 +2044,143 @@
         <v>HIGUAÍN 06</v>
       </c>
       <c r="K12" s="11" t="str">
-        <f>A19</f>
-        <v>DENIS 07</v>
+        <f>E23</f>
+        <v>BLANCO 07</v>
       </c>
       <c r="L12" s="11" t="str">
+        <f>D6</f>
+        <v>CATA DIAZ 07</v>
+      </c>
+      <c r="P12" s="17">
+        <v>2013</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" s="11" t="str">
         <f>A9</f>
         <v>PALERMO 07</v>
       </c>
-      <c r="P12" s="17">
-        <v>2013</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" s="17" t="s">
+      <c r="P13" s="22">
+        <v>2014</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="K13" s="11" t="str">
-        <f>E23</f>
-        <v>BLANCO 07</v>
-      </c>
-      <c r="L13" s="11" t="str">
+      <c r="T13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="11" t="str">
         <f>F10</f>
         <v>JRR 07</v>
       </c>
-      <c r="P13" s="22">
-        <v>2014</v>
-      </c>
-      <c r="Q13" s="22" t="s">
+      <c r="P14" s="23">
+        <v>2015</v>
+      </c>
+      <c r="Q14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="28"/>
+      <c r="S14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="T13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V13" s="22" t="s">
+      <c r="T14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="11" t="str">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" s="11" t="str">
         <f>A24</f>
         <v>EVER BANEGA 07</v>
       </c>
-      <c r="P14" s="23">
-        <v>2015</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" s="27"/>
-      <c r="S14" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="T14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="V14" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>206</v>
-      </c>
       <c r="P15" s="21">
         <v>2016</v>
       </c>
@@ -2189,107 +2199,105 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="13" t="str">
+      <c r="H16" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="P16" s="8">
+        <v>2017</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="13" t="str">
         <f>A13</f>
         <v>ABREU 08</v>
       </c>
-      <c r="I16" s="13" t="str">
-        <f>C9</f>
-        <v>SAND 08</v>
-      </c>
-      <c r="J16" s="13" t="str">
+      <c r="I17" s="13" t="str">
+        <f>B6</f>
+        <v>SOLARI 08</v>
+      </c>
+      <c r="J17" s="13" t="str">
         <f>F15</f>
         <v>BERGESSIO 08</v>
       </c>
-      <c r="K16" s="20" t="str">
+      <c r="K17" s="20" t="str">
         <f>D3</f>
         <v>PAPA 09</v>
       </c>
-      <c r="L16" s="20" t="str">
+      <c r="L17" s="20" t="str">
         <f>F8</f>
         <v>JAMES 09</v>
       </c>
-      <c r="M16" s="20" t="str">
+      <c r="M17" s="20" t="str">
         <f>B2</f>
         <v>DESABATO 09</v>
-      </c>
-      <c r="P16" s="8">
-        <v>2017</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="13" t="str">
-        <f>A20</f>
-        <v>CVITANICH 08</v>
-      </c>
-      <c r="I17" s="13" t="str">
-        <f>A18</f>
-        <v>FIGUEROA 08</v>
-      </c>
-      <c r="K17" s="20" t="str">
-        <f>E5</f>
-        <v>CUBERO 09</v>
-      </c>
-      <c r="L17" s="20" t="str">
-        <f>B11</f>
-        <v>ROLY 05</v>
-      </c>
-      <c r="M17" s="20" t="str">
-        <f>A11</f>
-        <v>VERON 09</v>
       </c>
       <c r="P17" s="14">
         <v>2018</v>
@@ -2316,39 +2324,39 @@
         <v>49</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>299</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H18" s="13" t="str">
-        <f>A21</f>
-        <v>ALEXIS SANCHEZ 08</v>
+        <f>A20</f>
+        <v>CVITANICH 08</v>
       </c>
       <c r="I18" s="13" t="str">
-        <f>E27</f>
-        <v>VIATRI 08</v>
+        <f>C9</f>
+        <v>SAND 08</v>
       </c>
       <c r="K18" s="20" t="str">
-        <f>C6</f>
-        <v>SEBA DOMINGUEZ 09</v>
+        <f>E5</f>
+        <v>CUBERO 09</v>
       </c>
       <c r="L18" s="20" t="str">
         <f>A25</f>
         <v>PAPELITO 09</v>
       </c>
       <c r="M18" s="20" t="str">
-        <f>B17</f>
-        <v>BOSELLI 09</v>
+        <f>A11</f>
+        <v>VERON 09</v>
       </c>
       <c r="P18" s="15">
         <v>2019</v>
@@ -2374,38 +2382,42 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H19" s="13" t="str">
-        <f>B29</f>
-        <v>JP CARRIZO 08</v>
+        <f>A21</f>
+        <v>ALEXIS SANCHEZ 08</v>
+      </c>
+      <c r="I19" s="13" t="str">
+        <f>A18</f>
+        <v>FIGUEROA 08</v>
       </c>
       <c r="K19" s="20" t="str">
-        <f>E14</f>
-        <v>SALVIO 09</v>
+        <f>C6</f>
+        <v>SEBA DOMINGUEZ 09</v>
       </c>
       <c r="L19" s="20" t="str">
         <f>A28</f>
         <v>GAITAN 09</v>
       </c>
       <c r="M19" s="20" t="str">
-        <f>E21</f>
-        <v>ANDUJAR 09</v>
+        <f>B17</f>
+        <v>BOSELLI 09</v>
       </c>
       <c r="P19" s="12">
         <v>2020</v>
@@ -2422,77 +2434,89 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H20" s="13" t="str">
-        <f>C30</f>
-        <v>BUONANOTTE 08</v>
+        <f>B29</f>
+        <v>JP CARRIZO 08</v>
+      </c>
+      <c r="I20" s="13" t="str">
+        <f>E27</f>
+        <v>VIATRI 08</v>
       </c>
       <c r="K20" s="20" t="str">
-        <f>A16</f>
-        <v>PASTORE 09</v>
+        <f>E14</f>
+        <v>SALVIO 09</v>
       </c>
       <c r="L20" s="20" t="str">
         <f>C29</f>
         <v>FRANCO JARA 09</v>
       </c>
       <c r="M20" s="20" t="str">
+        <f>E21</f>
+        <v>ANDUJAR 09</v>
+      </c>
+      <c r="P20" s="19">
+        <v>2021</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V20" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="13" t="str">
+        <f>C30</f>
+        <v>BUONANOTTE 08</v>
+      </c>
+      <c r="K21" s="20" t="str">
+        <f>A16</f>
+        <v>PASTORE 09</v>
+      </c>
+      <c r="M21" s="20" t="str">
         <f>A22</f>
         <v>BRAÑA 09</v>
-      </c>
-      <c r="P20" s="19">
-        <v>2021</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="R20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="U20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="V20" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" s="20" t="str">
-        <f>E16</f>
-        <v>V ZAPATA 09</v>
       </c>
       <c r="P21" s="18">
         <v>2022</v>
@@ -2515,65 +2539,65 @@
         <v>67</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K22" s="20" t="str">
+        <f>E16</f>
+        <v>RÉ 10</v>
+      </c>
+      <c r="P22" s="24">
+        <v>2023</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="V22" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="20" t="str">
         <f>E20</f>
         <v>FUERTES 09</v>
-      </c>
-      <c r="P22" s="24">
-        <v>2023</v>
-      </c>
-      <c r="Q22" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="S22" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="U22" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="V22" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23" s="20" t="str">
-        <f>E25</f>
-        <v>EDU DOMINGUEZ 09</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -2581,47 +2605,47 @@
         <v>5</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K24" s="20" t="str">
+        <f>E25</f>
+        <v>EDU DOMINGUEZ 09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="20" t="str">
         <f>F28</f>
         <v>BOLATTI 09</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="20" t="str">
-        <f>D30</f>
-        <v>OTAMENDI 09</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -2629,74 +2653,59 @@
         <v>65</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>211</v>
+        <v>272</v>
+      </c>
+      <c r="K26" s="20" t="str">
+        <f>D30</f>
+        <v>OTAMENDI 09</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H27" s="10" t="str">
-        <f>E2</f>
-        <v>CARUZZO 10</v>
-      </c>
-      <c r="I27" s="10" t="str">
-        <f>C22</f>
-        <v>STRACQUALURSI 10</v>
-      </c>
-      <c r="J27" s="10" t="str">
-        <f>E17</f>
-        <v>PARRA 10</v>
+        <v>260</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="K27" s="16" t="str">
         <f>A8</f>
         <v>AUGUSTO 11</v>
       </c>
-      <c r="L27" s="16" t="str">
-        <f>D18</f>
-        <v>TITO RAMIREZ 11</v>
+      <c r="L27" s="16" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -2704,87 +2713,103 @@
         <v>58</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H28" s="10" t="str">
-        <f>D12</f>
-        <v>GABBARINI 10</v>
+        <f>E2</f>
+        <v>CARUZZO 10</v>
       </c>
       <c r="I28" s="10" t="str">
-        <f>C23</f>
-        <v>CHINO BENITEZ 10</v>
+        <f>C22</f>
+        <v>STRACQUALURSI 10</v>
+      </c>
+      <c r="J28" s="10" t="str">
+        <f>E17</f>
+        <v>PARRA 10</v>
       </c>
       <c r="K28" s="16" t="str">
         <f>D11</f>
         <v>RICKY ALVAREZ 11</v>
       </c>
+      <c r="L28" s="16" t="str">
+        <f>C3</f>
+        <v>MAXI VELAZQUEZ 17</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H29" s="10" t="str">
-        <f>B15</f>
-        <v>NANDEZ 18</v>
+        <f>D12</f>
+        <v>GABBARINI 10</v>
       </c>
       <c r="I29" s="10" t="str">
-        <f>A30</f>
-        <v>CLEMENTE 10</v>
+        <f>C23</f>
+        <v>CHINO BENITEZ 10</v>
       </c>
       <c r="K29" s="16" t="str">
         <f>D23</f>
         <v>TANQUE SILVA 11</v>
       </c>
+      <c r="L29" s="16" t="str">
+        <f>D18</f>
+        <v>TITO RAMIREZ 11</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>69</v>
+      <c r="A30" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H30" s="10" t="str">
-        <f>F29</f>
-        <v>GENTILETTI 10</v>
+        <f>F14</f>
+        <v>CALDERON 10</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f>A30</f>
+        <v>ROLFI 15</v>
       </c>
       <c r="K30" s="16" t="str">
         <f>F25</f>
@@ -2793,613 +2818,790 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H31" s="10" t="str">
+        <f>B18</f>
+        <v>CHUCO SOSA 10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10" t="str">
+        <f>F29</f>
+        <v>GENTILETTI 10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H33" s="10" t="str">
         <f>F30</f>
         <v>MARCO PEREZ 10</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H33" s="9" t="str">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" s="1">
+        <f>COUNTA(A1,C1,F1,D2,B3,A4,E4,B5,F6,D6,A6,B7,E7,A9,D9,B10,F10,D10,A14,B15,B16,F16,A18,D19,B23,F23,B24,A24,E26,E27,A28,C31,B27,D21)</f>
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <f>SUM(B34,B35,B36,B37,B38,B39,B40,B41,B42,B43,B44,B45,B46,B47,B48,B49,B50,B51,B52,B53,B54,B55)</f>
+        <v>175</v>
+      </c>
+      <c r="D34" s="4">
+        <f>COUNTA(A1:F30,A31,C31,E31,F31)</f>
+        <v>184</v>
+      </c>
+      <c r="E34" s="1">
+        <f>COUNTA(H2:H5,I2,J2:J7,K2:K4,L2,M2:M3,N2:N4,H9:H12,I9:I12,J9:J10,K9:K12,L9:L15,M9:M10,H17:H21,I17:I20,J17,K17:K26,L17:L20,M17:M21,H28:H33,I28:I30,J28,K28:K30,L28:L29,H35:H38,I35,J35,K35:K37,L35:L37,M35:M36,N35,Q53,H40:H43,I40:I44,J40:J46,K40:K41,L40:L45,M40:M43,N40,H48:H50,I48:I51,J48:J49,K48:K53,L48:L50,M48:M51,N48:N49,H55:H61,I55,J55,K55,L55,M55,N55:N56,H63:H64,H67,I63:I65,J63,K63:K65,L63:L64,M63,N63:N64)</f>
+        <v>184</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1">
+        <f>COUNTA(D1,B1,C2,E3,F4,F5,D5,C5,C8,B9,E10,F13,E15,C18,E19,A21,D24,F25,C25,D26,B29,A29,C30,A31,F31,D27,A13,C13,B28,F18)</f>
+        <v>30</v>
+      </c>
+      <c r="H35" s="9" t="str">
         <f>F7</f>
         <v>LUNA 12</v>
       </c>
-      <c r="I33" s="9" t="str">
+      <c r="I35" s="9" t="str">
         <f>D14</f>
         <v>FERREYRA 12</v>
       </c>
-      <c r="J33" s="9" t="str">
+      <c r="J35" s="9" t="str">
         <f>B19</f>
         <v>RUBEN BOTTA 12</v>
       </c>
-      <c r="K33" s="17" t="str">
+      <c r="K35" s="17" t="str">
         <f>D4</f>
         <v>PERUZZI 13</v>
       </c>
-      <c r="L33" s="17" t="str">
+      <c r="L35" s="17" t="str">
         <f>A12</f>
         <v>TORRICO 13</v>
       </c>
-      <c r="M33" s="17" t="str">
+      <c r="M35" s="17" t="str">
         <f>F2</f>
         <v>GOLTZ 13</v>
       </c>
-      <c r="N33" s="17" t="str">
+      <c r="N35" s="17" t="str">
         <f>C4</f>
         <v>NERVO 13</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H34" s="9" t="str">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B36" s="1">
+        <f>COUNTA(A2,A3,A19,A27,B25,D12,D16,E6,F11,D8,E17)</f>
+        <v>11</v>
+      </c>
+      <c r="H36" s="9" t="str">
         <f>F12</f>
         <v>JAVI GARCIA 12</v>
       </c>
-      <c r="K34" s="17" t="str">
+      <c r="K36" s="17" t="str">
         <f>E11</f>
         <v>MAXI 13</v>
       </c>
-      <c r="L34" s="17" t="str">
+      <c r="L36" s="17" t="str">
         <f>A15</f>
         <v>TITO VILLALBA 13</v>
       </c>
-      <c r="M34" s="17" t="str">
+      <c r="M36" s="17" t="str">
+        <f>C24</f>
+        <v>IZQUIERDOZ 13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1">
+        <f>COUNTA(D22,E1,B22,A23,A10,F27,E30,E28,C17,D15)</f>
+        <v>10</v>
+      </c>
+      <c r="H37" s="9" t="str">
+        <f>E22</f>
+        <v>MIGLIORE 12</v>
+      </c>
+      <c r="K37" s="17" t="str">
+        <f>D20</f>
+        <v>HEINZE 13</v>
+      </c>
+      <c r="L37" s="17" t="str">
+        <f>D28</f>
+        <v>RULLI 13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1">
+        <f>COUNTA(C11,A5,B14,A15,A17,C20,B21,E22,F22,B26,C28,A12,F15,B6,E13)</f>
+        <v>15</v>
+      </c>
+      <c r="H38" s="9" t="str">
+        <f>D17</f>
+        <v>CAMPESTRINI 12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" s="1">
+        <f>COUNTA(F28,A16,A30,E25)</f>
+        <v>4</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="1">
+        <f>COUNTA(D3,D4,E5,C6,A8,F9,D11,B11,E12,D14,A26,D23)</f>
+        <v>12</v>
+      </c>
+      <c r="H40" s="22" t="str">
+        <f>E3</f>
+        <v>BALANTA 14</v>
+      </c>
+      <c r="I40" s="22" t="str">
+        <f>E1</f>
+        <v>SAJA 14</v>
+      </c>
+      <c r="J40" s="22" t="str">
+        <f>A5</f>
+        <v>MERCIER 14</v>
+      </c>
+      <c r="K40" s="22" t="str">
+        <f>F18</f>
+        <v>CAVENAGHI 14</v>
+      </c>
+      <c r="L40" s="23" t="str">
+        <f>E9</f>
+        <v>RUBEN 15</v>
+      </c>
+      <c r="M40" s="23" t="str">
+        <f>B1</f>
+        <v>BAROVERO 15</v>
+      </c>
+      <c r="N40" s="23" t="str">
+        <f>A30</f>
+        <v>ROLFI 15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="30">
+        <f>COUNTA(B2,A7,D7,A11,B17,E21,A22,D28,C16,C23,E16)</f>
+        <v>11</v>
+      </c>
+      <c r="H41" s="22" t="str">
+        <f>F9</f>
+        <v>MAURO ZARATE 14</v>
+      </c>
+      <c r="I41" s="22" t="str">
+        <f>E12</f>
+        <v>PRATTO 14</v>
+      </c>
+      <c r="J41" s="22" t="str">
+        <f>C11</f>
+        <v>ANGEL CORREA 14</v>
+      </c>
+      <c r="K41" s="22" t="str">
+        <f>C25</f>
+        <v>MERCADO 14</v>
+      </c>
+      <c r="L41" s="23" t="str">
+        <f>B10</f>
+        <v>TEVEZ 15</v>
+      </c>
+      <c r="M41" s="23" t="str">
+        <f>C2</f>
+        <v>MAIDANA 15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" s="30">
+        <f>COUNTA(F30)</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="22" t="str">
+        <f>C12</f>
+        <v>WALTER BENITEZ 14</v>
+      </c>
+      <c r="I42" s="22" t="str">
+        <f>C17</f>
+        <v>ACUÑA 14</v>
+      </c>
+      <c r="J42" s="22" t="str">
+        <f>B14</f>
+        <v>KANNEMANN 14</v>
+      </c>
+      <c r="L42" s="23" t="str">
+        <f>F11</f>
+        <v>MANCUELLO 15</v>
+      </c>
+      <c r="M42" s="23" t="str">
+        <f>C5</f>
+        <v>KRANEVITTER 15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="30">
+        <f>COUNTA(D20,E11)</f>
+        <v>2</v>
+      </c>
+      <c r="H43" s="22" t="str">
+        <f>B28</f>
+        <v>LOBO LEDESMA 14</v>
+      </c>
+      <c r="I43" s="22" t="str">
+        <f>B22</f>
+        <v>MILITO 14</v>
+      </c>
+      <c r="J43" s="22" t="str">
+        <f>C20</f>
+        <v>ORTIGOZA 14</v>
+      </c>
+      <c r="L43" s="23" t="str">
+        <f>C21</f>
+        <v>LO CELSO 15</v>
+      </c>
+      <c r="M43" s="23" t="str">
+        <f>C8</f>
+        <v>SANCHEZ 15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="30">
+        <f>COUNTA(E9,D25,F17,B20,C21,F24)</f>
+        <v>6</v>
+      </c>
+      <c r="I44" s="22" t="str">
+        <f>A23</f>
+        <v>BOU 14</v>
+      </c>
+      <c r="J44" s="22" t="str">
+        <f>B21</f>
+        <v>MAS 14</v>
+      </c>
+      <c r="L44" s="23" t="str">
+        <f>D25</f>
+        <v>PINOLA 15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="30">
+        <f>COUNTA(D13,C3,B4,E8,C9,E23,C26,B30,C19)</f>
+        <v>9</v>
+      </c>
+      <c r="J45" s="22" t="str">
+        <f>B26</f>
+        <v>MATOS 14</v>
+      </c>
+      <c r="L45" s="23" t="str">
+        <f>B27</f>
+        <v>CALLERI 15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="1">
+        <f>COUNTA(A25,A20,F8)</f>
+        <v>3</v>
+      </c>
+      <c r="J46" s="22" t="str">
+        <f>C28</f>
+        <v>I PIATTI 14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1">
+        <f>COUNTA(F14,F29,E2,B18)</f>
+        <v>4</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="1">
+        <f>COUNTA(D17,C4,C15,C29)</f>
+        <v>4</v>
+      </c>
+      <c r="H48" s="21" t="str">
+        <f>C26</f>
+        <v>ALMIRON 16</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>B7</f>
+        <v>PAVON 17</v>
+      </c>
+      <c r="J48" s="8" t="str">
+        <f>C3</f>
+        <v>MAXI VELAZQUEZ 17</v>
+      </c>
+      <c r="K48" s="8" t="str">
+        <f>A2</f>
+        <v>FRANCO 17</v>
+      </c>
+      <c r="L48" s="14" t="str">
+        <f>A10</f>
+        <v>LAUTARO 17/18</v>
+      </c>
+      <c r="M48" s="14" t="str">
+        <f>D1</f>
+        <v>ARMANI 18</v>
+      </c>
+      <c r="N48" s="14" t="str">
+        <f>F17</f>
+        <v>HERRERA 18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" s="1">
+        <f>COUNTA(E31,E29,F26,F3,E24)</f>
+        <v>5</v>
+      </c>
+      <c r="H49" s="21" t="str">
+        <f>C27</f>
+        <v>ROMAN MARTINEZ 16</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f>D9</f>
+        <v>BENEDETTO 16/17</v>
+      </c>
+      <c r="J49" s="8" t="str">
+        <f>B4</f>
+        <v>JL GOMEZ 17</v>
+      </c>
+      <c r="K49" s="8" t="str">
+        <f>A3</f>
+        <v>TAGLIAFICO 17</v>
+      </c>
+      <c r="L49" s="14" t="str">
+        <f>B16</f>
+        <v>BARRIOS 17/18</v>
+      </c>
+      <c r="M49" s="14" t="str">
+        <f>B15</f>
+        <v>NANDEZ 18</v>
+      </c>
+      <c r="N49" s="14" t="str">
+        <f>B20</f>
+        <v>ZAMPEDRI 18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="1">
+        <f>COUNTA(E20,F21,C10,D29)</f>
+        <v>4</v>
+      </c>
+      <c r="H50" s="21" t="str">
+        <f>B30</f>
+        <v>MARCONE 16</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>C13</f>
+        <v>ALARIO 16/17</v>
+      </c>
+      <c r="K50" s="8" t="str">
+        <f>D8</f>
+        <v>MEZA 17</v>
+      </c>
+      <c r="L50" s="14" t="str">
+        <f>E18</f>
+        <v>MORRO 17/18</v>
+      </c>
+      <c r="M50" s="14" t="str">
+        <f>E15</f>
+        <v>PALACIOS 18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="1">
+        <f>COUNTA(F19)</f>
+        <v>1</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f>E26</f>
+        <v>CENTURION 16/17</v>
+      </c>
+      <c r="K51" s="8" t="str">
+        <f>D16</f>
+        <v>BUSTOS 17</v>
+      </c>
+      <c r="M51" s="14" t="str">
         <f>D24</f>
         <v>ENZO PEREZ 18</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H35" s="9" t="str">
-        <f>E22</f>
-        <v>MIGLIORE 12</v>
-      </c>
-      <c r="K35" s="17" t="str">
-        <f>D20</f>
-        <v>HEINZE 13</v>
-      </c>
-      <c r="L35" s="17" t="str">
-        <f>D28</f>
-        <v>RULLI 13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H36" s="9" t="str">
-        <f>D17</f>
-        <v>CAMPESTRINI 12</v>
-      </c>
-      <c r="K36" s="17" t="str">
-        <f>D21</f>
-        <v>SCOCCO 13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H37" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="L37" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H38" s="22" t="str">
-        <f>E3</f>
-        <v>BALANTA 14</v>
-      </c>
-      <c r="I38" s="22" t="str">
-        <f>E1</f>
-        <v>SAJA 14</v>
-      </c>
-      <c r="J38" s="22" t="str">
-        <f>A5</f>
-        <v>MERCIER 14</v>
-      </c>
-      <c r="K38" s="22" t="str">
-        <f>F18</f>
-        <v>CAVENAGHI 14</v>
-      </c>
-      <c r="L38" s="23" t="str">
-        <f>E9</f>
-        <v>RUBEN 15</v>
-      </c>
-      <c r="M38" s="23" t="str">
-        <f>B1</f>
-        <v>BAROVERO 15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H39" s="22" t="str">
-        <f>F9</f>
-        <v>MAURO ZARATE 14</v>
-      </c>
-      <c r="I39" s="22" t="str">
-        <f>E12</f>
-        <v>PRATTO 14</v>
-      </c>
-      <c r="J39" s="22" t="str">
-        <f>C11</f>
-        <v>ANGEL CORREA 14</v>
-      </c>
-      <c r="K39" s="22" t="str">
-        <f>C25</f>
-        <v>MERCADO 14</v>
-      </c>
-      <c r="L39" s="23" t="str">
-        <f>B10</f>
-        <v>TEVEZ 15</v>
-      </c>
-      <c r="M39" s="23" t="str">
-        <f>C2</f>
-        <v>MAIDANA 15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="H40" s="22" t="str">
-        <f>C12</f>
-        <v>WALTER BENITEZ 14</v>
-      </c>
-      <c r="I40" s="22" t="str">
-        <f>C17</f>
-        <v>ACUÑA 14</v>
-      </c>
-      <c r="J40" s="22" t="str">
-        <f>B14</f>
-        <v>KANNEMANN 14</v>
-      </c>
-      <c r="L40" s="23" t="str">
-        <f>F11</f>
-        <v>MANCUELLO 15</v>
-      </c>
-      <c r="M40" s="23" t="str">
-        <f>C5</f>
-        <v>KRANEVITTER 15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="H41" s="22" t="str">
-        <f>B28</f>
-        <v>LOBO LEDESMA 14</v>
-      </c>
-      <c r="I41" s="22" t="str">
-        <f>B22</f>
-        <v>MILITO 14</v>
-      </c>
-      <c r="J41" s="22" t="str">
-        <f>C20</f>
-        <v>ORTIGOZA 14</v>
-      </c>
-      <c r="L41" s="23" t="str">
-        <f>C21</f>
-        <v>LO CELSO 15</v>
-      </c>
-      <c r="M41" s="23" t="str">
-        <f>B6</f>
-        <v>F MORI 15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="I42" s="22" t="str">
-        <f>A23</f>
-        <v>BOU 14</v>
-      </c>
-      <c r="J42" s="22" t="str">
-        <f>B21</f>
-        <v>MAS 14</v>
-      </c>
-      <c r="L42" s="23" t="str">
-        <f>D25</f>
-        <v>PINOLA 15</v>
-      </c>
-      <c r="M42" s="23" t="str">
-        <f>C8</f>
-        <v>SANCHEZ 15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="J43" s="22" t="str">
-        <f>B26</f>
-        <v>MATOS 14</v>
-      </c>
-      <c r="L43" s="23" t="str">
-        <f>B27</f>
-        <v>CALLERI 15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="J44" s="22" t="str">
-        <f>C28</f>
-        <v>I PIATTI 14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H45" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="M45" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="N45" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H46" s="21" t="str">
-        <f>C26</f>
-        <v>ALMIRON 16</v>
-      </c>
-      <c r="I46" s="8" t="str">
-        <f>B7</f>
-        <v>PAVON 17</v>
-      </c>
-      <c r="J46" s="8" t="str">
-        <f>B4</f>
-        <v>JL GOMEZ 17</v>
-      </c>
-      <c r="K46" s="8" t="str">
-        <f>A2</f>
-        <v>FRANCO 17</v>
-      </c>
-      <c r="L46" s="14" t="str">
-        <f>A10</f>
-        <v>LAUTARO 17/18</v>
-      </c>
-      <c r="M46" s="14" t="str">
-        <f>D1</f>
-        <v>ARMANI 18</v>
-      </c>
-      <c r="N46" s="14" t="str">
-        <f>F17</f>
-        <v>HERRERA 18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H47" s="21" t="str">
-        <f>C27</f>
-        <v>ROMAN MARTINEZ 16</v>
-      </c>
-      <c r="I47" s="8" t="str">
-        <f>D9</f>
-        <v>BENEDETTO 16/17</v>
-      </c>
-      <c r="J47" s="8" t="str">
-        <f>D8</f>
-        <v>MEZA 17</v>
-      </c>
-      <c r="K47" s="8" t="str">
-        <f>A3</f>
-        <v>TAGLIAFICO 17</v>
-      </c>
-      <c r="L47" s="14" t="str">
-        <f>B16</f>
-        <v>BARRIOS 17/18</v>
-      </c>
-      <c r="M47" s="14" t="str">
-        <f>B15</f>
-        <v>NANDEZ 18</v>
-      </c>
-      <c r="N47" s="14" t="str">
-        <f>B20</f>
-        <v>ZAMPEDRI 18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H48" s="21" t="str">
-        <f>B30</f>
-        <v>MARCONE 16</v>
-      </c>
-      <c r="I48" s="8" t="str">
-        <f>C13</f>
-        <v>ALARIO 16/17</v>
-      </c>
-      <c r="K48" s="8" t="str">
-        <f>D16</f>
-        <v>BUSTOS 17</v>
-      </c>
-      <c r="M48" s="14" t="str">
-        <f>E15</f>
-        <v>PALACIOS 18</v>
-      </c>
-    </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="I49" s="8" t="str">
-        <f>E18</f>
-        <v>MORRO 17</v>
-      </c>
-      <c r="K49" s="6" t="str">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" s="1">
+        <f>COUNTA(E18,D18)</f>
+        <v>2</v>
+      </c>
+      <c r="K52" s="6" t="str">
         <f>B25</f>
         <v>CAMPAÑA 17</v>
       </c>
-      <c r="M49" s="14" t="str">
-        <f>D24</f>
-        <v>ENZO PEREZ 18</v>
-      </c>
-    </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="I50" s="6" t="str">
-        <f>E26</f>
-        <v>CENTURION 16/17</v>
-      </c>
-      <c r="K50" s="6" t="str">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="1">
+        <f>COUNTA(C14,F12,B19,F7,C22)</f>
+        <v>5</v>
+      </c>
+      <c r="K53" s="6" t="str">
         <f>A27</f>
         <v>BARCO 17</v>
       </c>
     </row>
-    <row r="51" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H51" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="M51" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="N51" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H52" s="15" t="str">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B54" s="1">
+        <f>COUNTA(C12)</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="N54" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55" s="1">
+        <f>COUNTA(B12)</f>
+        <v>1</v>
+      </c>
+      <c r="H55" s="15" t="str">
         <f>D15</f>
         <v>LICHA 18/19</v>
       </c>
-      <c r="I52" s="15" t="str">
+      <c r="I55" s="15" t="str">
         <f>C14</f>
         <v>MONTILLO 19</v>
       </c>
-      <c r="J52" s="15" t="str">
+      <c r="J55" s="15" t="str">
         <f>D26</f>
         <v>NACHO FERNANDEZ 19</v>
       </c>
-      <c r="K52" s="15" t="str">
+      <c r="K55" s="15" t="str">
         <f>F21</f>
         <v>LERTORA 19</v>
       </c>
-      <c r="L52" s="12" t="str">
-        <f>F4</f>
-        <v>HUSAIN 03</v>
-      </c>
-      <c r="M52" s="12" t="str">
+      <c r="L55" s="12" t="str">
+        <f>E4</f>
+        <v>BUFFARINI 19/20</v>
+      </c>
+      <c r="M55" s="12" t="str">
         <f>A29</f>
         <v>MONTIEL 20</v>
       </c>
-      <c r="N52" s="12" t="str">
+      <c r="N55" s="12" t="str">
         <f>C19</f>
         <v>QUIGNON 20</v>
       </c>
     </row>
-    <row r="53" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H53" s="15" t="str">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H56" s="15" t="str">
         <f>E24</f>
-        <v>LISANDRO MARTINEZ 18/19</v>
-      </c>
-      <c r="L53" s="12" t="str">
-        <f>E4</f>
-        <v>BUFFARINI 19/20</v>
-      </c>
-      <c r="N53" s="12" t="str">
+        <v>LISANDRO M 18/19</v>
+      </c>
+      <c r="N56" s="12" t="str">
         <f>E31</f>
         <v>BRIAN ROMERO 20</v>
       </c>
     </row>
-    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H54" s="15" t="str">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H57" s="15" t="str">
         <f>F26</f>
         <v>MATIAS ROJAS 19</v>
       </c>
     </row>
-    <row r="55" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H55" s="15" t="str">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H58" s="15" t="str">
         <f>E28</f>
         <v>ZARACHO 18/19</v>
       </c>
     </row>
-    <row r="56" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H56" s="15" t="str">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H59" s="15" t="str">
         <f>E29</f>
         <v>UVITA 18/19</v>
       </c>
     </row>
-    <row r="57" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H57" s="15" t="str">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H60" s="15" t="str">
         <f>E30</f>
         <v>SIGALI 18/9</v>
       </c>
     </row>
-    <row r="58" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H58" s="15" t="str">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H61" s="15" t="str">
         <f>C31</f>
         <v>ANDRADA 18/19</v>
       </c>
     </row>
-    <row r="59" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H59" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="K59" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="L59" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="M59" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="N59" s="24" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="60" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H60" s="19" t="str">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H62" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="K62" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="L62" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="M62" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="N62" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H63" s="19" t="str">
         <f>C10</f>
         <v>PULGA 21</v>
       </c>
-      <c r="I60" s="19" t="str">
+      <c r="I63" s="19" t="str">
         <f>B9</f>
         <v>JULIAN 21</v>
       </c>
-      <c r="J60" s="18" t="str">
+      <c r="J63" s="18" t="str">
         <f>F6</f>
         <v>ROJO 22</v>
       </c>
-      <c r="K60" s="18" t="str">
+      <c r="K63" s="18" t="str">
         <f>C1</f>
         <v>ROSSI 22</v>
       </c>
-      <c r="L60" s="24" t="str">
+      <c r="L63" s="24" t="str">
         <f>E13</f>
         <v>BATALLA 23</v>
       </c>
-      <c r="M60" s="24" t="str">
+      <c r="M63" s="24" t="str">
         <f>B13</f>
         <v>CAMPAZ 23</v>
       </c>
-      <c r="N60" s="24" t="str">
+      <c r="N63" s="24" t="str">
         <f>F1</f>
         <v>ROMERO 23</v>
       </c>
     </row>
-    <row r="61" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="I61" s="19" t="str">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H64" s="19" t="str">
+        <f>D29</f>
+        <v>ALIENDRO 21</v>
+      </c>
+      <c r="I64" s="19" t="str">
         <f>F13</f>
         <v>ENZO 21</v>
       </c>
-      <c r="K61" s="18" t="str">
+      <c r="K64" s="18" t="str">
         <f>D22</f>
         <v>ALCARAZ 22</v>
       </c>
-      <c r="L61" s="24" t="str">
+      <c r="L64" s="24" t="str">
         <f>C18</f>
         <v>BELTRAN 23</v>
       </c>
-      <c r="N61" s="24" t="str">
+      <c r="N64" s="24" t="str">
         <f>D19</f>
         <v>BARCO 23</v>
       </c>
     </row>
-    <row r="62" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H62" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="I62" s="19" t="str">
-        <f>A29</f>
-        <v>MONTIEL 20</v>
-      </c>
-      <c r="K62" s="18" t="str">
+    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I65" s="19" t="str">
+        <f>A31</f>
+        <v>SIMON 21</v>
+      </c>
+      <c r="K65" s="18" t="str">
         <f>F24</f>
         <v>VELIZ 22</v>
       </c>
     </row>
-    <row r="63" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H63" s="19" t="str">
+    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H66" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H67" s="19" t="str">
         <f>F3</f>
         <v>BENITEZ 21</v>
-      </c>
-      <c r="I63" s="19" t="str">
-        <f>A31</f>
-        <v>SIMON 21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="Q14:R14"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup fitToWidth="9" fitToHeight="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K21" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/data/SWF_data.xlsx
+++ b/data/SWF_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="333">
   <si>
     <t>AGOSTO</t>
   </si>
@@ -437,9 +437,6 @@
     <t>VALERI 07</t>
   </si>
   <si>
-    <t>EDU DOMINGUEZ 09</t>
-  </si>
-  <si>
     <t>BOLATTI 09</t>
   </si>
   <si>
@@ -923,17 +920,116 @@
     <t>ATLÉTICO TUCUMÁN</t>
   </si>
   <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
     <t>MORRO 17/18</t>
   </si>
   <si>
     <t>RÉ 10</t>
+  </si>
+  <si>
+    <t>IND 1 BOC 1 LAN 1 VEL 1 RIV 1 DYJ 1</t>
+  </si>
+  <si>
+    <t>BOC 2 LAN 1 ARS 1 VEL 1 RIV 1</t>
+  </si>
+  <si>
+    <t>EDLP 2 BOC 2 NOB 1 TIG 1</t>
+  </si>
+  <si>
+    <t>BOC 3 RIV 2 RAC 1</t>
+  </si>
+  <si>
+    <t>IND 1 EDLP 1 RIV 1 BOC 1 AAAJ 1 LAN 1</t>
+  </si>
+  <si>
+    <t>SL 1 BOC 1 RIV 3 VEL 1</t>
+  </si>
+  <si>
+    <t>BOC 3 SL 1 VEL 1 IND 1</t>
+  </si>
+  <si>
+    <t>VEL 1 BOC 1 RIV 1 IND LAN 1 BAN 1</t>
+  </si>
+  <si>
+    <t>BOC 2 RIV 1 LAN 1 CEN 1 VEL 1</t>
+  </si>
+  <si>
+    <t>RAC 1 BOC 3 COL 1 RIV 1</t>
+  </si>
+  <si>
+    <t>EDLP 1 VEL 2 SL 1 NOB 1 IND 1</t>
+  </si>
+  <si>
+    <t>SL 1 TUC 1 QUI 1 IND 1 VEL 1 TIG 1</t>
+  </si>
+  <si>
+    <t>RIV 3 CEN 1 LAN 1 SL 1</t>
+  </si>
+  <si>
+    <t>BOC 1 SL 1 TIG 1 VEL 1 LAN 1 AAAJ 1</t>
+  </si>
+  <si>
+    <t>SL 2 BOC 1 ARS 1 RAC 1 RIV 1</t>
+  </si>
+  <si>
+    <t>HUR 1 BOC 2 EDLP 2 IND 1</t>
+  </si>
+  <si>
+    <t>SL 1 EDLP 1 RAC 1 ARS 1 IND 1 CEN 1</t>
+  </si>
+  <si>
+    <t>BOC 1 AAAJ 1 RIV 2 GOD 2</t>
+  </si>
+  <si>
+    <t>IND 1 TIG 1 LAN 1 BOC 1 RIV 1 TIR 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAN 1 CEN 2 SL 1 NOB 1 COL 1 </t>
+  </si>
+  <si>
+    <t>RIV 1 SL 1 CEN 1 BOC 1 EDLP 1 COL 1</t>
+  </si>
+  <si>
+    <t>EDLP 1 RAC 2 TIG 1 SL 2</t>
+  </si>
+  <si>
+    <t>RAC 1 BOC 2 EDLP 1 VEL 1 LAN 1</t>
+  </si>
+  <si>
+    <t>BOC 2 LAN 1 RIV 1 DYJ 1 CEN 1</t>
+  </si>
+  <si>
+    <t>BAN 1 IND 1 RIV 2 CEN 1 HUR 1</t>
+  </si>
+  <si>
+    <t>VEL 1 SL 1 LAN 1 RIV 1 BOC 1 DYJ 1</t>
+  </si>
+  <si>
+    <t>IND 1 BOC 2 LAN 1 RIV 1 RAC 1</t>
+  </si>
+  <si>
+    <t>BOC 1 RIV 1 SL 1 EDLP 1 RAC 1 HUR 1</t>
+  </si>
+  <si>
+    <t>RIV 2 ARS 1 COL 1 DYJ 1 AAAJ 1</t>
+  </si>
+  <si>
+    <t>HUR 1 LAN 1 RIV 1 VEL 1 RAC 1 GELP 1</t>
+  </si>
+  <si>
+    <t>RIV 2 BOC 1 DYJ 1</t>
+  </si>
+  <si>
+    <t>LICHT 18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,6 +1039,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1115,10 +1218,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1152,9 +1256,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1440,17 +1548,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="20.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="13" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" style="1" customWidth="1"/>
+    <col min="8" max="13" width="20.7109375" style="1" customWidth="1"/>
     <col min="14" max="15" width="17.5703125" style="1" customWidth="1"/>
     <col min="16" max="19" width="11.42578125" style="1"/>
     <col min="20" max="20" width="17.85546875" style="1" customWidth="1"/>
@@ -1462,7 +1572,7 @@
         <v>50</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>61</v>
@@ -1471,31 +1581,34 @@
         <v>6</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="H1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>7</v>
@@ -1530,13 +1643,16 @@
         <v>123</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="H2" s="3" t="str">
         <f>F4</f>
@@ -1587,19 +1703,22 @@
         <v>125</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>165</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="H3" s="3" t="str">
         <f>D5</f>
@@ -1642,19 +1761,22 @@
         <v>54</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="H4" s="3" t="str">
         <f>E6</f>
@@ -1693,16 +1815,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="H5" s="3" t="str">
         <f>E10</f>
@@ -1727,19 +1852,22 @@
         <v>51</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>62</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="J6" s="3" t="str">
         <f>F16</f>
@@ -1780,6 +1908,9 @@
       <c r="F7" s="9" t="s">
         <v>132</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="J7" s="3" t="str">
         <f>B8</f>
         <v>CAGNA 03</v>
@@ -1794,7 +1925,7 @@
         <v>13</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T7" s="13" t="s">
         <v>29</v>
@@ -1805,7 +1936,7 @@
         <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>108</v>
@@ -1819,23 +1950,26 @@
       <c r="F8" s="20" t="s">
         <v>91</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="H8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="J8" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="P8" s="20">
         <v>2009</v>
@@ -1861,13 +1995,16 @@
         <v>129</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>118</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="H9" s="4" t="str">
         <f>B5</f>
@@ -1908,7 +2045,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>59</v>
@@ -1917,13 +2054,16 @@
         <v>103</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="H10" s="4" t="str">
         <f>F23</f>
@@ -1961,10 +2101,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>75</v>
@@ -1976,7 +2116,10 @@
         <v>99</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="H11" s="4" t="str">
         <f>D10</f>
@@ -2021,19 +2164,22 @@
         <v>70</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>263</v>
+      <c r="G12" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="H12" s="4" t="str">
         <f>F27</f>
@@ -2075,19 +2221,22 @@
         <v>85</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>134</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="L13" s="11" t="str">
         <f>A9</f>
@@ -2117,7 +2266,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>72</v>
@@ -2129,10 +2278,13 @@
         <v>133</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>93</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="L14" s="11" t="str">
         <f>F10</f>
@@ -2163,19 +2315,22 @@
         <v>71</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>109</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="L15" s="11" t="str">
         <f>A24</f>
@@ -2199,10 +2354,10 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>68</v>
@@ -2216,23 +2371,26 @@
       <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="H16" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="J16" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>196</v>
-      </c>
       <c r="K16" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="M16" s="20" t="s">
         <v>199</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>200</v>
       </c>
       <c r="P16" s="8">
         <v>2017</v>
@@ -2258,13 +2416,13 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>145</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>146</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>95</v>
@@ -2274,6 +2432,9 @@
       </c>
       <c r="F17" s="14" t="s">
         <v>119</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="H17" s="13" t="str">
         <f>A13</f>
@@ -2336,7 +2497,10 @@
         <v>299</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="H18" s="13" t="str">
         <f>A20</f>
@@ -2385,19 +2549,22 @@
         <v>128</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>127</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="H19" s="13" t="str">
         <f>A21</f>
@@ -2437,7 +2604,7 @@
         <v>82</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>122</v>
@@ -2446,10 +2613,13 @@
         <v>98</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="H20" s="13" t="str">
         <f>B29</f>
@@ -2489,22 +2659,25 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>120</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>115</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="H21" s="13" t="str">
         <f>C30</f>
@@ -2548,10 +2721,13 @@
         <v>106</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="K22" s="20" t="str">
         <f>E16</f>
@@ -2584,7 +2760,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>90</v>
@@ -2594,6 +2770,9 @@
       </c>
       <c r="F23" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="K23" s="20" t="str">
         <f>E20</f>
@@ -2605,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>76</v>
@@ -2614,14 +2793,17 @@
         <v>80</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="K24" s="20" t="str">
-        <f>E25</f>
-        <v>EDU DOMINGUEZ 09</v>
+        <f>F28</f>
+        <v>BOLATTI 09</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2635,17 +2817,20 @@
         <v>117</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>137</v>
+        <v>219</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>332</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="K25" s="20" t="str">
-        <f>F28</f>
-        <v>BOLATTI 09</v>
+        <f>D30</f>
+        <v>OTAMENDI 09</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -2662,14 +2847,13 @@
         <v>81</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="K26" s="20" t="str">
-        <f>D30</f>
-        <v>OTAMENDI 09</v>
+        <v>271</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -2677,35 +2861,38 @@
         <v>112</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="H27" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="J27" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>203</v>
       </c>
       <c r="K27" s="16" t="str">
         <f>A8</f>
         <v>AUGUSTO 11</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -2716,16 +2903,19 @@
         <v>116</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="H28" s="10" t="str">
         <f>E2</f>
@@ -2750,22 +2940,25 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>102</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="H29" s="10" t="str">
         <f>D12</f>
@@ -2786,7 +2979,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>77</v>
@@ -2798,10 +2991,13 @@
         <v>87</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="H30" s="10" t="str">
         <f>F14</f>
@@ -2821,13 +3017,16 @@
         <v>105</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="H31" s="10" t="str">
         <f>B18</f>
@@ -2836,22 +3035,26 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <f>COUNTA(A1:F30,A31,C31,E31,F31)</f>
+        <v>184</v>
       </c>
       <c r="H32" s="10" t="str">
         <f>F29</f>
@@ -2866,44 +3069,36 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" s="1">
-        <f>COUNTA(A1,C1,F1,D2,B3,A4,E4,B5,F6,D6,A6,B7,E7,A9,D9,B10,F10,D10,A14,B15,B16,F16,A18,D19,B23,F23,B24,A24,E26,E27,A28,C31,B27,D21)</f>
-        <v>34</v>
-      </c>
-      <c r="C34" s="1">
-        <f>SUM(B34,B35,B36,B37,B38,B39,B40,B41,B42,B43,B44,B45,B46,B47,B48,B49,B50,B51,B52,B53,B54,B55)</f>
-        <v>175</v>
-      </c>
-      <c r="D34" s="4">
-        <f>COUNTA(A1:F30,A31,C31,E31,F31)</f>
-        <v>184</v>
-      </c>
-      <c r="E34" s="1">
-        <f>COUNTA(H2:H5,I2,J2:J7,K2:K4,L2,M2:M3,N2:N4,H9:H12,I9:I12,J9:J10,K9:K12,L9:L15,M9:M10,H17:H21,I17:I20,J17,K17:K26,L17:L20,M17:M21,H28:H33,I28:I30,J28,K28:K30,L28:L29,H35:H38,I35,J35,K35:K37,L35:L37,M35:M36,N35,Q53,H40:H43,I40:I44,J40:J46,K40:K41,L40:L45,M40:M43,N40,H48:H50,I48:I51,J48:J49,K48:K53,L48:L50,M48:M51,N48:N49,H55:H61,I55,J55,K55,L55,M55,N55:N56,H63:H64,H67,I63:I65,J63,K63:K65,L63:L64,M63,N63:N64)</f>
-        <v>184</v>
+        <f>COUNTA(A1,C1,F1,D2,B3,A4,E4,B5,F6,D6,A6,B7,E7,A9,D9,B10,F10,D10,A14,B15,B16,F16,A18,D19,B23,F23,B24,A24,E26,E27,A28,C31,B27,D21,B8)</f>
+        <v>35</v>
+      </c>
+      <c r="C34" s="32">
+        <f>B34/B56*C56</f>
+        <v>0.19021739130434784</v>
       </c>
       <c r="H34" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="L34" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="L34" s="17" t="s">
+      <c r="M34" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="M34" s="17" t="s">
-        <v>211</v>
-      </c>
       <c r="N34" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2914,6 +3109,10 @@
         <f>COUNTA(D1,B1,C2,E3,F4,F5,D5,C5,C8,B9,E10,F13,E15,C18,E19,A21,D24,F25,C25,D26,B29,A29,C30,A31,F31,D27,A13,C13,B28,F18)</f>
         <v>30</v>
       </c>
+      <c r="C35" s="32">
+        <f>B35/B56*C56</f>
+        <v>0.16304347826086957</v>
+      </c>
       <c r="H35" s="9" t="str">
         <f>F7</f>
         <v>LUNA 12</v>
@@ -2945,11 +3144,15 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>291</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1">
-        <f>COUNTA(A2,A3,A19,A27,B25,D12,D16,E6,F11,D8,E17)</f>
-        <v>11</v>
+        <f>COUNTA(C11,A5,B14,A15,A17,C20,B21,E22,F22,B26,C28,A12,F15,B6,E13)</f>
+        <v>15</v>
+      </c>
+      <c r="C36" s="32">
+        <f>B36/B56*C56</f>
+        <v>8.1521739130434784E-2</v>
       </c>
       <c r="H36" s="9" t="str">
         <f>F12</f>
@@ -2969,12 +3172,16 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>22</v>
+      <c r="A37" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B37" s="1">
-        <f>COUNTA(D22,E1,B22,A23,A10,F27,E30,E28,C17,D15)</f>
-        <v>10</v>
+        <f>COUNTA(D3,D4,E5,C6,A8,F9,D11,B11,E12,D14,A26,D23,D30)</f>
+        <v>13</v>
+      </c>
+      <c r="C37" s="32">
+        <f>B37/B56*C56</f>
+        <v>7.0652173913043473E-2</v>
       </c>
       <c r="H37" s="9" t="str">
         <f>E22</f>
@@ -2990,12 +3197,16 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="1">
-        <f>COUNTA(C11,A5,B14,A15,A17,C20,B21,E22,F22,B26,C28,A12,F15,B6,E13)</f>
-        <v>15</v>
+      <c r="A38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="30">
+        <f>COUNTA(D13,C3,B4,E8,C9,E23,C26,B30,C19,E14,C24,F2,C27)</f>
+        <v>13</v>
+      </c>
+      <c r="C38" s="32">
+        <f>B38/B56*C56</f>
+        <v>7.0652173913043473E-2</v>
       </c>
       <c r="H38" s="9" t="str">
         <f>D17</f>
@@ -3004,41 +3215,49 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B39" s="1">
-        <f>COUNTA(F28,A16,A30,E25)</f>
-        <v>4</v>
+        <f>COUNTA(A2,A3,A19,A27,B25,D12,D16,E6,F11,D8,E17)</f>
+        <v>11</v>
+      </c>
+      <c r="C39" s="32">
+        <f>B39/B56*C56</f>
+        <v>5.9782608695652176E-2</v>
       </c>
       <c r="H39" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="I39" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="J39" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="J39" s="22" t="s">
+      <c r="K39" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="K39" s="22" t="s">
+      <c r="L39" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="L39" s="23" t="s">
+      <c r="M39" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="M39" s="23" t="s">
-        <v>218</v>
-      </c>
       <c r="N39" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="1">
-        <f>COUNTA(D3,D4,E5,C6,A8,F9,D11,B11,E12,D14,A26,D23)</f>
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B40" s="30">
+        <f>COUNTA(B2,A7,D7,A11,B17,E21,A22,D28,C16,C23,E16)</f>
+        <v>11</v>
+      </c>
+      <c r="C40" s="32">
+        <f>B40/B56*C56</f>
+        <v>5.9782608695652176E-2</v>
       </c>
       <c r="H40" s="22" t="str">
         <f>E3</f>
@@ -3070,12 +3289,16 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="30">
-        <f>COUNTA(B2,A7,D7,A11,B17,E21,A22,D28,C16,C23,E16)</f>
-        <v>11</v>
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1">
+        <f>COUNTA(D22,E1,B22,A23,A10,F27,E30,E28,C17,D15)</f>
+        <v>10</v>
+      </c>
+      <c r="C41" s="32">
+        <f>B41/B56*C56</f>
+        <v>5.434782608695652E-2</v>
       </c>
       <c r="H41" s="22" t="str">
         <f>F9</f>
@@ -3104,11 +3327,15 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>293</v>
+        <v>25</v>
       </c>
       <c r="B42" s="30">
-        <f>COUNTA(F30)</f>
-        <v>1</v>
+        <f>COUNTA(E9,D25,F17,B20,C21,F24,B13,F20)</f>
+        <v>8</v>
+      </c>
+      <c r="C42" s="32">
+        <f>B42/B56*C56</f>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="H42" s="22" t="str">
         <f>C12</f>
@@ -3133,11 +3360,15 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="30">
-        <f>COUNTA(D20,E11)</f>
-        <v>2</v>
+        <v>293</v>
+      </c>
+      <c r="B43" s="1">
+        <f>COUNTA(E31,E29,F26,F3,E24)</f>
+        <v>5</v>
+      </c>
+      <c r="C43" s="32">
+        <f>B43/B56*C56</f>
+        <v>2.717391304347826E-2</v>
       </c>
       <c r="H43" s="22" t="str">
         <f>B28</f>
@@ -3162,11 +3393,15 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="30">
-        <f>COUNTA(E9,D25,F17,B20,C21,F24)</f>
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="B44" s="1">
+        <f>COUNTA(C14,F12,B19,F7,C22)</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="32">
+        <f>B44/B56*C56</f>
+        <v>2.717391304347826E-2</v>
       </c>
       <c r="I44" s="22" t="str">
         <f>A23</f>
@@ -3183,11 +3418,15 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="30">
-        <f>COUNTA(D13,C3,B4,E8,C9,E23,C26,B30,C19)</f>
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="B45" s="1">
+        <f>COUNTA(F14,F29,E2,B18)</f>
+        <v>4</v>
+      </c>
+      <c r="C45" s="32">
+        <f>B45/B56*C56</f>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="J45" s="22" t="str">
         <f>B26</f>
@@ -3200,11 +3439,15 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1">
-        <f>COUNTA(A25,A20,F8)</f>
-        <v>3</v>
+        <f>COUNTA(D17,C4,C15,C29)</f>
+        <v>4</v>
+      </c>
+      <c r="C46" s="32">
+        <f>B46/B56*C56</f>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="J46" s="22" t="str">
         <f>C28</f>
@@ -3213,41 +3456,49 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B47" s="1">
-        <f>COUNTA(F14,F29,E2,B18)</f>
+        <f>COUNTA(E20,F21,C10,D29)</f>
         <v>4</v>
       </c>
+      <c r="C47" s="32">
+        <f>B47/B56*C56</f>
+        <v>2.1739130434782608E-2</v>
+      </c>
       <c r="H47" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I47" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="K47" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="K47" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="L47" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="M47" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="M47" s="14" t="s">
+      <c r="N47" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="N47" s="14" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>21</v>
+      <c r="A48" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="B48" s="1">
-        <f>COUNTA(D17,C4,C15,C29)</f>
-        <v>4</v>
+        <f>COUNTA(F28,A16,A30)</f>
+        <v>3</v>
+      </c>
+      <c r="C48" s="32">
+        <f>B48/B56*C56</f>
+        <v>1.6304347826086956E-2</v>
       </c>
       <c r="H48" s="21" t="str">
         <f>C26</f>
@@ -3280,11 +3531,15 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B49" s="1">
-        <f>COUNTA(E31,E29,F26,F3,E24)</f>
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B49" s="30">
+        <f>COUNTA(D20,E11,C7)</f>
+        <v>3</v>
+      </c>
+      <c r="C49" s="32">
+        <f>B49/B56*C56</f>
+        <v>1.6304347826086956E-2</v>
       </c>
       <c r="H49" s="21" t="str">
         <f>C27</f>
@@ -3317,11 +3572,15 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1">
-        <f>COUNTA(E20,F21,C10,D29)</f>
-        <v>4</v>
+        <f>COUNTA(A25,A20,F8)</f>
+        <v>3</v>
+      </c>
+      <c r="C50" s="32">
+        <f>B50/B56*C56</f>
+        <v>1.6304347826086956E-2</v>
       </c>
       <c r="H50" s="21" t="str">
         <f>B30</f>
@@ -3343,14 +3602,22 @@
         <f>E15</f>
         <v>PALACIOS 18</v>
       </c>
+      <c r="N50" s="14" t="str">
+        <f>E25</f>
+        <v>LICHT 18</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B51" s="1">
-        <f>COUNTA(F19)</f>
-        <v>1</v>
+        <v>292</v>
+      </c>
+      <c r="B51" s="30">
+        <f>COUNTA(F30,E25)</f>
+        <v>2</v>
+      </c>
+      <c r="C51" s="32">
+        <f>B51/B56*C56</f>
+        <v>1.0869565217391304E-2</v>
       </c>
       <c r="I51" s="6" t="str">
         <f>E26</f>
@@ -3367,12 +3634,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B52" s="1">
         <f>COUNTA(E18,D18)</f>
         <v>2</v>
       </c>
+      <c r="C52" s="32">
+        <f>B52/B56*C56</f>
+        <v>1.0869565217391304E-2</v>
+      </c>
       <c r="K52" s="6" t="str">
         <f>B25</f>
         <v>CAMPAÑA 17</v>
@@ -3380,11 +3651,15 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="B53" s="1">
-        <f>COUNTA(C14,F12,B19,F7,C22)</f>
-        <v>5</v>
+        <f>COUNTA(C12)</f>
+        <v>1</v>
+      </c>
+      <c r="C53" s="32">
+        <f>B53/B56*C56</f>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="K53" s="6" t="str">
         <f>A27</f>
@@ -3396,38 +3671,46 @@
         <v>297</v>
       </c>
       <c r="B54" s="1">
-        <f>COUNTA(C12)</f>
+        <f>COUNTA(B12)</f>
         <v>1</v>
       </c>
+      <c r="C54" s="32">
+        <f>B54/B56*C56</f>
+        <v>5.434782608695652E-3</v>
+      </c>
       <c r="H54" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="I54" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="J54" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="J54" s="15" t="s">
+      <c r="K54" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="K54" s="15" t="s">
+      <c r="L54" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="L54" s="12" t="s">
+      <c r="M54" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="N54" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="M54" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="N54" s="12" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B55" s="1">
-        <f>COUNTA(B12)</f>
+        <f>COUNTA(F19)</f>
         <v>1</v>
+      </c>
+      <c r="C55" s="32">
+        <f>B55/B56*C56</f>
+        <v>5.434782608695652E-3</v>
       </c>
       <c r="H55" s="15" t="str">
         <f>D15</f>
@@ -3459,6 +3742,16 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="B56" s="4">
+        <f>SUM(B34,B35,B39,B41,B36,B48,B37,B40,B51,B49,B42,B38,B50,B45,B46,B43,B47,B55,B52,B44,B53,B54)</f>
+        <v>184</v>
+      </c>
+      <c r="C56" s="33">
+        <v>1</v>
+      </c>
       <c r="H56" s="15" t="str">
         <f>E24</f>
         <v>LISANDRO M 18/19</v>
@@ -3497,28 +3790,32 @@
         <f>C31</f>
         <v>ANDRADA 18/19</v>
       </c>
+      <c r="K61" s="18" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H62" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="K62" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="K62" s="18" t="str">
+        <f>C1</f>
+        <v>ROSSI 22</v>
+      </c>
+      <c r="L62" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="M62" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="L62" s="24" t="s">
+      <c r="N62" s="24" t="s">
         <v>246</v>
-      </c>
-      <c r="M62" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="N62" s="24" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -3535,8 +3832,8 @@
         <v>ROJO 22</v>
       </c>
       <c r="K63" s="18" t="str">
-        <f>C1</f>
-        <v>ROSSI 22</v>
+        <f>D22</f>
+        <v>ALCARAZ 22</v>
       </c>
       <c r="L63" s="24" t="str">
         <f>E13</f>
@@ -3561,8 +3858,8 @@
         <v>ENZO 21</v>
       </c>
       <c r="K64" s="18" t="str">
-        <f>D22</f>
-        <v>ALCARAZ 22</v>
+        <f>F24</f>
+        <v>VELIZ 22</v>
       </c>
       <c r="L64" s="24" t="str">
         <f>C18</f>
@@ -3573,25 +3870,30 @@
         <v>BARCO 23</v>
       </c>
     </row>
-    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I65" s="19" t="str">
         <f>A31</f>
         <v>SIMON 21</v>
       </c>
-      <c r="K65" s="18" t="str">
-        <f>F24</f>
-        <v>VELIZ 22</v>
-      </c>
-    </row>
-    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H66" s="19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H67" s="19" t="str">
         <f>F3</f>
         <v>BENITEZ 21</v>
+      </c>
+    </row>
+    <row r="68" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="M68" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="N68" s="4">
+        <f>COUNTA(H2:H5,I2,J2:J7,K2:K4,L2,M2:M3,N2:N4,H9:H12,I9:I12,J9:J10,K9:K12,L9:L15,M9:M10,H17:H21,I17:I20,J17,K17:K25,L17:L20,M17:M21,H28:H33,I28:I30,J28,K28:K30,L28:L29,H35:H38,I35,J35,K35:K37,L35:L37,M35:M36,N35,Q53,H40:H43,I40:I44,J40:J46,K40:K41,L40:L45,M40:M43,N40,H48:H50,I48:I51,J48:J49,K48:K53,L48:L50,M48:M51,N48:N50,H55:H61,I55,J55,K55,L55,M55,N55:N56,H63:H64,H67,I63:I65,J63,K62:K64,L63:L64,M63,N63:N64)</f>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/data/SWF_data.xlsx
+++ b/data/SWF_data.xlsx
@@ -242,9 +242,6 @@
     <t>TITO VILLALBA 13</t>
   </si>
   <si>
-    <t>KANNEMANN 14</t>
-  </si>
-  <si>
     <t>MAS 14</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>AUGUSTO 11</t>
   </si>
   <si>
-    <t>TANQUE SILVA 11</t>
-  </si>
-  <si>
     <t>JAMES 09</t>
   </si>
   <si>
@@ -407,9 +401,6 @@
     <t>FARIAS 03</t>
   </si>
   <si>
-    <t>CAMPORA 05</t>
-  </si>
-  <si>
     <t>DENIS 07</t>
   </si>
   <si>
@@ -473,12 +464,6 @@
     <t>CAMPAZ 23</t>
   </si>
   <si>
-    <t>CHINO BENITEZ 10</t>
-  </si>
-  <si>
-    <t>TOLEDO 18</t>
-  </si>
-  <si>
     <t>BATALLA 23</t>
   </si>
   <si>
@@ -527,9 +512,6 @@
     <t>PERUZZI 13</t>
   </si>
   <si>
-    <t>CUBERO 09</t>
-  </si>
-  <si>
     <t>BENITEZ 21</t>
   </si>
   <si>
@@ -578,9 +560,6 @@
     <t>APERTURA 05</t>
   </si>
   <si>
-    <t>CAGNA 03</t>
-  </si>
-  <si>
     <t>CLAUSURA 06</t>
   </si>
   <si>
@@ -635,9 +614,6 @@
     <t>SUDAMERICANA 10</t>
   </si>
   <si>
-    <t>APERTURA 2011</t>
-  </si>
-  <si>
     <t>ENZO 21</t>
   </si>
   <si>
@@ -716,9 +692,6 @@
     <t>ZARACHO 18/19</t>
   </si>
   <si>
-    <t>UVITA 18/19</t>
-  </si>
-  <si>
     <t>SIGALI 18/9</t>
   </si>
   <si>
@@ -833,9 +806,6 @@
     <t>BRIAN ROMERO 20</t>
   </si>
   <si>
-    <t>SCHIAVI 03</t>
-  </si>
-  <si>
     <t>QUIGNON 20</t>
   </si>
   <si>
@@ -848,9 +818,6 @@
     <t>ALARIO 16/17</t>
   </si>
   <si>
-    <t>NANDEZ 18</t>
-  </si>
-  <si>
     <t>ROLY 05</t>
   </si>
   <si>
@@ -908,9 +875,6 @@
     <t>DEFENSA</t>
   </si>
   <si>
-    <t>TIRO FEDERAL</t>
-  </si>
-  <si>
     <t>GODOY CRUZ</t>
   </si>
   <si>
@@ -950,9 +914,6 @@
     <t>BOC 3 SL 1 VEL 1 IND 1</t>
   </si>
   <si>
-    <t>VEL 1 BOC 1 RIV 1 IND LAN 1 BAN 1</t>
-  </si>
-  <si>
     <t>BOC 2 RIV 1 LAN 1 CEN 1 VEL 1</t>
   </si>
   <si>
@@ -971,9 +932,6 @@
     <t>BOC 1 SL 1 TIG 1 VEL 1 LAN 1 AAAJ 1</t>
   </si>
   <si>
-    <t>SL 2 BOC 1 ARS 1 RAC 1 RIV 1</t>
-  </si>
-  <si>
     <t>HUR 1 BOC 2 EDLP 2 IND 1</t>
   </si>
   <si>
@@ -983,9 +941,6 @@
     <t>BOC 1 AAAJ 1 RIV 2 GOD 2</t>
   </si>
   <si>
-    <t>IND 1 TIG 1 LAN 1 BOC 1 RIV 1 TIR 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">BAN 1 CEN 2 SL 1 NOB 1 COL 1 </t>
   </si>
   <si>
@@ -1022,7 +977,52 @@
     <t>RIV 2 BOC 1 DYJ 1</t>
   </si>
   <si>
-    <t>LICHT 18</t>
+    <t>PISCULICHI 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL 2 RIV 2 ARS 1 RAC 1 </t>
+  </si>
+  <si>
+    <t>QUINTERO 18</t>
+  </si>
+  <si>
+    <t>VEL 1 RIV 2 IND LAN 1 BAN 1</t>
+  </si>
+  <si>
+    <t>CLAUSURA 11</t>
+  </si>
+  <si>
+    <t>APERTURA 11</t>
+  </si>
+  <si>
+    <t>TOLEDO 19</t>
+  </si>
+  <si>
+    <t>TEO GUTIERREZ 11</t>
+  </si>
+  <si>
+    <t>SCHIAVI 11</t>
+  </si>
+  <si>
+    <t>CAMPORA 11</t>
+  </si>
+  <si>
+    <t>TANQUE SILVA 10</t>
+  </si>
+  <si>
+    <t>BORRE 19/20</t>
+  </si>
+  <si>
+    <t>IND 1 TIG 1 LAN 1 BOC 1 RIV 2</t>
+  </si>
+  <si>
+    <t>KANNEMANN 13</t>
+  </si>
+  <si>
+    <t>CUBERO 12</t>
+  </si>
+  <si>
+    <t>CHINO BENITEZ 09</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1251,14 +1251,15 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1548,10 +1549,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1573,7 @@
         <v>50</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>61</v>
@@ -1581,34 +1582,34 @@
         <v>6</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>7</v>
@@ -1634,25 +1635,25 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>269</v>
+        <v>121</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H2" s="3" t="str">
         <f>F4</f>
@@ -1700,33 +1701,33 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>285</v>
+        <v>139</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>274</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="H3" s="3" t="str">
         <f>D5</f>
         <v>ASTRADA 03</v>
       </c>
       <c r="J3" s="3" t="str">
-        <f>D2</f>
-        <v>SCHIAVI 03</v>
+        <f>A6</f>
+        <v>BURDISSO 03</v>
       </c>
       <c r="K3" s="5" t="str">
         <f>D27</f>
@@ -1736,9 +1737,9 @@
         <f>A26</f>
         <v>CASTROMAN 05</v>
       </c>
-      <c r="N3" s="7" t="str">
-        <f>F19</f>
-        <v>CAMPORA 05</v>
+      <c r="N3" s="25" t="str">
+        <f>B24</f>
+        <v>KRUPOVIESA 05</v>
       </c>
       <c r="P3" s="5">
         <v>2004</v>
@@ -1761,39 +1762,35 @@
         <v>54</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="H4" s="3" t="str">
         <f>E6</f>
         <v>MILITO 03</v>
       </c>
       <c r="J4" s="3" t="str">
-        <f>A6</f>
-        <v>BURDISSO 03</v>
+        <f>E7</f>
+        <v>GUILLERMO 03</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>F31</f>
         <v>GALLARDO 04</v>
       </c>
-      <c r="N4" s="25" t="str">
-        <f>B24</f>
-        <v>KRUPOVIESA 05</v>
-      </c>
       <c r="P4" s="7">
         <v>2005</v>
       </c>
@@ -1809,33 +1806,33 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>167</v>
+        <v>149</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="H5" s="3" t="str">
         <f>E10</f>
         <v>DALESSANDRO 03</v>
       </c>
       <c r="J5" s="3" t="str">
-        <f>E7</f>
-        <v>GUILLERMO 03</v>
+        <f>F16</f>
+        <v>DELGADO 03</v>
       </c>
       <c r="P5" s="4">
         <v>2006</v>
@@ -1852,26 +1849,40 @@
         <v>51</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>62</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f>F16</f>
-        <v>DELGADO 03</v>
+        <v>295</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="P6" s="11">
         <v>2007</v>
@@ -1891,7 +1902,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>60</v>
@@ -1906,14 +1917,34 @@
         <v>53</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <f>B8</f>
-        <v>CAGNA 03</v>
+        <v>291</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f>F23</f>
+        <v>BILOS 06</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>B5</f>
+        <v>GAGO 06</v>
+      </c>
+      <c r="J7" s="11" t="str">
+        <f>A9</f>
+        <v>PALERMO 07</v>
+      </c>
+      <c r="K7" s="11" t="str">
+        <f>E8</f>
+        <v>VALERI 07</v>
+      </c>
+      <c r="L7" s="11" t="str">
+        <f>B3</f>
+        <v>MOREL RODRIGUEZ 07</v>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f>F14</f>
+        <v>CALDERON 10</v>
       </c>
       <c r="P7" s="13">
         <v>2008</v>
@@ -1925,7 +1956,7 @@
         <v>13</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="T7" s="13" t="s">
         <v>29</v>
@@ -1933,43 +1964,49 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>91</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>191</v>
+        <v>320</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f>D10</f>
+        <v>INSUA 05</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f>D7</f>
+        <v>SOSA 06</v>
+      </c>
+      <c r="J8" s="11" t="str">
+        <f>F20</f>
+        <v>DI MARIA 07</v>
+      </c>
+      <c r="K8" s="11" t="str">
+        <f>D13</f>
+        <v>BOSSIO 07</v>
+      </c>
+      <c r="L8" s="11" t="str">
+        <f>A4</f>
+        <v>IBARRA 07</v>
+      </c>
+      <c r="M8" s="11" t="str">
+        <f>C15</f>
+        <v>PAPU 07</v>
       </c>
       <c r="P8" s="20">
         <v>2009</v>
@@ -1989,153 +2026,129 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f>B5</f>
-        <v>GAGO 06</v>
+        <f>F27</f>
+        <v>MAXI MORALEZ 06</v>
       </c>
       <c r="I9" s="4" t="str">
-        <f>D7</f>
-        <v>SOSA 06</v>
+        <f>F22</f>
+        <v>LAVEZZI 06</v>
       </c>
       <c r="J9" s="11" t="str">
-        <f>F20</f>
-        <v>DI MARIA 07</v>
+        <f>A17</f>
+        <v>GALLEGO MENDEZ 07</v>
       </c>
       <c r="K9" s="11" t="str">
-        <f>E8</f>
-        <v>VALERI 07</v>
+        <f>A19</f>
+        <v>DENIS 07</v>
       </c>
       <c r="L9" s="11" t="str">
+        <f>D6</f>
+        <v>CATA DIAZ 07</v>
+      </c>
+      <c r="P9" s="10">
+        <v>2010</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f>A14</f>
+        <v>PALACIO 06</v>
+      </c>
+      <c r="K10" s="11" t="str">
+        <f>E23</f>
+        <v>BLANCO 07</v>
+      </c>
+      <c r="L10" s="11" t="str">
+        <f>F10</f>
+        <v>JRR 07</v>
+      </c>
+      <c r="P10" s="16">
+        <v>2011</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>E19</f>
+        <v>HIGUAÍN 06</v>
+      </c>
+      <c r="L11" s="11" t="str">
         <f>D21</f>
         <v>CLEMENTE 07</v>
-      </c>
-      <c r="M9" s="11" t="str">
-        <f>F14</f>
-        <v>CALDERON 10</v>
-      </c>
-      <c r="P9" s="10">
-        <v>2010</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f>F23</f>
-        <v>BILOS 06</v>
-      </c>
-      <c r="I10" s="4" t="str">
-        <f>F22</f>
-        <v>LAVEZZI 06</v>
-      </c>
-      <c r="J10" s="11" t="str">
-        <f>A17</f>
-        <v>GALLEGO MENDEZ 07</v>
-      </c>
-      <c r="K10" s="11" t="str">
-        <f>D13</f>
-        <v>BOSSIO 07</v>
-      </c>
-      <c r="L10" s="11" t="str">
-        <f>B3</f>
-        <v>MOREL RODRIGUEZ 07</v>
-      </c>
-      <c r="M10" s="11" t="str">
-        <f>C15</f>
-        <v>PAPU 07</v>
-      </c>
-      <c r="P10" s="16">
-        <v>2011</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H11" s="4" t="str">
-        <f>D10</f>
-        <v>INSUA 05</v>
-      </c>
-      <c r="I11" s="4" t="str">
-        <f>A14</f>
-        <v>PALACIO 06</v>
-      </c>
-      <c r="K11" s="11" t="str">
-        <f>A19</f>
-        <v>DENIS 07</v>
-      </c>
-      <c r="L11" s="11" t="str">
-        <f>A4</f>
-        <v>IBARRA 07</v>
       </c>
       <c r="P11" s="9">
         <v>2012</v>
@@ -2163,39 +2176,27 @@
       <c r="A12" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>150</v>
+      <c r="B12" s="15" t="s">
+        <v>323</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H12" s="4" t="str">
-        <f>F27</f>
-        <v>MAXI MORALEZ 06</v>
-      </c>
-      <c r="I12" s="4" t="str">
-        <f>E19</f>
-        <v>HIGUAÍN 06</v>
-      </c>
-      <c r="K12" s="11" t="str">
-        <f>E23</f>
-        <v>BLANCO 07</v>
+        <v>299</v>
       </c>
       <c r="L12" s="11" t="str">
-        <f>D6</f>
-        <v>CATA DIAZ 07</v>
+        <f>A24</f>
+        <v>EVER BANEGA 07</v>
       </c>
       <c r="P12" s="17">
         <v>2013</v>
@@ -2218,29 +2219,43 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="L13" s="11" t="str">
-        <f>A9</f>
-        <v>PALERMO 07</v>
+        <v>300</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="P13" s="22">
         <v>2014</v>
@@ -2266,37 +2281,57 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>72</v>
+        <v>185</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>330</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L14" s="11" t="str">
-        <f>F10</f>
-        <v>JRR 07</v>
+        <v>301</v>
+      </c>
+      <c r="H14" s="13" t="str">
+        <f>A13</f>
+        <v>ABREU 08</v>
+      </c>
+      <c r="I14" s="13" t="str">
+        <f>B6</f>
+        <v>SOLARI 08</v>
+      </c>
+      <c r="J14" s="13" t="str">
+        <f>F15</f>
+        <v>BERGESSIO 08</v>
+      </c>
+      <c r="K14" s="20" t="str">
+        <f>D3</f>
+        <v>PAPA 09</v>
+      </c>
+      <c r="L14" s="20" t="str">
+        <f>F8</f>
+        <v>JAMES 09</v>
+      </c>
+      <c r="M14" s="20" t="str">
+        <f>B2</f>
+        <v>DESABATO 09</v>
       </c>
       <c r="P14" s="23">
         <v>2015</v>
       </c>
-      <c r="Q14" s="28" t="s">
+      <c r="Q14" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="28"/>
+      <c r="R14" s="33"/>
       <c r="S14" s="23" t="s">
         <v>12</v>
       </c>
@@ -2314,27 +2349,43 @@
       <c r="A15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>274</v>
+      <c r="B15" s="22" t="s">
+        <v>317</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="L15" s="11" t="str">
-        <f>A24</f>
-        <v>EVER BANEGA 07</v>
+        <v>318</v>
+      </c>
+      <c r="H15" s="13" t="str">
+        <f>A20</f>
+        <v>CVITANICH 08</v>
+      </c>
+      <c r="I15" s="13" t="str">
+        <f>C9</f>
+        <v>SAND 08</v>
+      </c>
+      <c r="K15" s="20" t="str">
+        <f>C6</f>
+        <v>SEBA DOMINGUEZ 09</v>
+      </c>
+      <c r="L15" s="20" t="str">
+        <f>A25</f>
+        <v>PAPELITO 09</v>
+      </c>
+      <c r="M15" s="20" t="str">
+        <f>A11</f>
+        <v>VERON 09</v>
       </c>
       <c r="P15" s="21">
         <v>2016</v>
@@ -2354,43 +2405,45 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>199</v>
+        <v>302</v>
+      </c>
+      <c r="H16" s="13" t="str">
+        <f>A21</f>
+        <v>ALEXIS SANCHEZ 08</v>
+      </c>
+      <c r="I16" s="13" t="str">
+        <f>A18</f>
+        <v>FIGUEROA 08</v>
+      </c>
+      <c r="K16" s="20" t="str">
+        <f>E14</f>
+        <v>SALVIO 09</v>
+      </c>
+      <c r="L16" s="20" t="str">
+        <f>A28</f>
+        <v>GAITAN 09</v>
+      </c>
+      <c r="M16" s="20" t="str">
+        <f>B17</f>
+        <v>BOSELLI 09</v>
       </c>
       <c r="P16" s="8">
         <v>2017</v>
@@ -2416,49 +2469,45 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="H17" s="13" t="str">
-        <f>A13</f>
-        <v>ABREU 08</v>
+        <f>B29</f>
+        <v>JP CARRIZO 08</v>
       </c>
       <c r="I17" s="13" t="str">
-        <f>B6</f>
-        <v>SOLARI 08</v>
-      </c>
-      <c r="J17" s="13" t="str">
-        <f>F15</f>
-        <v>BERGESSIO 08</v>
+        <f>E27</f>
+        <v>VIATRI 08</v>
       </c>
       <c r="K17" s="20" t="str">
-        <f>D3</f>
-        <v>PAPA 09</v>
+        <f>A16</f>
+        <v>PASTORE 09</v>
       </c>
       <c r="L17" s="20" t="str">
-        <f>F8</f>
-        <v>JAMES 09</v>
+        <f>C29</f>
+        <v>FRANCO JARA 09</v>
       </c>
       <c r="M17" s="20" t="str">
-        <f>B2</f>
-        <v>DESABATO 09</v>
+        <f>E21</f>
+        <v>ANDUJAR 09</v>
       </c>
       <c r="P17" s="14">
         <v>2018</v>
@@ -2485,42 +2534,34 @@
         <v>49</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H18" s="13" t="str">
-        <f>A20</f>
-        <v>CVITANICH 08</v>
-      </c>
-      <c r="I18" s="13" t="str">
-        <f>C9</f>
-        <v>SAND 08</v>
+        <f>C30</f>
+        <v>BUONANOTTE 08</v>
       </c>
       <c r="K18" s="20" t="str">
-        <f>E5</f>
-        <v>CUBERO 09</v>
-      </c>
-      <c r="L18" s="20" t="str">
-        <f>A25</f>
-        <v>PAPELITO 09</v>
+        <f>E20</f>
+        <v>FUERTES 09</v>
       </c>
       <c r="M18" s="20" t="str">
-        <f>A11</f>
-        <v>VERON 09</v>
+        <f>A22</f>
+        <v>BRAÑA 09</v>
       </c>
       <c r="P18" s="15">
         <v>2019</v>
@@ -2546,45 +2587,33 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>255</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H19" s="13" t="str">
-        <f>A21</f>
-        <v>ALEXIS SANCHEZ 08</v>
-      </c>
-      <c r="I19" s="13" t="str">
-        <f>A18</f>
-        <v>FIGUEROA 08</v>
+        <v>329</v>
       </c>
       <c r="K19" s="20" t="str">
-        <f>C6</f>
-        <v>SEBA DOMINGUEZ 09</v>
-      </c>
-      <c r="L19" s="20" t="str">
-        <f>A28</f>
-        <v>GAITAN 09</v>
+        <f>F28</f>
+        <v>BOLATTI 09</v>
       </c>
       <c r="M19" s="20" t="str">
-        <f>B17</f>
-        <v>BOSELLI 09</v>
+        <f>C23</f>
+        <v>CHINO BENITEZ 09</v>
       </c>
       <c r="P19" s="12">
         <v>2020</v>
@@ -2601,45 +2630,29 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H20" s="13" t="str">
-        <f>B29</f>
-        <v>JP CARRIZO 08</v>
-      </c>
-      <c r="I20" s="13" t="str">
-        <f>E27</f>
-        <v>VIATRI 08</v>
+        <v>305</v>
       </c>
       <c r="K20" s="20" t="str">
-        <f>E14</f>
-        <v>SALVIO 09</v>
-      </c>
-      <c r="L20" s="20" t="str">
-        <f>C29</f>
-        <v>FRANCO JARA 09</v>
-      </c>
-      <c r="M20" s="20" t="str">
-        <f>E21</f>
-        <v>ANDUJAR 09</v>
+        <f>D30</f>
+        <v>OTAMENDI 09</v>
       </c>
       <c r="P20" s="19">
         <v>2021</v>
@@ -2659,37 +2672,40 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="H21" s="13" t="str">
-        <f>C30</f>
-        <v>BUONANOTTE 08</v>
-      </c>
-      <c r="K21" s="20" t="str">
-        <f>A16</f>
-        <v>PASTORE 09</v>
-      </c>
-      <c r="M21" s="20" t="str">
-        <f>A22</f>
-        <v>BRAÑA 09</v>
+      <c r="L21" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="P21" s="18">
         <v>2022</v>
@@ -2712,27 +2728,43 @@
         <v>67</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K22" s="20" t="str">
+        <v>307</v>
+      </c>
+      <c r="H22" s="10" t="str">
+        <f>E2</f>
+        <v>CARUZZO 10</v>
+      </c>
+      <c r="I22" s="10" t="str">
         <f>E16</f>
         <v>RÉ 10</v>
       </c>
+      <c r="J22" s="10" t="str">
+        <f>E17</f>
+        <v>PARRA 10</v>
+      </c>
+      <c r="K22" s="16" t="str">
+        <f>A8</f>
+        <v>AUGUSTO 11</v>
+      </c>
+      <c r="L22" s="16" t="str">
+        <f>D2</f>
+        <v>SCHIAVI 11</v>
+      </c>
       <c r="P22" s="24">
         <v>2023</v>
       </c>
@@ -2754,29 +2786,41 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>90</v>
+      <c r="C23" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="K23" s="20" t="str">
-        <f>E20</f>
-        <v>FUERTES 09</v>
+        <v>308</v>
+      </c>
+      <c r="H23" s="10" t="str">
+        <f>D12</f>
+        <v>GABBARINI 10</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f>C22</f>
+        <v>STRACQUALURSI 10</v>
+      </c>
+      <c r="K23" s="16" t="str">
+        <f>D11</f>
+        <v>RICKY ALVAREZ 11</v>
+      </c>
+      <c r="L23" s="16" t="str">
+        <f>D18</f>
+        <v>TITO RAMIREZ 11</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -2784,53 +2828,65 @@
         <v>5</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K24" s="20" t="str">
-        <f>F28</f>
-        <v>BOLATTI 09</v>
+        <v>309</v>
+      </c>
+      <c r="H24" s="10" t="str">
+        <f>F14</f>
+        <v>CALDERON 10</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f>D23</f>
+        <v>TANQUE SILVA 10</v>
+      </c>
+      <c r="K24" s="16" t="str">
+        <f>E25</f>
+        <v>CAMPORA 11</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>332</v>
+        <v>211</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K25" s="20" t="str">
-        <f>D30</f>
-        <v>OTAMENDI 09</v>
+        <v>310</v>
+      </c>
+      <c r="H25" s="10" t="str">
+        <f>B18</f>
+        <v>CHUCO SOSA 10</v>
+      </c>
+      <c r="K25" s="16" t="str">
+        <f>F25</f>
+        <v>ALMEYDA 11</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -2838,61 +2894,57 @@
         <v>65</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>326</v>
+        <v>311</v>
+      </c>
+      <c r="H26" s="10" t="str">
+        <f>F29</f>
+        <v>GENTILETTI 10</v>
+      </c>
+      <c r="K26" s="16" t="str">
+        <f>E29</f>
+        <v>TEO GUTIERREZ 11</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K27" s="16" t="str">
-        <f>A8</f>
-        <v>AUGUSTO 11</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>203</v>
+        <v>312</v>
+      </c>
+      <c r="H27" s="10" t="str">
+        <f>F30</f>
+        <v>MARCO PEREZ 10</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -2900,154 +2952,183 @@
         <v>58</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H28" s="10" t="str">
-        <f>E2</f>
-        <v>CARUZZO 10</v>
-      </c>
-      <c r="I28" s="10" t="str">
-        <f>C22</f>
-        <v>STRACQUALURSI 10</v>
-      </c>
-      <c r="J28" s="10" t="str">
-        <f>E17</f>
-        <v>PARRA 10</v>
-      </c>
-      <c r="K28" s="16" t="str">
-        <f>D11</f>
-        <v>RICKY ALVAREZ 11</v>
-      </c>
-      <c r="L28" s="16" t="str">
-        <f>C3</f>
-        <v>MAXI VELAZQUEZ 17</v>
+        <v>313</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>230</v>
+        <v>100</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H29" s="10" t="str">
-        <f>D12</f>
-        <v>GABBARINI 10</v>
-      </c>
-      <c r="I29" s="10" t="str">
-        <f>C23</f>
-        <v>CHINO BENITEZ 10</v>
-      </c>
-      <c r="K29" s="16" t="str">
-        <f>D23</f>
-        <v>TANQUE SILVA 11</v>
-      </c>
-      <c r="L29" s="16" t="str">
-        <f>D18</f>
-        <v>TITO RAMIREZ 11</v>
+        <v>314</v>
+      </c>
+      <c r="H29" s="9" t="str">
+        <f>F7</f>
+        <v>LUNA 12</v>
+      </c>
+      <c r="I29" s="9" t="str">
+        <f>E5</f>
+        <v>CUBERO 12</v>
+      </c>
+      <c r="J29" s="9" t="str">
+        <f>B19</f>
+        <v>RUBEN BOTTA 12</v>
+      </c>
+      <c r="K29" s="17" t="str">
+        <f>D4</f>
+        <v>PERUZZI 13</v>
+      </c>
+      <c r="L29" s="17" t="str">
+        <f>A12</f>
+        <v>TORRICO 13</v>
+      </c>
+      <c r="M29" s="17" t="str">
+        <f>F2</f>
+        <v>GOLTZ 13</v>
+      </c>
+      <c r="N29" s="17" t="str">
+        <f>C4</f>
+        <v>NERVO 13</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H30" s="10" t="str">
-        <f>F14</f>
-        <v>CALDERON 10</v>
-      </c>
-      <c r="I30" s="10" t="str">
-        <f>A30</f>
-        <v>ROLFI 15</v>
-      </c>
-      <c r="K30" s="16" t="str">
-        <f>F25</f>
-        <v>ALMEYDA 11</v>
+        <v>315</v>
+      </c>
+      <c r="H30" s="9" t="str">
+        <f>F12</f>
+        <v>JAVI GARCIA 12</v>
+      </c>
+      <c r="I30" s="9" t="str">
+        <f>D14</f>
+        <v>FERREYRA 12</v>
+      </c>
+      <c r="K30" s="17" t="str">
+        <f>E11</f>
+        <v>MAXI 13</v>
+      </c>
+      <c r="L30" s="17" t="str">
+        <f>B14</f>
+        <v>KANNEMANN 13</v>
+      </c>
+      <c r="M30" s="17" t="str">
+        <f>C24</f>
+        <v>IZQUIERDOZ 13</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H31" s="10" t="str">
-        <f>B18</f>
-        <v>CHUCO SOSA 10</v>
+        <v>316</v>
+      </c>
+      <c r="H31" s="9" t="str">
+        <f>E22</f>
+        <v>MIGLIORE 12</v>
+      </c>
+      <c r="K31" s="17" t="str">
+        <f>D20</f>
+        <v>HEINZE 13</v>
+      </c>
+      <c r="L31" s="17" t="str">
+        <f>A15</f>
+        <v>TITO VILLALBA 13</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>0</v>
@@ -3056,49 +3137,77 @@
         <f>COUNTA(A1:F30,A31,C31,E31,F31)</f>
         <v>184</v>
       </c>
-      <c r="H32" s="10" t="str">
-        <f>F29</f>
-        <v>GENTILETTI 10</v>
+      <c r="H32" s="9" t="str">
+        <f>D17</f>
+        <v>CAMPESTRINI 12</v>
+      </c>
+      <c r="L32" s="17" t="str">
+        <f>D28</f>
+        <v>RULLI 13</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H33" s="10" t="str">
-        <f>F30</f>
-        <v>MARCO PEREZ 10</v>
+      <c r="H33" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B34" s="1">
-        <f>COUNTA(A1,C1,F1,D2,B3,A4,E4,B5,F6,D6,A6,B7,E7,A9,D9,B10,F10,D10,A14,B15,B16,F16,A18,D19,B23,F23,B24,A24,E26,E27,A28,C31,B27,D21,B8)</f>
-        <v>35</v>
-      </c>
-      <c r="C34" s="32">
+        <f>COUNTA(A1,C1,F1,D2,B3,A4,E4,B5,F6,D6,A6,B7,E7,A9,D9,B10,F10,D10,A14,B16,F16,A18,D19,B23,F23,B24,A24,E26,E27,A28,C31,B27,D21)</f>
+        <v>33</v>
+      </c>
+      <c r="C34" s="31">
         <f>B34/B56*C56</f>
-        <v>0.19021739130434784</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="N34" s="17" t="s">
-        <v>258</v>
+        <v>0.17934782608695651</v>
+      </c>
+      <c r="H34" s="22" t="str">
+        <f>E3</f>
+        <v>BALANTA 14</v>
+      </c>
+      <c r="I34" s="22" t="str">
+        <f>E1</f>
+        <v>SAJA 14</v>
+      </c>
+      <c r="J34" s="22" t="str">
+        <f>A5</f>
+        <v>MERCIER 14</v>
+      </c>
+      <c r="K34" s="22" t="str">
+        <f>B15</f>
+        <v>PISCULICHI 14</v>
+      </c>
+      <c r="L34" s="23" t="str">
+        <f>E9</f>
+        <v>RUBEN 15</v>
+      </c>
+      <c r="M34" s="23" t="str">
+        <f>B1</f>
+        <v>BAROVERO 15</v>
+      </c>
+      <c r="N34" s="23" t="str">
+        <f>A30</f>
+        <v>ROLFI 15</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -3106,40 +3215,36 @@
         <v>12</v>
       </c>
       <c r="B35" s="1">
-        <f>COUNTA(D1,B1,C2,E3,F4,F5,D5,C5,C8,B9,E10,F13,E15,C18,E19,A21,D24,F25,C25,D26,B29,A29,C30,A31,F31,D27,A13,C13,B28,F18)</f>
-        <v>30</v>
-      </c>
-      <c r="C35" s="32">
+        <f>COUNTA(D1,B1,C2,E3,F4,F5,D5,C5,C8,B9,E10,F13,E15,C18,E19,A21,D24,F25,C25,D26,B29,A29,C30,A31,F31,D27,A13,C13,B28,F18,B15,B8,F19)</f>
+        <v>33</v>
+      </c>
+      <c r="C35" s="31">
         <f>B35/B56*C56</f>
-        <v>0.16304347826086957</v>
-      </c>
-      <c r="H35" s="9" t="str">
-        <f>F7</f>
-        <v>LUNA 12</v>
-      </c>
-      <c r="I35" s="9" t="str">
-        <f>D14</f>
-        <v>FERREYRA 12</v>
-      </c>
-      <c r="J35" s="9" t="str">
-        <f>B19</f>
-        <v>RUBEN BOTTA 12</v>
-      </c>
-      <c r="K35" s="17" t="str">
-        <f>D4</f>
-        <v>PERUZZI 13</v>
-      </c>
-      <c r="L35" s="17" t="str">
-        <f>A12</f>
-        <v>TORRICO 13</v>
-      </c>
-      <c r="M35" s="17" t="str">
-        <f>F2</f>
-        <v>GOLTZ 13</v>
-      </c>
-      <c r="N35" s="17" t="str">
-        <f>C4</f>
-        <v>NERVO 13</v>
+        <v>0.17934782608695651</v>
+      </c>
+      <c r="H35" s="22" t="str">
+        <f>F9</f>
+        <v>MAURO ZARATE 14</v>
+      </c>
+      <c r="I35" s="22" t="str">
+        <f>E12</f>
+        <v>PRATTO 14</v>
+      </c>
+      <c r="J35" s="22" t="str">
+        <f>C11</f>
+        <v>ANGEL CORREA 14</v>
+      </c>
+      <c r="K35" s="22" t="str">
+        <f>F18</f>
+        <v>CAVENAGHI 14</v>
+      </c>
+      <c r="L35" s="23" t="str">
+        <f>B10</f>
+        <v>TEVEZ 15</v>
+      </c>
+      <c r="M35" s="23" t="str">
+        <f>C2</f>
+        <v>MAIDANA 15</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3150,25 +3255,33 @@
         <f>COUNTA(C11,A5,B14,A15,A17,C20,B21,E22,F22,B26,C28,A12,F15,B6,E13)</f>
         <v>15</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="31">
         <f>B36/B56*C56</f>
         <v>8.1521739130434784E-2</v>
       </c>
-      <c r="H36" s="9" t="str">
-        <f>F12</f>
-        <v>JAVI GARCIA 12</v>
-      </c>
-      <c r="K36" s="17" t="str">
-        <f>E11</f>
-        <v>MAXI 13</v>
-      </c>
-      <c r="L36" s="17" t="str">
-        <f>A15</f>
-        <v>TITO VILLALBA 13</v>
-      </c>
-      <c r="M36" s="17" t="str">
-        <f>C24</f>
-        <v>IZQUIERDOZ 13</v>
+      <c r="H36" s="22" t="str">
+        <f>C12</f>
+        <v>WALTER BENITEZ 14</v>
+      </c>
+      <c r="I36" s="22" t="str">
+        <f>C17</f>
+        <v>ACUÑA 14</v>
+      </c>
+      <c r="J36" s="22" t="str">
+        <f>C20</f>
+        <v>ORTIGOZA 14</v>
+      </c>
+      <c r="K36" s="22" t="str">
+        <f>C25</f>
+        <v>MERCADO 14</v>
+      </c>
+      <c r="L36" s="23" t="str">
+        <f>F11</f>
+        <v>MANCUELLO 15</v>
+      </c>
+      <c r="M36" s="23" t="str">
+        <f>C5</f>
+        <v>KRANEVITTER 15</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3179,113 +3292,109 @@
         <f>COUNTA(D3,D4,E5,C6,A8,F9,D11,B11,E12,D14,A26,D23,D30)</f>
         <v>13</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="31">
         <f>B37/B56*C56</f>
         <v>7.0652173913043473E-2</v>
       </c>
-      <c r="H37" s="9" t="str">
-        <f>E22</f>
-        <v>MIGLIORE 12</v>
-      </c>
-      <c r="K37" s="17" t="str">
-        <f>D20</f>
-        <v>HEINZE 13</v>
-      </c>
-      <c r="L37" s="17" t="str">
-        <f>D28</f>
-        <v>RULLI 13</v>
+      <c r="H37" s="22" t="str">
+        <f>B28</f>
+        <v>LOBO LEDESMA 14</v>
+      </c>
+      <c r="I37" s="22" t="str">
+        <f>B22</f>
+        <v>MILITO 14</v>
+      </c>
+      <c r="J37" s="22" t="str">
+        <f>B21</f>
+        <v>MAS 14</v>
+      </c>
+      <c r="L37" s="23" t="str">
+        <f>C21</f>
+        <v>LO CELSO 15</v>
+      </c>
+      <c r="M37" s="23" t="str">
+        <f>C8</f>
+        <v>SANCHEZ 15</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="29">
         <f>COUNTA(D13,C3,B4,E8,C9,E23,C26,B30,C19,E14,C24,F2,C27)</f>
         <v>13</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="31">
         <f>B38/B56*C56</f>
         <v>7.0652173913043473E-2</v>
       </c>
-      <c r="H38" s="9" t="str">
-        <f>D17</f>
-        <v>CAMPESTRINI 12</v>
+      <c r="I38" s="22" t="str">
+        <f>A23</f>
+        <v>BOU 14</v>
+      </c>
+      <c r="J38" s="22" t="str">
+        <f>B26</f>
+        <v>MATOS 14</v>
+      </c>
+      <c r="L38" s="23" t="str">
+        <f>D25</f>
+        <v>PINOLA 15</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B39" s="1">
         <f>COUNTA(A2,A3,A19,A27,B25,D12,D16,E6,F11,D8,E17)</f>
         <v>11</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="31">
         <f>B39/B56*C56</f>
         <v>5.9782608695652176E-2</v>
       </c>
-      <c r="H39" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="L39" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="M39" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="N39" s="23" t="s">
-        <v>284</v>
+      <c r="J39" s="22" t="str">
+        <f>C28</f>
+        <v>I PIATTI 14</v>
+      </c>
+      <c r="L39" s="23" t="str">
+        <f>B27</f>
+        <v>CALLERI 15</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="29">
         <f>COUNTA(B2,A7,D7,A11,B17,E21,A22,D28,C16,C23,E16)</f>
         <v>11</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="31">
         <f>B40/B56*C56</f>
         <v>5.9782608695652176E-2</v>
       </c>
-      <c r="H40" s="22" t="str">
-        <f>E3</f>
-        <v>BALANTA 14</v>
-      </c>
-      <c r="I40" s="22" t="str">
-        <f>E1</f>
-        <v>SAJA 14</v>
-      </c>
-      <c r="J40" s="22" t="str">
-        <f>A5</f>
-        <v>MERCIER 14</v>
-      </c>
-      <c r="K40" s="22" t="str">
-        <f>F18</f>
-        <v>CAVENAGHI 14</v>
-      </c>
-      <c r="L40" s="23" t="str">
-        <f>E9</f>
-        <v>RUBEN 15</v>
-      </c>
-      <c r="M40" s="23" t="str">
-        <f>B1</f>
-        <v>BAROVERO 15</v>
-      </c>
-      <c r="N40" s="23" t="str">
-        <f>A30</f>
-        <v>ROLFI 15</v>
+      <c r="H40" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3296,99 +3405,111 @@
         <f>COUNTA(D22,E1,B22,A23,A10,F27,E30,E28,C17,D15)</f>
         <v>10</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="31">
         <f>B41/B56*C56</f>
         <v>5.434782608695652E-2</v>
       </c>
-      <c r="H41" s="22" t="str">
-        <f>F9</f>
-        <v>MAURO ZARATE 14</v>
-      </c>
-      <c r="I41" s="22" t="str">
-        <f>E12</f>
-        <v>PRATTO 14</v>
-      </c>
-      <c r="J41" s="22" t="str">
-        <f>C11</f>
-        <v>ANGEL CORREA 14</v>
-      </c>
-      <c r="K41" s="22" t="str">
-        <f>C25</f>
-        <v>MERCADO 14</v>
-      </c>
-      <c r="L41" s="23" t="str">
-        <f>B10</f>
-        <v>TEVEZ 15</v>
-      </c>
-      <c r="M41" s="23" t="str">
-        <f>C2</f>
-        <v>MAIDANA 15</v>
+      <c r="H41" s="21" t="str">
+        <f>C26</f>
+        <v>ALMIRON 16</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f>B7</f>
+        <v>PAVON 17</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f>C3</f>
+        <v>MAXI VELAZQUEZ 17</v>
+      </c>
+      <c r="K41" s="8" t="str">
+        <f>A2</f>
+        <v>FRANCO 17</v>
+      </c>
+      <c r="L41" s="14" t="str">
+        <f>A10</f>
+        <v>LAUTARO 17/18</v>
+      </c>
+      <c r="M41" s="14" t="str">
+        <f>D1</f>
+        <v>ARMANI 18</v>
+      </c>
+      <c r="N41" s="14" t="str">
+        <f>F17</f>
+        <v>HERRERA 18</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="29">
         <f>COUNTA(E9,D25,F17,B20,C21,F24,B13,F20)</f>
         <v>8</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="31">
         <f>B42/B56*C56</f>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="H42" s="22" t="str">
-        <f>C12</f>
-        <v>WALTER BENITEZ 14</v>
-      </c>
-      <c r="I42" s="22" t="str">
-        <f>C17</f>
-        <v>ACUÑA 14</v>
-      </c>
-      <c r="J42" s="22" t="str">
-        <f>B14</f>
-        <v>KANNEMANN 14</v>
-      </c>
-      <c r="L42" s="23" t="str">
-        <f>F11</f>
-        <v>MANCUELLO 15</v>
-      </c>
-      <c r="M42" s="23" t="str">
-        <f>C5</f>
-        <v>KRANEVITTER 15</v>
+      <c r="H42" s="21" t="str">
+        <f>C27</f>
+        <v>ROMAN MARTINEZ 16</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f>D9</f>
+        <v>BENEDETTO 16/17</v>
+      </c>
+      <c r="J42" s="8" t="str">
+        <f>B4</f>
+        <v>JL GOMEZ 17</v>
+      </c>
+      <c r="K42" s="8" t="str">
+        <f>A3</f>
+        <v>TAGLIAFICO 17</v>
+      </c>
+      <c r="L42" s="14" t="str">
+        <f>B16</f>
+        <v>BARRIOS 17/18</v>
+      </c>
+      <c r="M42" s="14" t="str">
+        <f>B8</f>
+        <v>QUINTERO 18</v>
+      </c>
+      <c r="N42" s="14" t="str">
+        <f>B20</f>
+        <v>ZAMPEDRI 18</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B43" s="1">
         <f>COUNTA(E31,E29,F26,F3,E24)</f>
         <v>5</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="31">
         <f>B43/B56*C56</f>
         <v>2.717391304347826E-2</v>
       </c>
-      <c r="H43" s="22" t="str">
-        <f>B28</f>
-        <v>LOBO LEDESMA 14</v>
-      </c>
-      <c r="I43" s="22" t="str">
-        <f>B22</f>
-        <v>MILITO 14</v>
-      </c>
-      <c r="J43" s="22" t="str">
-        <f>C20</f>
-        <v>ORTIGOZA 14</v>
-      </c>
-      <c r="L43" s="23" t="str">
-        <f>C21</f>
-        <v>LO CELSO 15</v>
-      </c>
-      <c r="M43" s="23" t="str">
-        <f>C8</f>
-        <v>SANCHEZ 15</v>
+      <c r="H43" s="21" t="str">
+        <f>B30</f>
+        <v>MARCONE 16</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f>C13</f>
+        <v>ALARIO 16/17</v>
+      </c>
+      <c r="K43" s="8" t="str">
+        <f>D8</f>
+        <v>MEZA 17</v>
+      </c>
+      <c r="L43" s="14" t="str">
+        <f>E18</f>
+        <v>MORRO 17/18</v>
+      </c>
+      <c r="M43" s="14" t="str">
+        <f>E15</f>
+        <v>PALACIOS 18</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3399,21 +3520,21 @@
         <f>COUNTA(C14,F12,B19,F7,C22)</f>
         <v>5</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="31">
         <f>B44/B56*C56</f>
         <v>2.717391304347826E-2</v>
       </c>
-      <c r="I44" s="22" t="str">
-        <f>A23</f>
-        <v>BOU 14</v>
-      </c>
-      <c r="J44" s="22" t="str">
-        <f>B21</f>
-        <v>MAS 14</v>
-      </c>
-      <c r="L44" s="23" t="str">
-        <f>D25</f>
-        <v>PINOLA 15</v>
+      <c r="I44" s="6" t="str">
+        <f>E26</f>
+        <v>CENTURION 16/17</v>
+      </c>
+      <c r="K44" s="8" t="str">
+        <f>D16</f>
+        <v>BUSTOS 17</v>
+      </c>
+      <c r="M44" s="14" t="str">
+        <f>D24</f>
+        <v>ENZO PEREZ 18</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -3424,17 +3545,13 @@
         <f>COUNTA(F14,F29,E2,B18)</f>
         <v>4</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="31">
         <f>B45/B56*C56</f>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="J45" s="22" t="str">
-        <f>B26</f>
-        <v>MATOS 14</v>
-      </c>
-      <c r="L45" s="23" t="str">
-        <f>B27</f>
-        <v>CALLERI 15</v>
+      <c r="K45" s="6" t="str">
+        <f>B25</f>
+        <v>CAMPAÑA 17</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -3445,13 +3562,13 @@
         <f>COUNTA(D17,C4,C15,C29)</f>
         <v>4</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="31">
         <f>B46/B56*C56</f>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="J46" s="22" t="str">
-        <f>C28</f>
-        <v>I PIATTI 14</v>
+      <c r="K46" s="6" t="str">
+        <f>A27</f>
+        <v>BARCO 17</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3462,112 +3579,100 @@
         <f>COUNTA(E20,F21,C10,D29)</f>
         <v>4</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="31">
         <f>B47/B56*C56</f>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="H47" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="L47" s="14" t="s">
+      <c r="H47" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="M47" s="14" t="s">
+      <c r="J47" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="K47" s="15" t="s">
         <v>227</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B48" s="1">
-        <f>COUNTA(F28,A16,A30)</f>
-        <v>3</v>
-      </c>
-      <c r="C48" s="32">
+        <f>COUNTA(F28,A16,A30,E25)</f>
+        <v>4</v>
+      </c>
+      <c r="C48" s="31">
         <f>B48/B56*C56</f>
-        <v>1.6304347826086956E-2</v>
-      </c>
-      <c r="H48" s="21" t="str">
-        <f>C26</f>
-        <v>ALMIRON 16</v>
-      </c>
-      <c r="I48" s="8" t="str">
-        <f>B7</f>
-        <v>PAVON 17</v>
-      </c>
-      <c r="J48" s="8" t="str">
-        <f>C3</f>
-        <v>MAXI VELAZQUEZ 17</v>
-      </c>
-      <c r="K48" s="8" t="str">
-        <f>A2</f>
-        <v>FRANCO 17</v>
-      </c>
-      <c r="L48" s="14" t="str">
-        <f>A10</f>
-        <v>LAUTARO 17/18</v>
-      </c>
-      <c r="M48" s="14" t="str">
-        <f>D1</f>
-        <v>ARMANI 18</v>
-      </c>
-      <c r="N48" s="14" t="str">
-        <f>F17</f>
-        <v>HERRERA 18</v>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="H48" s="15" t="str">
+        <f>D15</f>
+        <v>LICHA 18/19</v>
+      </c>
+      <c r="I48" s="15" t="str">
+        <f>B12</f>
+        <v>TOLEDO 19</v>
+      </c>
+      <c r="J48" s="15" t="str">
+        <f>D26</f>
+        <v>NACHO FERNANDEZ 19</v>
+      </c>
+      <c r="K48" s="15" t="str">
+        <f>F21</f>
+        <v>LERTORA 19</v>
+      </c>
+      <c r="L48" s="12" t="str">
+        <f>E4</f>
+        <v>BUFFARINI 19/20</v>
+      </c>
+      <c r="M48" s="12" t="str">
+        <f>A29</f>
+        <v>MONTIEL 20</v>
+      </c>
+      <c r="N48" s="12" t="str">
+        <f>C19</f>
+        <v>QUIGNON 20</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="29">
         <f>COUNTA(D20,E11,C7)</f>
         <v>3</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="31">
         <f>B49/B56*C56</f>
         <v>1.6304347826086956E-2</v>
       </c>
-      <c r="H49" s="21" t="str">
-        <f>C27</f>
-        <v>ROMAN MARTINEZ 16</v>
-      </c>
-      <c r="I49" s="8" t="str">
-        <f>D9</f>
-        <v>BENEDETTO 16/17</v>
-      </c>
-      <c r="J49" s="8" t="str">
-        <f>B4</f>
-        <v>JL GOMEZ 17</v>
-      </c>
-      <c r="K49" s="8" t="str">
-        <f>A3</f>
-        <v>TAGLIAFICO 17</v>
-      </c>
-      <c r="L49" s="14" t="str">
-        <f>B16</f>
-        <v>BARRIOS 17/18</v>
-      </c>
-      <c r="M49" s="14" t="str">
-        <f>B15</f>
-        <v>NANDEZ 18</v>
-      </c>
-      <c r="N49" s="14" t="str">
-        <f>B20</f>
-        <v>ZAMPEDRI 18</v>
+      <c r="H49" s="15" t="str">
+        <f>E24</f>
+        <v>LISANDRO M 18/19</v>
+      </c>
+      <c r="I49" s="15" t="str">
+        <f>C14</f>
+        <v>MONTILLO 19</v>
+      </c>
+      <c r="L49" s="12" t="str">
+        <f>F19</f>
+        <v>BORRE 19/20</v>
+      </c>
+      <c r="N49" s="12" t="str">
+        <f>E31</f>
+        <v>BRIAN ROMERO 20</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3578,321 +3683,195 @@
         <f>COUNTA(A25,A20,F8)</f>
         <v>3</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="31">
         <f>B50/B56*C56</f>
         <v>1.6304347826086956E-2</v>
       </c>
-      <c r="H50" s="21" t="str">
-        <f>B30</f>
-        <v>MARCONE 16</v>
-      </c>
-      <c r="I50" s="8" t="str">
-        <f>C13</f>
-        <v>ALARIO 16/17</v>
-      </c>
-      <c r="K50" s="8" t="str">
-        <f>D8</f>
-        <v>MEZA 17</v>
-      </c>
-      <c r="L50" s="14" t="str">
-        <f>E18</f>
-        <v>MORRO 17/18</v>
-      </c>
-      <c r="M50" s="14" t="str">
-        <f>E15</f>
-        <v>PALACIOS 18</v>
-      </c>
-      <c r="N50" s="14" t="str">
-        <f>E25</f>
-        <v>LICHT 18</v>
+      <c r="H50" s="15" t="str">
+        <f>F26</f>
+        <v>MATIAS ROJAS 19</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B51" s="30">
-        <f>COUNTA(F30,E25)</f>
-        <v>2</v>
-      </c>
-      <c r="C51" s="32">
+        <v>281</v>
+      </c>
+      <c r="B51" s="29">
+        <f>COUNTA(F30)</f>
+        <v>1</v>
+      </c>
+      <c r="C51" s="31">
         <f>B51/B56*C56</f>
-        <v>1.0869565217391304E-2</v>
-      </c>
-      <c r="I51" s="6" t="str">
-        <f>E26</f>
-        <v>CENTURION 16/17</v>
-      </c>
-      <c r="K51" s="8" t="str">
-        <f>D16</f>
-        <v>BUSTOS 17</v>
-      </c>
-      <c r="M51" s="14" t="str">
-        <f>D24</f>
-        <v>ENZO PEREZ 18</v>
+        <v>5.434782608695652E-3</v>
+      </c>
+      <c r="H51" s="15" t="str">
+        <f>E28</f>
+        <v>ZARACHO 18/19</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B52" s="1">
         <f>COUNTA(E18,D18)</f>
         <v>2</v>
       </c>
-      <c r="C52" s="32">
+      <c r="C52" s="31">
         <f>B52/B56*C56</f>
         <v>1.0869565217391304E-2</v>
       </c>
-      <c r="K52" s="6" t="str">
-        <f>B25</f>
-        <v>CAMPAÑA 17</v>
+      <c r="H52" s="15" t="str">
+        <f>E30</f>
+        <v>SIGALI 18/9</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B53" s="1">
         <f>COUNTA(C12)</f>
         <v>1</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="31">
         <f>B53/B56*C56</f>
         <v>5.434782608695652E-3</v>
       </c>
-      <c r="K53" s="6" t="str">
-        <f>A27</f>
-        <v>BARCO 17</v>
+      <c r="H53" s="15" t="str">
+        <f>C31</f>
+        <v>ANDRADA 18/19</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B54" s="1">
         <f>COUNTA(B12)</f>
         <v>1</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="31">
         <f>B54/B56*C56</f>
         <v>5.434782608695652E-3</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="J54" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="K54" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="J54" s="15" t="s">
+      <c r="L54" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M54" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="K54" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="L54" s="12" t="s">
+      <c r="N54" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="M54" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="N54" s="12" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B55" s="1">
-        <f>COUNTA(F19)</f>
-        <v>1</v>
-      </c>
-      <c r="C55" s="32">
-        <f>B55/B56*C56</f>
-        <v>5.434782608695652E-3</v>
-      </c>
-      <c r="H55" s="15" t="str">
-        <f>D15</f>
-        <v>LICHA 18/19</v>
-      </c>
-      <c r="I55" s="15" t="str">
-        <f>C14</f>
-        <v>MONTILLO 19</v>
-      </c>
-      <c r="J55" s="15" t="str">
-        <f>D26</f>
-        <v>NACHO FERNANDEZ 19</v>
-      </c>
-      <c r="K55" s="15" t="str">
-        <f>F21</f>
-        <v>LERTORA 19</v>
-      </c>
-      <c r="L55" s="12" t="str">
-        <f>E4</f>
-        <v>BUFFARINI 19/20</v>
-      </c>
-      <c r="M55" s="12" t="str">
-        <f>A29</f>
-        <v>MONTIEL 20</v>
-      </c>
-      <c r="N55" s="12" t="str">
-        <f>C19</f>
-        <v>QUIGNON 20</v>
+      <c r="A55" s="2"/>
+      <c r="C55" s="31"/>
+      <c r="H55" s="19" t="str">
+        <f>C10</f>
+        <v>PULGA 21</v>
+      </c>
+      <c r="I55" s="19" t="str">
+        <f>B9</f>
+        <v>JULIAN 21</v>
+      </c>
+      <c r="J55" s="18" t="str">
+        <f>F6</f>
+        <v>ROJO 22</v>
+      </c>
+      <c r="K55" s="18" t="str">
+        <f>C1</f>
+        <v>ROSSI 22</v>
+      </c>
+      <c r="L55" s="24" t="str">
+        <f>E13</f>
+        <v>BATALLA 23</v>
+      </c>
+      <c r="M55" s="24" t="str">
+        <f>B13</f>
+        <v>CAMPAZ 23</v>
+      </c>
+      <c r="N55" s="24" t="str">
+        <f>F1</f>
+        <v>ROMERO 23</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>298</v>
+      <c r="A56" s="30" t="s">
+        <v>286</v>
       </c>
       <c r="B56" s="4">
         <f>SUM(B34,B35,B39,B41,B36,B48,B37,B40,B51,B49,B42,B38,B50,B45,B46,B43,B47,B55,B52,B44,B53,B54)</f>
         <v>184</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="32">
         <v>1</v>
       </c>
-      <c r="H56" s="15" t="str">
-        <f>E24</f>
-        <v>LISANDRO M 18/19</v>
-      </c>
-      <c r="N56" s="12" t="str">
-        <f>E31</f>
-        <v>BRIAN ROMERO 20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H57" s="15" t="str">
-        <f>F26</f>
-        <v>MATIAS ROJAS 19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H58" s="15" t="str">
-        <f>E28</f>
-        <v>ZARACHO 18/19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H59" s="15" t="str">
-        <f>E29</f>
-        <v>UVITA 18/19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H60" s="15" t="str">
-        <f>E30</f>
-        <v>SIGALI 18/9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H61" s="15" t="str">
-        <f>C31</f>
-        <v>ANDRADA 18/19</v>
-      </c>
-      <c r="K61" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H62" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="I62" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="J62" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="K62" s="18" t="str">
-        <f>C1</f>
-        <v>ROSSI 22</v>
-      </c>
-      <c r="L62" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="M62" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="N62" s="24" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H63" s="19" t="str">
-        <f>C10</f>
-        <v>PULGA 21</v>
-      </c>
-      <c r="I63" s="19" t="str">
-        <f>B9</f>
-        <v>JULIAN 21</v>
-      </c>
-      <c r="J63" s="18" t="str">
-        <f>F6</f>
-        <v>ROJO 22</v>
-      </c>
-      <c r="K63" s="18" t="str">
+      <c r="D56" s="34">
+        <f>SUM(C34:C55)</f>
+        <v>1</v>
+      </c>
+      <c r="H56" s="19" t="str">
+        <f>D29</f>
+        <v>ALIENDRO 21</v>
+      </c>
+      <c r="I56" s="19" t="str">
+        <f>F13</f>
+        <v>ENZO 21</v>
+      </c>
+      <c r="K56" s="18" t="str">
         <f>D22</f>
         <v>ALCARAZ 22</v>
       </c>
-      <c r="L63" s="24" t="str">
-        <f>E13</f>
-        <v>BATALLA 23</v>
-      </c>
-      <c r="M63" s="24" t="str">
-        <f>B13</f>
-        <v>CAMPAZ 23</v>
-      </c>
-      <c r="N63" s="24" t="str">
-        <f>F1</f>
-        <v>ROMERO 23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H64" s="19" t="str">
-        <f>D29</f>
-        <v>ALIENDRO 21</v>
-      </c>
-      <c r="I64" s="19" t="str">
-        <f>F13</f>
-        <v>ENZO 21</v>
-      </c>
-      <c r="K64" s="18" t="str">
+      <c r="L56" s="24" t="str">
+        <f>C18</f>
+        <v>BELTRAN 23</v>
+      </c>
+      <c r="N56" s="24" t="str">
+        <f>D19</f>
+        <v>BARCO 23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I57" s="19" t="str">
+        <f>A31</f>
+        <v>SIMON 21</v>
+      </c>
+      <c r="K57" s="18" t="str">
         <f>F24</f>
         <v>VELIZ 22</v>
       </c>
-      <c r="L64" s="24" t="str">
-        <f>C18</f>
-        <v>BELTRAN 23</v>
-      </c>
-      <c r="N64" s="24" t="str">
-        <f>D19</f>
-        <v>BARCO 23</v>
-      </c>
-    </row>
-    <row r="65" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="I65" s="19" t="str">
-        <f>A31</f>
-        <v>SIMON 21</v>
-      </c>
-    </row>
-    <row r="66" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H66" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H67" s="19" t="str">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H58" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H59" s="19" t="str">
         <f>F3</f>
         <v>BENITEZ 21</v>
       </c>
     </row>
-    <row r="68" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="M68" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="N68" s="4">
-        <f>COUNTA(H2:H5,I2,J2:J7,K2:K4,L2,M2:M3,N2:N4,H9:H12,I9:I12,J9:J10,K9:K12,L9:L15,M9:M10,H17:H21,I17:I20,J17,K17:K25,L17:L20,M17:M21,H28:H33,I28:I30,J28,K28:K30,L28:L29,H35:H38,I35,J35,K35:K37,L35:L37,M35:M36,N35,Q53,H40:H43,I40:I44,J40:J46,K40:K41,L40:L45,M40:M43,N40,H48:H50,I48:I51,J48:J49,K48:K53,L48:L50,M48:M51,N48:N50,H55:H61,I55,J55,K55,L55,M55,N55:N56,H63:H64,H67,I63:I65,J63,K62:K64,L63:L64,M63,N63:N64)</f>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M60" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="N60" s="4">
+        <f>COUNTA(H2:H5,I2,J2:J5,K2:K4,L2,M2:M3,N2:N3,H7:H9,I7:I11,J7:J9,K7:K10,L7:L12,M7:M8,H14:H18,I14:I17,J14,K14:K20,L14:L17,M14:M19,H22:H27,I22:I24,J22,K22:K26,L22:L23,H29:H32,I29:I30,J29,K29:K31,L29:L32,M29:M30,N29,H34:H37,I34:I38,J34:J39,K34:K36,L34:L39,M34:M37,N34,H41:H43,I41:I44,J41:J42,K41:K46,L41:L43,M41:M44,N41:N42,H48:H53,I48:I49,J48,K48,L48:L49,M48,N48:N49,H55:H56,H59,I55:I57,J55,K55:K57,L55:L56,M55,N55:N56)</f>
         <v>184</v>
       </c>
     </row>
@@ -3903,7 +3882,7 @@
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup fitToWidth="9" fitToHeight="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K21" formula="1"/>
+    <ignoredError sqref="K17" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/SWF_data.xlsx
+++ b/data/SWF_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="335">
   <si>
     <t>AGOSTO</t>
   </si>
@@ -281,9 +281,6 @@
     <t>ABREU 08</t>
   </si>
   <si>
-    <t>SEBA DOMINGUEZ 09</t>
-  </si>
-  <si>
     <t>OTAMENDI 09</t>
   </si>
   <si>
@@ -776,9 +773,6 @@
     <t>COPA ARG 13</t>
   </si>
   <si>
-    <t>MAXI MORALEZ 06</t>
-  </si>
-  <si>
     <t>MIGLIORE 12</t>
   </si>
   <si>
@@ -1023,6 +1017,18 @@
   </si>
   <si>
     <t>CHINO BENITEZ 09</t>
+  </si>
+  <si>
+    <t>maxi moralez</t>
+  </si>
+  <si>
+    <t>gentiletti</t>
+  </si>
+  <si>
+    <t>SEBA DOMINGUEZ 12</t>
+  </si>
+  <si>
+    <t>WILSON MORELO 19</t>
   </si>
 </sst>
 </file>
@@ -1549,10 +1555,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,7 +1579,7 @@
         <v>50</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>61</v>
@@ -1582,34 +1588,34 @@
         <v>6</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>7</v>
@@ -1635,25 +1641,25 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H2" s="3" t="str">
         <f>F4</f>
@@ -1701,25 +1707,25 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>159</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H3" s="3" t="str">
         <f>D5</f>
@@ -1762,22 +1768,22 @@
         <v>54</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H4" s="3" t="str">
         <f>E6</f>
@@ -1806,25 +1812,25 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H5" s="3" t="str">
         <f>E10</f>
@@ -1849,40 +1855,40 @@
         <v>51</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>85</v>
+        <v>274</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>62</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="J6" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="P6" s="11">
         <v>2007</v>
@@ -1902,7 +1908,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>60</v>
@@ -1917,10 +1923,10 @@
         <v>53</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H7" s="4" t="str">
         <f>F23</f>
@@ -1956,7 +1962,7 @@
         <v>13</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T7" s="13" t="s">
         <v>29</v>
@@ -1964,25 +1970,25 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>89</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H8" s="4" t="str">
         <f>D10</f>
@@ -2026,26 +2032,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f>F27</f>
-        <v>MAXI MORALEZ 06</v>
+        <v>294</v>
       </c>
       <c r="I9" s="4" t="str">
         <f>F22</f>
@@ -2078,16 +2080,16 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>63</v>
@@ -2096,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I10" s="4" t="str">
         <f>A14</f>
@@ -2122,25 +2124,25 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I11" s="4" t="str">
         <f>E19</f>
@@ -2177,22 +2179,22 @@
         <v>70</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L12" s="11" t="str">
         <f>A24</f>
@@ -2222,40 +2224,40 @@
         <v>84</v>
       </c>
       <c r="B13" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>146</v>
-      </c>
       <c r="F13" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H13" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="K13" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="M13" s="20" t="s">
         <v>191</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>192</v>
       </c>
       <c r="P13" s="22">
         <v>2014</v>
@@ -2281,25 +2283,25 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H14" s="13" t="str">
         <f>A13</f>
@@ -2350,22 +2352,22 @@
         <v>71</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H15" s="13" t="str">
         <f>A20</f>
@@ -2376,8 +2378,8 @@
         <v>SAND 08</v>
       </c>
       <c r="K15" s="20" t="str">
-        <f>C6</f>
-        <v>SEBA DOMINGUEZ 09</v>
+        <f>E14</f>
+        <v>SALVIO 09</v>
       </c>
       <c r="L15" s="20" t="str">
         <f>A25</f>
@@ -2405,25 +2407,25 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H16" s="13" t="str">
         <f>A21</f>
@@ -2434,8 +2436,8 @@
         <v>FIGUEROA 08</v>
       </c>
       <c r="K16" s="20" t="str">
-        <f>E14</f>
-        <v>SALVIO 09</v>
+        <f>A16</f>
+        <v>PASTORE 09</v>
       </c>
       <c r="L16" s="20" t="str">
         <f>A28</f>
@@ -2469,25 +2471,25 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>142</v>
-      </c>
       <c r="D17" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H17" s="13" t="str">
         <f>B29</f>
@@ -2498,8 +2500,8 @@
         <v>VIATRI 08</v>
       </c>
       <c r="K17" s="20" t="str">
-        <f>A16</f>
-        <v>PASTORE 09</v>
+        <f>E20</f>
+        <v>FUERTES 09</v>
       </c>
       <c r="L17" s="20" t="str">
         <f>C29</f>
@@ -2534,30 +2536,30 @@
         <v>49</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H18" s="13" t="str">
         <f>C30</f>
         <v>BUONANOTTE 08</v>
       </c>
       <c r="K18" s="20" t="str">
-        <f>E20</f>
-        <v>FUERTES 09</v>
+        <f>F28</f>
+        <v>BOLATTI 09</v>
       </c>
       <c r="M18" s="20" t="str">
         <f>A22</f>
@@ -2587,29 +2589,29 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K19" s="20" t="str">
-        <f>F28</f>
-        <v>BOLATTI 09</v>
+        <f>D30</f>
+        <v>OTAMENDI 09</v>
       </c>
       <c r="M19" s="20" t="str">
         <f>C23</f>
@@ -2633,26 +2635,37 @@
         <v>81</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="K20" s="20" t="str">
-        <f>D30</f>
-        <v>OTAMENDI 09</v>
+        <v>303</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="P20" s="19">
         <v>2021</v>
@@ -2672,40 +2685,45 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>322</v>
+        <v>304</v>
+      </c>
+      <c r="H21" s="10" t="str">
+        <f>E2</f>
+        <v>CARUZZO 10</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f>E16</f>
+        <v>RÉ 10</v>
+      </c>
+      <c r="J21" s="10" t="str">
+        <f>E17</f>
+        <v>PARRA 10</v>
+      </c>
+      <c r="K21" s="16" t="str">
+        <f>A8</f>
+        <v>AUGUSTO 11</v>
+      </c>
+      <c r="L21" s="16" t="str">
+        <f>D2</f>
+        <v>SCHIAVI 11</v>
       </c>
       <c r="P21" s="18">
         <v>2022</v>
@@ -2728,42 +2746,38 @@
         <v>67</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H22" s="10" t="str">
-        <f>E2</f>
-        <v>CARUZZO 10</v>
+        <f>D12</f>
+        <v>GABBARINI 10</v>
       </c>
       <c r="I22" s="10" t="str">
-        <f>E16</f>
-        <v>RÉ 10</v>
-      </c>
-      <c r="J22" s="10" t="str">
-        <f>E17</f>
-        <v>PARRA 10</v>
+        <f>C22</f>
+        <v>STRACQUALURSI 10</v>
       </c>
       <c r="K22" s="16" t="str">
-        <f>A8</f>
-        <v>AUGUSTO 11</v>
+        <f>D11</f>
+        <v>RICKY ALVAREZ 11</v>
       </c>
       <c r="L22" s="16" t="str">
-        <f>D2</f>
-        <v>SCHIAVI 11</v>
+        <f>D18</f>
+        <v>TITO RAMIREZ 11</v>
       </c>
       <c r="P22" s="24">
         <v>2023</v>
@@ -2786,41 +2800,37 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H23" s="10" t="str">
-        <f>D12</f>
-        <v>GABBARINI 10</v>
+        <f>F14</f>
+        <v>CALDERON 10</v>
       </c>
       <c r="I23" s="10" t="str">
-        <f>C22</f>
-        <v>STRACQUALURSI 10</v>
+        <f>D23</f>
+        <v>TANQUE SILVA 10</v>
       </c>
       <c r="K23" s="16" t="str">
-        <f>D11</f>
-        <v>RICKY ALVAREZ 11</v>
-      </c>
-      <c r="L23" s="16" t="str">
-        <f>D18</f>
-        <v>TITO RAMIREZ 11</v>
+        <f>E25</f>
+        <v>CAMPORA 11</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -2828,7 +2838,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>75</v>
@@ -2837,56 +2847,52 @@
         <v>79</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H24" s="10" t="str">
-        <f>F14</f>
-        <v>CALDERON 10</v>
-      </c>
-      <c r="I24" s="10" t="str">
-        <f>D23</f>
-        <v>TANQUE SILVA 10</v>
+        <f>B18</f>
+        <v>CHUCO SOSA 10</v>
       </c>
       <c r="K24" s="16" t="str">
-        <f>E25</f>
-        <v>CAMPORA 11</v>
+        <f>F25</f>
+        <v>ALMEYDA 11</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H25" s="10" t="str">
-        <f>B18</f>
-        <v>CHUCO SOSA 10</v>
+        <f>F29</f>
+        <v>GENTILETTI 10</v>
       </c>
       <c r="K25" s="16" t="str">
-        <f>F25</f>
-        <v>ALMEYDA 11</v>
+        <f>E29</f>
+        <v>TEO GUTIERREZ 11</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -2903,48 +2909,61 @@
         <v>80</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H26" s="10" t="str">
-        <f>F29</f>
-        <v>GENTILETTI 10</v>
-      </c>
-      <c r="K26" s="16" t="str">
-        <f>E29</f>
-        <v>TEO GUTIERREZ 11</v>
+        <f>F30</f>
+        <v>MARCO PEREZ 10</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>250</v>
+      <c r="F27" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H27" s="10" t="str">
-        <f>F30</f>
-        <v>MARCO PEREZ 10</v>
+        <v>310</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -2952,99 +2971,98 @@
         <v>58</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>249</v>
+        <v>311</v>
+      </c>
+      <c r="H28" s="9" t="str">
+        <f>F7</f>
+        <v>LUNA 12</v>
+      </c>
+      <c r="I28" s="9" t="str">
+        <f>E5</f>
+        <v>CUBERO 12</v>
+      </c>
+      <c r="J28" s="9" t="str">
+        <f>B19</f>
+        <v>RUBEN BOTTA 12</v>
+      </c>
+      <c r="K28" s="17" t="str">
+        <f>D4</f>
+        <v>PERUZZI 13</v>
+      </c>
+      <c r="L28" s="17" t="str">
+        <f>A12</f>
+        <v>TORRICO 13</v>
+      </c>
+      <c r="M28" s="17" t="str">
+        <f>F2</f>
+        <v>GOLTZ 13</v>
+      </c>
+      <c r="N28" s="17" t="str">
+        <f>C4</f>
+        <v>NERVO 13</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H29" s="9" t="str">
-        <f>F7</f>
-        <v>LUNA 12</v>
+        <f>F12</f>
+        <v>JAVI GARCIA 12</v>
       </c>
       <c r="I29" s="9" t="str">
-        <f>E5</f>
-        <v>CUBERO 12</v>
-      </c>
-      <c r="J29" s="9" t="str">
-        <f>B19</f>
-        <v>RUBEN BOTTA 12</v>
+        <f>C6</f>
+        <v>SEBA DOMINGUEZ 12</v>
       </c>
       <c r="K29" s="17" t="str">
-        <f>D4</f>
-        <v>PERUZZI 13</v>
+        <f>E11</f>
+        <v>MAXI 13</v>
       </c>
       <c r="L29" s="17" t="str">
-        <f>A12</f>
-        <v>TORRICO 13</v>
+        <f>B14</f>
+        <v>KANNEMANN 13</v>
       </c>
       <c r="M29" s="17" t="str">
-        <f>F2</f>
-        <v>GOLTZ 13</v>
-      </c>
-      <c r="N29" s="17" t="str">
-        <f>C4</f>
-        <v>NERVO 13</v>
+        <f>C24</f>
+        <v>IZQUIERDOZ 13</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>76</v>
@@ -3053,82 +3071,74 @@
         <v>82</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H30" s="9" t="str">
-        <f>F12</f>
-        <v>JAVI GARCIA 12</v>
+        <f>E22</f>
+        <v>MIGLIORE 12</v>
       </c>
       <c r="I30" s="9" t="str">
         <f>D14</f>
         <v>FERREYRA 12</v>
       </c>
       <c r="K30" s="17" t="str">
-        <f>E11</f>
-        <v>MAXI 13</v>
+        <f>D20</f>
+        <v>HEINZE 13</v>
       </c>
       <c r="L30" s="17" t="str">
-        <f>B14</f>
-        <v>KANNEMANN 13</v>
-      </c>
-      <c r="M30" s="17" t="str">
-        <f>C24</f>
-        <v>IZQUIERDOZ 13</v>
+        <f>A15</f>
+        <v>TITO VILLALBA 13</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H31" s="9" t="str">
-        <f>E22</f>
-        <v>MIGLIORE 12</v>
-      </c>
-      <c r="K31" s="17" t="str">
-        <f>D20</f>
-        <v>HEINZE 13</v>
+        <f>D17</f>
+        <v>CAMPESTRINI 12</v>
       </c>
       <c r="L31" s="17" t="str">
-        <f>A15</f>
-        <v>TITO VILLALBA 13</v>
+        <f>D28</f>
+        <v>RULLI 13</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>0</v>
@@ -3137,41 +3147,61 @@
         <f>COUNTA(A1:F30,A31,C31,E31,F31)</f>
         <v>184</v>
       </c>
-      <c r="H32" s="9" t="str">
-        <f>D17</f>
-        <v>CAMPESTRINI 12</v>
-      </c>
-      <c r="L32" s="17" t="str">
-        <f>D28</f>
-        <v>RULLI 13</v>
+      <c r="H32" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H33" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="M33" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="N33" s="23" t="s">
-        <v>273</v>
+      <c r="H33" s="22" t="str">
+        <f>E3</f>
+        <v>BALANTA 14</v>
+      </c>
+      <c r="I33" s="22" t="str">
+        <f>E1</f>
+        <v>SAJA 14</v>
+      </c>
+      <c r="J33" s="22" t="str">
+        <f>A5</f>
+        <v>MERCIER 14</v>
+      </c>
+      <c r="K33" s="22" t="str">
+        <f>B15</f>
+        <v>PISCULICHI 14</v>
+      </c>
+      <c r="L33" s="23" t="str">
+        <f>E9</f>
+        <v>RUBEN 15</v>
+      </c>
+      <c r="M33" s="23" t="str">
+        <f>B1</f>
+        <v>BAROVERO 15</v>
+      </c>
+      <c r="N33" s="23" t="str">
+        <f>A30</f>
+        <v>ROLFI 15</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B34" s="1">
         <f>COUNTA(A1,C1,F1,D2,B3,A4,E4,B5,F6,D6,A6,B7,E7,A9,D9,B10,F10,D10,A14,B16,F16,A18,D19,B23,F23,B24,A24,E26,E27,A28,C31,B27,D21)</f>
@@ -3182,32 +3212,28 @@
         <v>0.17934782608695651</v>
       </c>
       <c r="H34" s="22" t="str">
-        <f>E3</f>
-        <v>BALANTA 14</v>
+        <f>F9</f>
+        <v>MAURO ZARATE 14</v>
       </c>
       <c r="I34" s="22" t="str">
-        <f>E1</f>
-        <v>SAJA 14</v>
+        <f>E12</f>
+        <v>PRATTO 14</v>
       </c>
       <c r="J34" s="22" t="str">
-        <f>A5</f>
-        <v>MERCIER 14</v>
+        <f>C11</f>
+        <v>ANGEL CORREA 14</v>
       </c>
       <c r="K34" s="22" t="str">
-        <f>B15</f>
-        <v>PISCULICHI 14</v>
+        <f>F18</f>
+        <v>CAVENAGHI 14</v>
       </c>
       <c r="L34" s="23" t="str">
-        <f>E9</f>
-        <v>RUBEN 15</v>
+        <f>B10</f>
+        <v>TEVEZ 15</v>
       </c>
       <c r="M34" s="23" t="str">
-        <f>B1</f>
-        <v>BAROVERO 15</v>
-      </c>
-      <c r="N34" s="23" t="str">
-        <f>A30</f>
-        <v>ROLFI 15</v>
+        <f>C2</f>
+        <v>MAIDANA 15</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -3223,28 +3249,28 @@
         <v>0.17934782608695651</v>
       </c>
       <c r="H35" s="22" t="str">
-        <f>F9</f>
-        <v>MAURO ZARATE 14</v>
+        <f>C12</f>
+        <v>WALTER BENITEZ 14</v>
       </c>
       <c r="I35" s="22" t="str">
-        <f>E12</f>
-        <v>PRATTO 14</v>
+        <f>C17</f>
+        <v>ACUÑA 14</v>
       </c>
       <c r="J35" s="22" t="str">
-        <f>C11</f>
-        <v>ANGEL CORREA 14</v>
+        <f>C20</f>
+        <v>ORTIGOZA 14</v>
       </c>
       <c r="K35" s="22" t="str">
-        <f>F18</f>
-        <v>CAVENAGHI 14</v>
+        <f>C25</f>
+        <v>MERCADO 14</v>
       </c>
       <c r="L35" s="23" t="str">
-        <f>B10</f>
-        <v>TEVEZ 15</v>
+        <f>F11</f>
+        <v>MANCUELLO 15</v>
       </c>
       <c r="M35" s="23" t="str">
-        <f>C2</f>
-        <v>MAIDANA 15</v>
+        <f>C5</f>
+        <v>KRANEVITTER 15</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3260,28 +3286,24 @@
         <v>8.1521739130434784E-2</v>
       </c>
       <c r="H36" s="22" t="str">
-        <f>C12</f>
-        <v>WALTER BENITEZ 14</v>
+        <f>B28</f>
+        <v>LOBO LEDESMA 14</v>
       </c>
       <c r="I36" s="22" t="str">
-        <f>C17</f>
-        <v>ACUÑA 14</v>
+        <f>B22</f>
+        <v>MILITO 14</v>
       </c>
       <c r="J36" s="22" t="str">
-        <f>C20</f>
-        <v>ORTIGOZA 14</v>
-      </c>
-      <c r="K36" s="22" t="str">
-        <f>C25</f>
-        <v>MERCADO 14</v>
+        <f>B21</f>
+        <v>MAS 14</v>
       </c>
       <c r="L36" s="23" t="str">
-        <f>F11</f>
-        <v>MANCUELLO 15</v>
+        <f>C21</f>
+        <v>LO CELSO 15</v>
       </c>
       <c r="M36" s="23" t="str">
-        <f>C5</f>
-        <v>KRANEVITTER 15</v>
+        <f>C8</f>
+        <v>SANCHEZ 15</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3296,25 +3318,20 @@
         <f>B37/B56*C56</f>
         <v>7.0652173913043473E-2</v>
       </c>
-      <c r="H37" s="22" t="str">
-        <f>B28</f>
-        <v>LOBO LEDESMA 14</v>
+      <c r="E37" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="I37" s="22" t="str">
-        <f>B22</f>
-        <v>MILITO 14</v>
+        <f>A23</f>
+        <v>BOU 14</v>
       </c>
       <c r="J37" s="22" t="str">
-        <f>B21</f>
-        <v>MAS 14</v>
+        <f>B26</f>
+        <v>MATOS 14</v>
       </c>
       <c r="L37" s="23" t="str">
-        <f>C21</f>
-        <v>LO CELSO 15</v>
-      </c>
-      <c r="M37" s="23" t="str">
-        <f>C8</f>
-        <v>SANCHEZ 15</v>
+        <f>D25</f>
+        <v>PINOLA 15</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3329,22 +3346,18 @@
         <f>B38/B56*C56</f>
         <v>7.0652173913043473E-2</v>
       </c>
-      <c r="I38" s="22" t="str">
-        <f>A23</f>
-        <v>BOU 14</v>
-      </c>
       <c r="J38" s="22" t="str">
-        <f>B26</f>
-        <v>MATOS 14</v>
+        <f>C28</f>
+        <v>I PIATTI 14</v>
       </c>
       <c r="L38" s="23" t="str">
-        <f>D25</f>
-        <v>PINOLA 15</v>
+        <f>B27</f>
+        <v>CALLERI 15</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B39" s="1">
         <f>COUNTA(A2,A3,A19,A27,B25,D12,D16,E6,F11,D8,E17)</f>
@@ -3354,13 +3367,29 @@
         <f>B39/B56*C56</f>
         <v>5.9782608695652176E-2</v>
       </c>
-      <c r="J39" s="22" t="str">
-        <f>C28</f>
-        <v>I PIATTI 14</v>
-      </c>
-      <c r="L39" s="23" t="str">
-        <f>B27</f>
-        <v>CALLERI 15</v>
+      <c r="E39" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3375,26 +3404,33 @@
         <f>B40/B56*C56</f>
         <v>5.9782608695652176E-2</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>219</v>
+      <c r="H40" s="21" t="str">
+        <f>C26</f>
+        <v>ALMIRON 16</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f>B7</f>
+        <v>PAVON 17</v>
+      </c>
+      <c r="J40" s="8" t="str">
+        <f>C3</f>
+        <v>MAXI VELAZQUEZ 17</v>
+      </c>
+      <c r="K40" s="8" t="str">
+        <f>A2</f>
+        <v>FRANCO 17</v>
+      </c>
+      <c r="L40" s="14" t="str">
+        <f>A10</f>
+        <v>LAUTARO 17/18</v>
+      </c>
+      <c r="M40" s="14" t="str">
+        <f>D1</f>
+        <v>ARMANI 18</v>
+      </c>
+      <c r="N40" s="14" t="str">
+        <f>F17</f>
+        <v>HERRERA 18</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3410,32 +3446,32 @@
         <v>5.434782608695652E-2</v>
       </c>
       <c r="H41" s="21" t="str">
-        <f>C26</f>
-        <v>ALMIRON 16</v>
+        <f>C27</f>
+        <v>ROMAN MARTINEZ 16</v>
       </c>
       <c r="I41" s="8" t="str">
-        <f>B7</f>
-        <v>PAVON 17</v>
+        <f>D9</f>
+        <v>BENEDETTO 16/17</v>
       </c>
       <c r="J41" s="8" t="str">
-        <f>C3</f>
-        <v>MAXI VELAZQUEZ 17</v>
+        <f>B4</f>
+        <v>JL GOMEZ 17</v>
       </c>
       <c r="K41" s="8" t="str">
-        <f>A2</f>
-        <v>FRANCO 17</v>
+        <f>A3</f>
+        <v>TAGLIAFICO 17</v>
       </c>
       <c r="L41" s="14" t="str">
-        <f>A10</f>
-        <v>LAUTARO 17/18</v>
+        <f>B16</f>
+        <v>BARRIOS 17/18</v>
       </c>
       <c r="M41" s="14" t="str">
-        <f>D1</f>
-        <v>ARMANI 18</v>
+        <f>B8</f>
+        <v>QUINTERO 18</v>
       </c>
       <c r="N41" s="14" t="str">
-        <f>F17</f>
-        <v>HERRERA 18</v>
+        <f>B20</f>
+        <v>ZAMPEDRI 18</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -3451,37 +3487,29 @@
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="H42" s="21" t="str">
-        <f>C27</f>
-        <v>ROMAN MARTINEZ 16</v>
+        <f>B30</f>
+        <v>MARCONE 16</v>
       </c>
       <c r="I42" s="8" t="str">
-        <f>D9</f>
-        <v>BENEDETTO 16/17</v>
-      </c>
-      <c r="J42" s="8" t="str">
-        <f>B4</f>
-        <v>JL GOMEZ 17</v>
+        <f>C13</f>
+        <v>ALARIO 16/17</v>
       </c>
       <c r="K42" s="8" t="str">
-        <f>A3</f>
-        <v>TAGLIAFICO 17</v>
+        <f>D8</f>
+        <v>MEZA 17</v>
       </c>
       <c r="L42" s="14" t="str">
-        <f>B16</f>
-        <v>BARRIOS 17/18</v>
+        <f>E18</f>
+        <v>MORRO 17/18</v>
       </c>
       <c r="M42" s="14" t="str">
-        <f>B8</f>
-        <v>QUINTERO 18</v>
-      </c>
-      <c r="N42" s="14" t="str">
-        <f>B20</f>
-        <v>ZAMPEDRI 18</v>
+        <f>E15</f>
+        <v>PALACIOS 18</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B43" s="1">
         <f>COUNTA(E31,E29,F26,F3,E24)</f>
@@ -3491,25 +3519,17 @@
         <f>B43/B56*C56</f>
         <v>2.717391304347826E-2</v>
       </c>
-      <c r="H43" s="21" t="str">
-        <f>B30</f>
-        <v>MARCONE 16</v>
-      </c>
-      <c r="I43" s="8" t="str">
-        <f>C13</f>
-        <v>ALARIO 16/17</v>
+      <c r="I43" s="6" t="str">
+        <f>E26</f>
+        <v>CENTURION 16/17</v>
       </c>
       <c r="K43" s="8" t="str">
-        <f>D8</f>
-        <v>MEZA 17</v>
-      </c>
-      <c r="L43" s="14" t="str">
-        <f>E18</f>
-        <v>MORRO 17/18</v>
+        <f>D16</f>
+        <v>BUSTOS 17</v>
       </c>
       <c r="M43" s="14" t="str">
-        <f>E15</f>
-        <v>PALACIOS 18</v>
+        <f>D24</f>
+        <v>ENZO PEREZ 18</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3524,17 +3544,9 @@
         <f>B44/B56*C56</f>
         <v>2.717391304347826E-2</v>
       </c>
-      <c r="I44" s="6" t="str">
-        <f>E26</f>
-        <v>CENTURION 16/17</v>
-      </c>
-      <c r="K44" s="8" t="str">
-        <f>D16</f>
-        <v>BUSTOS 17</v>
-      </c>
-      <c r="M44" s="14" t="str">
-        <f>D24</f>
-        <v>ENZO PEREZ 18</v>
+      <c r="K44" s="6" t="str">
+        <f>B25</f>
+        <v>CAMPAÑA 17</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -3550,8 +3562,8 @@
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="K45" s="6" t="str">
-        <f>B25</f>
-        <v>CAMPAÑA 17</v>
+        <f>A27</f>
+        <v>BARCO 17</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -3566,9 +3578,26 @@
         <f>B46/B56*C56</f>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="K46" s="6" t="str">
-        <f>A27</f>
-        <v>BARCO 17</v>
+      <c r="H46" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3583,31 +3612,38 @@
         <f>B47/B56*C56</f>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="H47" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="M47" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>229</v>
+      <c r="H47" s="15" t="str">
+        <f>D15</f>
+        <v>LICHA 18/19</v>
+      </c>
+      <c r="I47" s="15" t="str">
+        <f>B12</f>
+        <v>TOLEDO 19</v>
+      </c>
+      <c r="J47" s="15" t="str">
+        <f>D26</f>
+        <v>NACHO FERNANDEZ 19</v>
+      </c>
+      <c r="K47" s="15" t="str">
+        <f>F21</f>
+        <v>LERTORA 19</v>
+      </c>
+      <c r="L47" s="12" t="str">
+        <f>E4</f>
+        <v>BUFFARINI 19/20</v>
+      </c>
+      <c r="M47" s="12" t="str">
+        <f>A29</f>
+        <v>MONTIEL 20</v>
+      </c>
+      <c r="N47" s="12" t="str">
+        <f>C19</f>
+        <v>QUIGNON 20</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B48" s="1">
         <f>COUNTA(F28,A16,A30,E25)</f>
@@ -3618,32 +3654,24 @@
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="H48" s="15" t="str">
-        <f>D15</f>
-        <v>LICHA 18/19</v>
+        <f>E24</f>
+        <v>LISANDRO M 18/19</v>
       </c>
       <c r="I48" s="15" t="str">
-        <f>B12</f>
-        <v>TOLEDO 19</v>
-      </c>
-      <c r="J48" s="15" t="str">
-        <f>D26</f>
-        <v>NACHO FERNANDEZ 19</v>
+        <f>C14</f>
+        <v>MONTILLO 19</v>
       </c>
       <c r="K48" s="15" t="str">
-        <f>F21</f>
-        <v>LERTORA 19</v>
+        <f>F27</f>
+        <v>WILSON MORELO 19</v>
       </c>
       <c r="L48" s="12" t="str">
-        <f>E4</f>
-        <v>BUFFARINI 19/20</v>
-      </c>
-      <c r="M48" s="12" t="str">
-        <f>A29</f>
-        <v>MONTIEL 20</v>
+        <f>F19</f>
+        <v>BORRE 19/20</v>
       </c>
       <c r="N48" s="12" t="str">
-        <f>C19</f>
-        <v>QUIGNON 20</v>
+        <f>E31</f>
+        <v>BRIAN ROMERO 20</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -3659,20 +3687,8 @@
         <v>1.6304347826086956E-2</v>
       </c>
       <c r="H49" s="15" t="str">
-        <f>E24</f>
-        <v>LISANDRO M 18/19</v>
-      </c>
-      <c r="I49" s="15" t="str">
-        <f>C14</f>
-        <v>MONTILLO 19</v>
-      </c>
-      <c r="L49" s="12" t="str">
-        <f>F19</f>
-        <v>BORRE 19/20</v>
-      </c>
-      <c r="N49" s="12" t="str">
-        <f>E31</f>
-        <v>BRIAN ROMERO 20</v>
+        <f>F26</f>
+        <v>MATIAS ROJAS 19</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3688,13 +3704,13 @@
         <v>1.6304347826086956E-2</v>
       </c>
       <c r="H50" s="15" t="str">
-        <f>F26</f>
-        <v>MATIAS ROJAS 19</v>
+        <f>E28</f>
+        <v>ZARACHO 18/19</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B51" s="29">
         <f>COUNTA(F30)</f>
@@ -3705,13 +3721,13 @@
         <v>5.434782608695652E-3</v>
       </c>
       <c r="H51" s="15" t="str">
-        <f>E28</f>
-        <v>ZARACHO 18/19</v>
+        <f>E30</f>
+        <v>SIGALI 18/9</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B52" s="1">
         <f>COUNTA(E18,D18)</f>
@@ -3722,13 +3738,13 @@
         <v>1.0869565217391304E-2</v>
       </c>
       <c r="H52" s="15" t="str">
-        <f>E30</f>
-        <v>SIGALI 18/9</v>
+        <f>C31</f>
+        <v>ANDRADA 18/19</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B53" s="1">
         <f>COUNTA(C12)</f>
@@ -3738,14 +3754,31 @@
         <f>B53/B56*C56</f>
         <v>5.434782608695652E-3</v>
       </c>
-      <c r="H53" s="15" t="str">
-        <f>C31</f>
-        <v>ANDRADA 18/19</v>
+      <c r="H53" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="M53" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="N53" s="24" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B54" s="1">
         <f>COUNTA(B12)</f>
@@ -3755,63 +3788,62 @@
         <f>B54/B56*C56</f>
         <v>5.434782608695652E-3</v>
       </c>
-      <c r="H54" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="J54" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="K54" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="L54" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="M54" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="N54" s="24" t="s">
-        <v>237</v>
+      <c r="H54" s="19" t="str">
+        <f>C10</f>
+        <v>PULGA 21</v>
+      </c>
+      <c r="I54" s="19" t="str">
+        <f>B9</f>
+        <v>JULIAN 21</v>
+      </c>
+      <c r="J54" s="18" t="str">
+        <f>F6</f>
+        <v>ROJO 22</v>
+      </c>
+      <c r="K54" s="18" t="str">
+        <f>C1</f>
+        <v>ROSSI 22</v>
+      </c>
+      <c r="L54" s="24" t="str">
+        <f>E13</f>
+        <v>BATALLA 23</v>
+      </c>
+      <c r="M54" s="24" t="str">
+        <f>B13</f>
+        <v>CAMPAZ 23</v>
+      </c>
+      <c r="N54" s="24" t="str">
+        <f>F1</f>
+        <v>ROMERO 23</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="C55" s="31"/>
       <c r="H55" s="19" t="str">
-        <f>C10</f>
-        <v>PULGA 21</v>
+        <f>D29</f>
+        <v>ALIENDRO 21</v>
       </c>
       <c r="I55" s="19" t="str">
-        <f>B9</f>
-        <v>JULIAN 21</v>
-      </c>
-      <c r="J55" s="18" t="str">
-        <f>F6</f>
-        <v>ROJO 22</v>
+        <f>F13</f>
+        <v>ENZO 21</v>
       </c>
       <c r="K55" s="18" t="str">
-        <f>C1</f>
-        <v>ROSSI 22</v>
+        <f>D22</f>
+        <v>ALCARAZ 22</v>
       </c>
       <c r="L55" s="24" t="str">
-        <f>E13</f>
-        <v>BATALLA 23</v>
-      </c>
-      <c r="M55" s="24" t="str">
-        <f>B13</f>
-        <v>CAMPAZ 23</v>
+        <f>C18</f>
+        <v>BELTRAN 23</v>
       </c>
       <c r="N55" s="24" t="str">
-        <f>F1</f>
-        <v>ROMERO 23</v>
+        <f>D19</f>
+        <v>BARCO 23</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B56" s="4">
         <f>SUM(B34,B35,B39,B41,B36,B48,B37,B40,B51,B49,B42,B38,B50,B45,B46,B43,B47,B55,B52,B44,B53,B54)</f>
@@ -3824,55 +3856,33 @@
         <f>SUM(C34:C55)</f>
         <v>1</v>
       </c>
-      <c r="H56" s="19" t="str">
-        <f>D29</f>
-        <v>ALIENDRO 21</v>
-      </c>
       <c r="I56" s="19" t="str">
-        <f>F13</f>
-        <v>ENZO 21</v>
-      </c>
-      <c r="K56" s="18" t="str">
-        <f>D22</f>
-        <v>ALCARAZ 22</v>
-      </c>
-      <c r="L56" s="24" t="str">
-        <f>C18</f>
-        <v>BELTRAN 23</v>
-      </c>
-      <c r="N56" s="24" t="str">
-        <f>D19</f>
-        <v>BARCO 23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I57" s="19" t="str">
         <f>A31</f>
         <v>SIMON 21</v>
       </c>
-      <c r="K57" s="18" t="str">
+      <c r="K56" s="18" t="str">
         <f>F24</f>
         <v>VELIZ 22</v>
       </c>
     </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H57" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H58" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H59" s="19" t="str">
+      <c r="H58" s="19" t="str">
         <f>F3</f>
         <v>BENITEZ 21</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M60" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="N60" s="4">
-        <f>COUNTA(H2:H5,I2,J2:J5,K2:K4,L2,M2:M3,N2:N3,H7:H9,I7:I11,J7:J9,K7:K10,L7:L12,M7:M8,H14:H18,I14:I17,J14,K14:K20,L14:L17,M14:M19,H22:H27,I22:I24,J22,K22:K26,L22:L23,H29:H32,I29:I30,J29,K29:K31,L29:L32,M29:M30,N29,H34:H37,I34:I38,J34:J39,K34:K36,L34:L39,M34:M37,N34,H41:H43,I41:I44,J41:J42,K41:K46,L41:L43,M41:M44,N41:N42,H48:H53,I48:I49,J48,K48,L48:L49,M48,N48:N49,H55:H56,H59,I55:I57,J55,K55:K57,L55:L56,M55,N55:N56)</f>
-        <v>184</v>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M59" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N59" s="4">
+        <f>COUNTA(H2:H5,I2,J2:J5,K2:K4,L2,M2:M3,N2:N3,H7:H8,I7:I11,J7:J9,K7:K10,L7:L12,M7:M8,H14:H18,I14:I17,J14,K14:K19,L14:L17,M14:M19,H21:H26,I21:I23,J21,K21:K25,L21:L22,H28:H31,I28:I30,J28,K28:K30,L28:L31,M28:M29,N28,H33:H36,I33:I37,J33:J38,K33:K35,L33:L38,M33:M36,N33,H40:H42,I40:I43,J40:J41,K40:K45,L40:L42,M40:M43,N40:N41,H47:H52,I47:I48,J47,K47,L47:L48,M47,N47:N48,H54:H55,H58,I54:I56,J54,K54:K56,L54:L55,M54,N54:N55)</f>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3882,7 +3892,7 @@
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup fitToWidth="9" fitToHeight="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K17" formula="1"/>
+    <ignoredError sqref="K16" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/SWF_data.xlsx
+++ b/data/SWF_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="333">
   <si>
     <t>AGOSTO</t>
   </si>
@@ -1017,12 +1017,6 @@
   </si>
   <si>
     <t>CHINO BENITEZ 09</t>
-  </si>
-  <si>
-    <t>maxi moralez</t>
-  </si>
-  <si>
-    <t>gentiletti</t>
   </si>
   <si>
     <t>SEBA DOMINGUEZ 12</t>
@@ -1557,8 +1551,8 @@
   </sheetPr>
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,7 +1852,7 @@
         <v>274</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>143</v>
@@ -2939,7 +2933,7 @@
         <v>57</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>310</v>
@@ -3318,9 +3312,6 @@
         <f>B37/B56*C56</f>
         <v>7.0652173913043473E-2</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="I37" s="22" t="str">
         <f>A23</f>
         <v>BOU 14</v>
@@ -3367,9 +3358,6 @@
         <f>B39/B56*C56</f>
         <v>5.9782608695652176E-2</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="H39" s="21" t="s">
         <v>209</v>
       </c>
@@ -3438,12 +3426,12 @@
         <v>22</v>
       </c>
       <c r="B41" s="1">
-        <f>COUNTA(D22,E1,B22,A23,A10,F27,E30,E28,C17,D15)</f>
-        <v>10</v>
+        <f>COUNTA(D22,E1,B22,A23,A10,E30,E28,C17,D15)</f>
+        <v>9</v>
       </c>
       <c r="C41" s="31">
         <f>B41/B56*C56</f>
-        <v>5.434782608695652E-2</v>
+        <v>4.8913043478260872E-2</v>
       </c>
       <c r="H41" s="21" t="str">
         <f>C27</f>
@@ -3551,15 +3539,15 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B45" s="1">
-        <f>COUNTA(F14,F29,E2,B18)</f>
-        <v>4</v>
+        <f>COUNTA(E20,F21,C10,D29,F27)</f>
+        <v>5</v>
       </c>
       <c r="C45" s="31">
         <f>B45/B56*C56</f>
-        <v>2.1739130434782608E-2</v>
+        <v>2.717391304347826E-2</v>
       </c>
       <c r="K45" s="6" t="str">
         <f>A27</f>
@@ -3568,10 +3556,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" s="1">
-        <f>COUNTA(D17,C4,C15,C29)</f>
+        <f>COUNTA(F14,F29,E2,B18)</f>
         <v>4</v>
       </c>
       <c r="C46" s="31">
@@ -3602,10 +3590,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1">
-        <f>COUNTA(E20,F21,C10,D29)</f>
+        <f>COUNTA(D17,C4,C15,C29)</f>
         <v>4</v>
       </c>
       <c r="C47" s="31">
@@ -3846,7 +3834,7 @@
         <v>284</v>
       </c>
       <c r="B56" s="4">
-        <f>SUM(B34,B35,B39,B41,B36,B48,B37,B40,B51,B49,B42,B38,B50,B45,B46,B43,B47,B55,B52,B44,B53,B54)</f>
+        <f>SUM(B34,B35,B39,B41,B36,B48,B37,B40,B51,B49,B42,B38,B50,B46,B47,B43,B45,B55,B52,B44,B53,B54)</f>
         <v>184</v>
       </c>
       <c r="C56" s="32">
@@ -3881,8 +3869,8 @@
         <v>284</v>
       </c>
       <c r="N59" s="4">
-        <f>COUNTA(H2:H5,I2,J2:J5,K2:K4,L2,M2:M3,N2:N3,H7:H8,I7:I11,J7:J9,K7:K10,L7:L12,M7:M8,H14:H18,I14:I17,J14,K14:K19,L14:L17,M14:M19,H21:H26,I21:I23,J21,K21:K25,L21:L22,H28:H31,I28:I30,J28,K28:K30,L28:L31,M28:M29,N28,H33:H36,I33:I37,J33:J38,K33:K35,L33:L38,M33:M36,N33,H40:H42,I40:I43,J40:J41,K40:K45,L40:L42,M40:M43,N40:N41,H47:H52,I47:I48,J47,K47,L47:L48,M47,N47:N48,H54:H55,H58,I54:I56,J54,K54:K56,L54:L55,M54,N54:N55)</f>
-        <v>183</v>
+        <f>COUNTA(H2:H5,I2,J2:J5,K2:K4,L2,M2:M3,N2:N3,H7:H8,I7:I11,J7:J9,K7:K10,L7:L12,M7:M8,H14:H18,I14:I17,J14,K14:K19,L14:L17,M14:M19,H21:H26,I21:I23,J21,K21:K25,L21:L22,H28:H31,I28:I30,J28,K28:K30,L28:L31,M28:M29,N28,H33:H36,I33:I37,J33:J38,K33:K35,L33:L38,M33:M36,N33,H40:H42,I40:I43,J40:J41,K40:K45,L40:L42,M40:M43,N40:N41,H47:H52,I47:I48,J47,K47:K48,L47:L48,M47,N47:N48,H54:H55,H58,I54:I56,J54,K54:K56,L54:L55,M54,N54:N55)</f>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
